--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_643.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_643.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32406-d84020-Reviews-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>171</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Residence-Inn-By-Marriott-Huntington-Beach-Fountain-Valley.h6754.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_643.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_643.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="796">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2336 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r570247242-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>32406</t>
+  </si>
+  <si>
+    <t>84020</t>
+  </si>
+  <si>
+    <t>570247242</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Always awesome</t>
+  </si>
+  <si>
+    <t>We have stayed here a number of times and it never disappoints. Clean, friendly, and great location. Staff here is very welcoming and hotel is located close to a number of beaches. Will be back soon!!</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r569488599-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>569488599</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>Hey mickey here we go!!</t>
+  </si>
+  <si>
+    <t>People at counter so nice, great hospitalityNo one can beat Marriott's bedsThis is what we dad's needs afternoon touring around Disney with your beloved one'sComplementary breakfast is includedIt is as close as 30 minutes from Disneyland and rooms are quiet</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r555296019-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>555296019</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Just About What You Would Expect</t>
+  </si>
+  <si>
+    <t>We were placed here for 5 nights because of a flood in our house. It seems like a place for similarly displaced people.  Room was reasonably clean and the free breakfast worked out.  Good location and nice front desk but nothing fancy.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Ryan F, Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>We were placed here for 5 nights because of a flood in our house. It seems like a place for similarly displaced people.  Room was reasonably clean and the free breakfast worked out.  Good location and nice front desk but nothing fancy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r532882798-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>532882798</t>
+  </si>
+  <si>
+    <t>10/14/2017</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>I was in town for a 6 nights for business and brought my family (husband, mother and aunt along). The four of us shared a two-bedroom/two-bathroom suite on the bottom floor.
+Pros:
+- The location is good; not only was it close to the office I was working in, it's close to the airport, has easy access to the freeway and is close to lots of food options and gas stations and not too far from beaches.
+- The suite has a full kitchen.
+- The front desk check-in process was easy.
+- Any staff we encountered were friendly.
+Areas of Opportunity:
+- The breakfast was okay - standard hotel breakfast fare (waffles, boiled eggs, etc.), but there was no bacon and no potatoes.
+- Parking costs $7/day, but that seems to be average for that area.
+- The biggest area of opportunity is the room needs some major updates: The furniture is worn and has frayed corners; the desk chair was not comfortable to sit in for longer than 5 minutes; the walls and ceilings need fresh coats of paint; the carpet was worn, needed replacing and felt very icky - normally I am okay with wearing thick socks or shoes inside hotel rooms (never barefoot), but there I would only wear shoes after I felt the ickiness. You can see where there have been some updates (the tiling in the shower, the vanity in the bathroom, etc.), but...I was in town for a 6 nights for business and brought my family (husband, mother and aunt along). The four of us shared a two-bedroom/two-bathroom suite on the bottom floor.Pros:- The location is good; not only was it close to the office I was working in, it's close to the airport, has easy access to the freeway and is close to lots of food options and gas stations and not too far from beaches.- The suite has a full kitchen.- The front desk check-in process was easy.- Any staff we encountered were friendly.Areas of Opportunity:- The breakfast was okay - standard hotel breakfast fare (waffles, boiled eggs, etc.), but there was no bacon and no potatoes.- Parking costs $7/day, but that seems to be average for that area.- The biggest area of opportunity is the room needs some major updates: The furniture is worn and has frayed corners; the desk chair was not comfortable to sit in for longer than 5 minutes; the walls and ceilings need fresh coats of paint; the carpet was worn, needed replacing and felt very icky - normally I am okay with wearing thick socks or shoes inside hotel rooms (never barefoot), but there I would only wear shoes after I felt the ickiness. You can see where there have been some updates (the tiling in the shower, the vanity in the bathroom, etc.), but it looks like they started and didn't continue. Also, we were close to the basketball court, which was right by our bedroom window; so, people playing basketball at 7am woke us up on the Saturday morning.- The pillows were not that comfortable.- The rooms could use ceiling fans.- It also felt odd that the full-length mirror was directly across from the toilet. It's a small thing, but it seems like there could be a better place for it.- The Internet was not the greatest, particularly when using it for an extended period of time. It dropped periodically and randomly. There was only wireless and no LAN cable (one at the desk would have been nice).- It would also be nice to have a printer onsite (even if there's a fee).Overall:It was okay. I chose this hotel because it has 2-bedroom/2-bathroom suites, which I wanted for the 4 of us traveling together. If I had that situation again, I would choose this hotel again because again it wasn't terrible. However, if I had a situation where I did not need a 2-bedroom/2-bathroom suite, I would definitely choose another Marriott property in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Ryan F, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded October 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2017</t>
+  </si>
+  <si>
+    <t>I was in town for a 6 nights for business and brought my family (husband, mother and aunt along). The four of us shared a two-bedroom/two-bathroom suite on the bottom floor.
+Pros:
+- The location is good; not only was it close to the office I was working in, it's close to the airport, has easy access to the freeway and is close to lots of food options and gas stations and not too far from beaches.
+- The suite has a full kitchen.
+- The front desk check-in process was easy.
+- Any staff we encountered were friendly.
+Areas of Opportunity:
+- The breakfast was okay - standard hotel breakfast fare (waffles, boiled eggs, etc.), but there was no bacon and no potatoes.
+- Parking costs $7/day, but that seems to be average for that area.
+- The biggest area of opportunity is the room needs some major updates: The furniture is worn and has frayed corners; the desk chair was not comfortable to sit in for longer than 5 minutes; the walls and ceilings need fresh coats of paint; the carpet was worn, needed replacing and felt very icky - normally I am okay with wearing thick socks or shoes inside hotel rooms (never barefoot), but there I would only wear shoes after I felt the ickiness. You can see where there have been some updates (the tiling in the shower, the vanity in the bathroom, etc.), but...I was in town for a 6 nights for business and brought my family (husband, mother and aunt along). The four of us shared a two-bedroom/two-bathroom suite on the bottom floor.Pros:- The location is good; not only was it close to the office I was working in, it's close to the airport, has easy access to the freeway and is close to lots of food options and gas stations and not too far from beaches.- The suite has a full kitchen.- The front desk check-in process was easy.- Any staff we encountered were friendly.Areas of Opportunity:- The breakfast was okay - standard hotel breakfast fare (waffles, boiled eggs, etc.), but there was no bacon and no potatoes.- Parking costs $7/day, but that seems to be average for that area.- The biggest area of opportunity is the room needs some major updates: The furniture is worn and has frayed corners; the desk chair was not comfortable to sit in for longer than 5 minutes; the walls and ceilings need fresh coats of paint; the carpet was worn, needed replacing and felt very icky - normally I am okay with wearing thick socks or shoes inside hotel rooms (never barefoot), but there I would only wear shoes after I felt the ickiness. You can see where there have been some updates (the tiling in the shower, the vanity in the bathroom, etc.), but it looks like they started and didn't continue. Also, we were close to the basketball court, which was right by our bedroom window; so, people playing basketball at 7am woke us up on the Saturday morning.- The pillows were not that comfortable.- The rooms could use ceiling fans.- It also felt odd that the full-length mirror was directly across from the toilet. It's a small thing, but it seems like there could be a better place for it.- The Internet was not the greatest, particularly when using it for an extended period of time. It dropped periodically and randomly. There was only wireless and no LAN cable (one at the desk would have been nice).- It would also be nice to have a printer onsite (even if there's a fee).Overall:It was okay. I chose this hotel because it has 2-bedroom/2-bathroom suites, which I wanted for the 4 of us traveling together. If I had that situation again, I would choose this hotel again because again it wasn't terrible. However, if I had a situation where I did not need a 2-bedroom/2-bathroom suite, I would definitely choose another Marriott property in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r515570838-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>515570838</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>Need better food choices</t>
+  </si>
+  <si>
+    <t>2nd time staying here because we had a good time last year. Location is great. Quiet and away from all the hustle and bustle of high tourist areas but centrally located between all major attractions we want. Few issues this time. No bacon!  Breakfast for 9 days with no bacon????  Kids love bacon. Overall breakfast was kind of bland. None of the Marriott breakfast potatoes either. Also our dishwasher did not clean the dishes well. Having a full kitchen is great with a large family but it would be nice if everything worked properly. Most annoying are the little flying insects at this location which seem to love flying into any room we stay in. Overall we would come back again regardless of these minor issues. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Ryan F, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded August 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2017</t>
+  </si>
+  <si>
+    <t>2nd time staying here because we had a good time last year. Location is great. Quiet and away from all the hustle and bustle of high tourist areas but centrally located between all major attractions we want. Few issues this time. No bacon!  Breakfast for 9 days with no bacon????  Kids love bacon. Overall breakfast was kind of bland. None of the Marriott breakfast potatoes either. Also our dishwasher did not clean the dishes well. Having a full kitchen is great with a large family but it would be nice if everything worked properly. Most annoying are the little flying insects at this location which seem to love flying into any room we stay in. Overall we would come back again regardless of these minor issues. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r510102025-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>510102025</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Family of 5- Comfortable Stay</t>
+  </si>
+  <si>
+    <t>Stayed at this location due to my daughters softball tournament. Great location near Fountain Valley Sports Park. The Pros: LOVE having a kitchen to be able to prepare meals. Full fridge, utensils, etc. Comfortable beds!The room was clean! Shower was great! Nice people work there! The Cons:Small breakfast room, mediocre food, not like other Residence Inns...Grounds need a good cleaning along with Lovby windows and roomCleaning and replacement of towels was inconsistentThe pool always had leavesThere is a cost for parkingOverall, it was a good stay.  It was comfortable for my family. It was a great location and with the AAA discount the price was a really good value. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Stayed at this location due to my daughters softball tournament. Great location near Fountain Valley Sports Park. The Pros: LOVE having a kitchen to be able to prepare meals. Full fridge, utensils, etc. Comfortable beds!The room was clean! Shower was great! Nice people work there! The Cons:Small breakfast room, mediocre food, not like other Residence Inns...Grounds need a good cleaning along with Lovby windows and roomCleaning and replacement of towels was inconsistentThe pool always had leavesThere is a cost for parkingOverall, it was a good stay.  It was comfortable for my family. It was a great location and with the AAA discount the price was a really good value. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r500534740-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>500534740</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our Favorite "Huntington" Hotel </t>
+  </si>
+  <si>
+    <t>We have stayed in several hotels around Huntington and this is by far our favorite. It's like staying in an apartment. They have full size kitchens, which I love because we cook dinner every night to save money. It's only 5-10 minutes from the beach, grocery store, drug store, restaurants and parks within a couple miles and Disneyland is 30 min away. Free breakfast and basketball court/BBQ area on site. One of the best hotels! MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan F, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>We have stayed in several hotels around Huntington and this is by far our favorite. It's like staying in an apartment. They have full size kitchens, which I love because we cook dinner every night to save money. It's only 5-10 minutes from the beach, grocery store, drug store, restaurants and parks within a couple miles and Disneyland is 30 min away. Free breakfast and basketball court/BBQ area on site. One of the best hotels! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r500518874-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>500518874</t>
+  </si>
+  <si>
+    <t>July 4th Vacation</t>
+  </si>
+  <si>
+    <t>We got a studio room and it worked out good for a family of four. My daughters shared the sofa bed and had no issues with it. Pool was the perfect temp. Breakfast was always good and the evening social activities in the lobby are a nice touch.MoreShow less</t>
+  </si>
+  <si>
+    <t>We got a studio room and it worked out good for a family of four. My daughters shared the sofa bed and had no issues with it. Pool was the perfect temp. Breakfast was always good and the evening social activities in the lobby are a nice touch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r473000031-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>473000031</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Not living up to their potential</t>
+  </si>
+  <si>
+    <t>Ryan and the other employees were all very nice, but they need to fix some things. It started off badly when we checked in and there was issues with our reservations. There was only one person working the desk, so guests including ourselves were frustrated, and then the fire alarm went off adding to the frustration.
+&gt;Issues we encountered were all the Gnats around our room doors that would come in when you open the door. 
+&gt;The doors themselves slam and absolutely shake the room every time the neighbors come and go.
+&gt;The mattresses are not comfortable, and the shower heads seemed to be plugged and only put out a fine hard spray. 
+&gt;The room towels feel like old pool tools and are pretty thin and scratchy.
+&gt;The pool area is not stocked with towels, so we had to go ask for some every time we visited the pool and Jacuzzi area. 
+&gt;The Jacuzzi only had one jet that had all the pressure, while the rest had very little. I mentioned this to front desk, and was told this had been an issue for a while, so they obviously haven't bothered to fix it.
+&gt;There was a van with no disabled parking permit parked half in the disabled spot and half in the disabled walkway for 2 days. We needed this spot and were unable to use it.
+&gt;Breakfast items advertised on their website, were not available during our 5...Ryan and the other employees were all very nice, but they need to fix some things. It started off badly when we checked in and there was issues with our reservations. There was only one person working the desk, so guests including ourselves were frustrated, and then the fire alarm went off adding to the frustration.&gt;Issues we encountered were all the Gnats around our room doors that would come in when you open the door. &gt;The doors themselves slam and absolutely shake the room every time the neighbors come and go.&gt;The mattresses are not comfortable, and the shower heads seemed to be plugged and only put out a fine hard spray. &gt;The room towels feel like old pool tools and are pretty thin and scratchy.&gt;The pool area is not stocked with towels, so we had to go ask for some every time we visited the pool and Jacuzzi area. &gt;The Jacuzzi only had one jet that had all the pressure, while the rest had very little. I mentioned this to front desk, and was told this had been an issue for a while, so they obviously haven't bothered to fix it.&gt;There was a van with no disabled parking permit parked half in the disabled spot and half in the disabled walkway for 2 days. We needed this spot and were unable to use it.&gt;Breakfast items advertised on their website, were not available during our 5 day stay, and the fire pit they advertised was also not available.This is a pet friendly hotel, so if you don't want to hear barking dogs, than don't stay here. There is also a sport court right in the middle of the courtyard, so if you don't want to hear people playing basketball at 8:00am, than get a room far away from it.I really wanted to like this hotel because the employees were so nice, but with all the problems that kept coming up, we just didn't have a good stay. We were in town for a family reunion and had 5 rooms here, so these issues were not isolated just to me. I think with some work this would be a nice place to stay, but for this trip, we were not impressed.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Ryan F, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded April 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2017</t>
+  </si>
+  <si>
+    <t>Ryan and the other employees were all very nice, but they need to fix some things. It started off badly when we checked in and there was issues with our reservations. There was only one person working the desk, so guests including ourselves were frustrated, and then the fire alarm went off adding to the frustration.
+&gt;Issues we encountered were all the Gnats around our room doors that would come in when you open the door. 
+&gt;The doors themselves slam and absolutely shake the room every time the neighbors come and go.
+&gt;The mattresses are not comfortable, and the shower heads seemed to be plugged and only put out a fine hard spray. 
+&gt;The room towels feel like old pool tools and are pretty thin and scratchy.
+&gt;The pool area is not stocked with towels, so we had to go ask for some every time we visited the pool and Jacuzzi area. 
+&gt;The Jacuzzi only had one jet that had all the pressure, while the rest had very little. I mentioned this to front desk, and was told this had been an issue for a while, so they obviously haven't bothered to fix it.
+&gt;There was a van with no disabled parking permit parked half in the disabled spot and half in the disabled walkway for 2 days. We needed this spot and were unable to use it.
+&gt;Breakfast items advertised on their website, were not available during our 5...Ryan and the other employees were all very nice, but they need to fix some things. It started off badly when we checked in and there was issues with our reservations. There was only one person working the desk, so guests including ourselves were frustrated, and then the fire alarm went off adding to the frustration.&gt;Issues we encountered were all the Gnats around our room doors that would come in when you open the door. &gt;The doors themselves slam and absolutely shake the room every time the neighbors come and go.&gt;The mattresses are not comfortable, and the shower heads seemed to be plugged and only put out a fine hard spray. &gt;The room towels feel like old pool tools and are pretty thin and scratchy.&gt;The pool area is not stocked with towels, so we had to go ask for some every time we visited the pool and Jacuzzi area. &gt;The Jacuzzi only had one jet that had all the pressure, while the rest had very little. I mentioned this to front desk, and was told this had been an issue for a while, so they obviously haven't bothered to fix it.&gt;There was a van with no disabled parking permit parked half in the disabled spot and half in the disabled walkway for 2 days. We needed this spot and were unable to use it.&gt;Breakfast items advertised on their website, were not available during our 5 day stay, and the fire pit they advertised was also not available.This is a pet friendly hotel, so if you don't want to hear barking dogs, than don't stay here. There is also a sport court right in the middle of the courtyard, so if you don't want to hear people playing basketball at 8:00am, than get a room far away from it.I really wanted to like this hotel because the employees were so nice, but with all the problems that kept coming up, we just didn't have a good stay. We were in town for a family reunion and had 5 rooms here, so these issues were not isolated just to me. I think with some work this would be a nice place to stay, but for this trip, we were not impressed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r458200692-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>458200692</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>Amazing stay, helpful staff, great price!</t>
+  </si>
+  <si>
+    <t>Stayed here for five nights on vacation with my wife and six month old son. The room had lots of space and a kitchen which was needed with a baby. The staff is really friendly and they go out of their way to ensure you are enjoying your stay. Every Monday, Tuesday and Wednesday evening there are gatherings in the lobby where they provide food and booze to guests for free! With these gatherings, the open outside BBQ setup and the breakfasts, we meet a lot of other travelers and felt like we were part of a small community at this hotel. The beach is only a short drive away, and this hotel was over $100 cheaper a night then the hotels at the beach! Also the drive to the beach is beautiful as you drive by tons of orange and lemon trees. If we are ever in the Hungington beach area again we will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Ryan F, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for five nights on vacation with my wife and six month old son. The room had lots of space and a kitchen which was needed with a baby. The staff is really friendly and they go out of their way to ensure you are enjoying your stay. Every Monday, Tuesday and Wednesday evening there are gatherings in the lobby where they provide food and booze to guests for free! With these gatherings, the open outside BBQ setup and the breakfasts, we meet a lot of other travelers and felt like we were part of a small community at this hotel. The beach is only a short drive away, and this hotel was over $100 cheaper a night then the hotels at the beach! Also the drive to the beach is beautiful as you drive by tons of orange and lemon trees. If we are ever in the Hungington beach area again we will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r456466176-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>456466176</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>More space and cheaper than other accomodations closer to the beach!</t>
+  </si>
+  <si>
+    <t>I love a good Residence Inn.  You cannot beat the price and space you get in their 2-bedroom suites.  Five of my girlfriends stayed here for a weekend mini-reunion in January. Nice to have two king sized beds in two separate bedrooms with separate bathrooms, and of course the kitchen and living space.  Yes, it more glamorous to be down on PCH right at Huntington Pier, but we easily drove down there, 15 min., for shopping and dinner.  Plus, everything is cheaper right near the 405, and there are classic Orange County strip malls everywhere - so you can get anything you want within a 0-5min drive. Free parking, which you do not get at the hotels on the beach. The breakfast is typical for a Residence Inn, eggs, waffles, sausage, oatmeal, pastries, cereal, OJ, etc. etc. etc.  after a while it all tastes a little fake, but that's a hotel breakfast for you.  I was surprised  to find flavored syrups for the coffee - caramel and vanilla - I think, yum! We hopped in the hot tub one night - and the front desk brought us out towels right away. If you have to be on the 405, this is super convenient for beaches, and Orange County access.  You don't hear the fwy noise, it's nicely laid out, more like little apartments.  Another no fuss stay.  Super comfortable beds.  I'll be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan F, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded February 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2017</t>
+  </si>
+  <si>
+    <t>I love a good Residence Inn.  You cannot beat the price and space you get in their 2-bedroom suites.  Five of my girlfriends stayed here for a weekend mini-reunion in January. Nice to have two king sized beds in two separate bedrooms with separate bathrooms, and of course the kitchen and living space.  Yes, it more glamorous to be down on PCH right at Huntington Pier, but we easily drove down there, 15 min., for shopping and dinner.  Plus, everything is cheaper right near the 405, and there are classic Orange County strip malls everywhere - so you can get anything you want within a 0-5min drive. Free parking, which you do not get at the hotels on the beach. The breakfast is typical for a Residence Inn, eggs, waffles, sausage, oatmeal, pastries, cereal, OJ, etc. etc. etc.  after a while it all tastes a little fake, but that's a hotel breakfast for you.  I was surprised  to find flavored syrups for the coffee - caramel and vanilla - I think, yum! We hopped in the hot tub one night - and the front desk brought us out towels right away. If you have to be on the 405, this is super convenient for beaches, and Orange County access.  You don't hear the fwy noise, it's nicely laid out, more like little apartments.  Another no fuss stay.  Super comfortable beds.  I'll be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r454307474-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>454307474</t>
+  </si>
+  <si>
+    <t>01/23/2017</t>
+  </si>
+  <si>
+    <t>OK Accommodation for One Night</t>
+  </si>
+  <si>
+    <t>Stayed here on a rainy night in Southern California in January 2017.  The room itself was OK, nice lay-out in the Residence Inn style.  A little extra legroom, and a Fridge and Microwave if you want to keep and cook some food.I got in late, had to work, and never really had a chance to spend much time here.  I never did locate the TV remote control, so never switched it on.Nothing to complain about but there was a lot of Freeway  noise, and I heard the rain all night but it's possible a lot of the  noise came from a drip and not the actual rain itself.Breakfast the next morning was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan F, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded January 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here on a rainy night in Southern California in January 2017.  The room itself was OK, nice lay-out in the Residence Inn style.  A little extra legroom, and a Fridge and Microwave if you want to keep and cook some food.I got in late, had to work, and never really had a chance to spend much time here.  I never did locate the TV remote control, so never switched it on.Nothing to complain about but there was a lot of Freeway  noise, and I heard the rain all night but it's possible a lot of the  noise came from a drip and not the actual rain itself.Breakfast the next morning was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r445122169-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>445122169</t>
+  </si>
+  <si>
+    <t>12/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly staff, decent location </t>
+  </si>
+  <si>
+    <t>Stayed here for two weeks. Room was decent. Staff was friendly and very helpful. There was a problem with the cable and was fixed within hours. Happy hour was welcoming. Hotel is right off the highway so was easy to go places . I'd stay here again if I was in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Ryan F, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded December 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for two weeks. Room was decent. Staff was friendly and very helpful. There was a problem with the cable and was fixed within hours. Happy hour was welcoming. Hotel is right off the highway so was easy to go places . I'd stay here again if I was in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r438199396-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>438199396</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>Decent Residence Inn with good location for work visit</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for two nights.  I had a one bedroom suite room in building 6, 2nd floor.  The room was quiet at night which is what I usually desire.  The furniture is functional and good, but not overly nice.  In other words this is a comfortable place to stay but not luxurious.  The breakfast the first morning was scrambled eggs with tortillas and two types of sausages.  The other breakfast was the same except we had bacon and some other hot option that I didn't sample.  Both mornings you could also make waffles or have cereal, yogurts and toasts.  There were fruits as well.  
+When walking to the breakfast room you are unable to access the breakfast area from the interior as the door is locked.  You need to go around to the front and even there you can get into the first sliding door but you need to use a key to open the 2nd door.  I guess security is tight at this location.  There are two Marriott properties right next to each other, this Residence Inn and next door a Courtyard Marriott.   
+There is plenty of free parking as well.  There was also a pool in the interior courtyard.  I did not try the pool as it is late fall and the air is cool in the evening when I got back from my meetings nearby.  The free internet did not require a sign-in.  And...I stayed at this hotel for two nights.  I had a one bedroom suite room in building 6, 2nd floor.  The room was quiet at night which is what I usually desire.  The furniture is functional and good, but not overly nice.  In other words this is a comfortable place to stay but not luxurious.  The breakfast the first morning was scrambled eggs with tortillas and two types of sausages.  The other breakfast was the same except we had bacon and some other hot option that I didn't sample.  Both mornings you could also make waffles or have cereal, yogurts and toasts.  There were fruits as well.  When walking to the breakfast room you are unable to access the breakfast area from the interior as the door is locked.  You need to go around to the front and even there you can get into the first sliding door but you need to use a key to open the 2nd door.  I guess security is tight at this location.  There are two Marriott properties right next to each other, this Residence Inn and next door a Courtyard Marriott.   There is plenty of free parking as well.  There was also a pool in the interior courtyard.  I did not try the pool as it is late fall and the air is cool in the evening when I got back from my meetings nearby.  The free internet did not require a sign-in.  And the rest of the room functioned as it should.  I will likely stay here again if I travel on business to here in the future.   The staff was pleasant but also, not much stood out either.  Mostly this was appropriate if you want a place to relax and sleep while visiting for business or pleasure during the day and it fulfills this function well.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Ryan F, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for two nights.  I had a one bedroom suite room in building 6, 2nd floor.  The room was quiet at night which is what I usually desire.  The furniture is functional and good, but not overly nice.  In other words this is a comfortable place to stay but not luxurious.  The breakfast the first morning was scrambled eggs with tortillas and two types of sausages.  The other breakfast was the same except we had bacon and some other hot option that I didn't sample.  Both mornings you could also make waffles or have cereal, yogurts and toasts.  There were fruits as well.  
+When walking to the breakfast room you are unable to access the breakfast area from the interior as the door is locked.  You need to go around to the front and even there you can get into the first sliding door but you need to use a key to open the 2nd door.  I guess security is tight at this location.  There are two Marriott properties right next to each other, this Residence Inn and next door a Courtyard Marriott.   
+There is plenty of free parking as well.  There was also a pool in the interior courtyard.  I did not try the pool as it is late fall and the air is cool in the evening when I got back from my meetings nearby.  The free internet did not require a sign-in.  And...I stayed at this hotel for two nights.  I had a one bedroom suite room in building 6, 2nd floor.  The room was quiet at night which is what I usually desire.  The furniture is functional and good, but not overly nice.  In other words this is a comfortable place to stay but not luxurious.  The breakfast the first morning was scrambled eggs with tortillas and two types of sausages.  The other breakfast was the same except we had bacon and some other hot option that I didn't sample.  Both mornings you could also make waffles or have cereal, yogurts and toasts.  There were fruits as well.  When walking to the breakfast room you are unable to access the breakfast area from the interior as the door is locked.  You need to go around to the front and even there you can get into the first sliding door but you need to use a key to open the 2nd door.  I guess security is tight at this location.  There are two Marriott properties right next to each other, this Residence Inn and next door a Courtyard Marriott.   There is plenty of free parking as well.  There was also a pool in the interior courtyard.  I did not try the pool as it is late fall and the air is cool in the evening when I got back from my meetings nearby.  The free internet did not require a sign-in.  And the rest of the room functioned as it should.  I will likely stay here again if I travel on business to here in the future.   The staff was pleasant but also, not much stood out either.  Mostly this was appropriate if you want a place to relax and sleep while visiting for business or pleasure during the day and it fulfills this function well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r432522835-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>432522835</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disappointed </t>
+  </si>
+  <si>
+    <t>I wanted to love this hotel (I'm from the area) but was sorely disappointed. The furniture in our two bedroom suite was dingy and run down. There were gnats everywhere. Everywhere. The were all over the hallway then would get into our room. I spent a night trying to whack them all. I even noticed dead gnats on the curtains. Then the tv reception in the main living area was spotty. Breakfast was pretty much the same everyday. So overall it was just an ok experience. I've stayed at Residence Inns much nicer than this one. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Ryan F, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>I wanted to love this hotel (I'm from the area) but was sorely disappointed. The furniture in our two bedroom suite was dingy and run down. There were gnats everywhere. Everywhere. The were all over the hallway then would get into our room. I spent a night trying to whack them all. I even noticed dead gnats on the curtains. Then the tv reception in the main living area was spotty. Breakfast was pretty much the same everyday. So overall it was just an ok experience. I've stayed at Residence Inns much nicer than this one. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r410341318-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>410341318</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Family Reunion Time</t>
+  </si>
+  <si>
+    <t>In town for a reunion that extended over three days.  Great location between Huntington Beach (one of the days) and Fullerton (the other two). Clean, comfortable, and quiet.  This is a property that is not new, but is well maintained.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Ryan F, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2016</t>
+  </si>
+  <si>
+    <t>In town for a reunion that extended over three days.  Great location between Huntington Beach (one of the days) and Fullerton (the other two). Clean, comfortable, and quiet.  This is a property that is not new, but is well maintained.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r396003633-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>396003633</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Grimey</t>
+  </si>
+  <si>
+    <t>I wish I had read the reviews on TripAdvisor prior to booking a stay at this Residence Inn. There is no excuse for the level of dirtiness and griminess of the hotel. When we got to our hotel room, we had a few "used" towels that had not been freshened - yuk. In the main lobby area, there was filth everywhere.Dirt, food, crumbs on the floor counters, coffee table and check-in counter. I would recommend trying the Courtyard that is next door over this particular Residence Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Ryan F, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded July 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2016</t>
+  </si>
+  <si>
+    <t>I wish I had read the reviews on TripAdvisor prior to booking a stay at this Residence Inn. There is no excuse for the level of dirtiness and griminess of the hotel. When we got to our hotel room, we had a few "used" towels that had not been freshened - yuk. In the main lobby area, there was filth everywhere.Dirt, food, crumbs on the floor counters, coffee table and check-in counter. I would recommend trying the Courtyard that is next door over this particular Residence Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r388545771-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>388545771</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>This hotel is so disgusting! The room was dirty when we got here and there is cockroaches outside AND inside the room. Plus there is dirt in the ventilation for the AC. Really disappointing, been staying at Marriot hotels many times and on different places and countries. And never seen something this horrendous!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan F, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is so disgusting! The room was dirty when we got here and there is cockroaches outside AND inside the room. Plus there is dirt in the ventilation for the AC. Really disappointing, been staying at Marriot hotels many times and on different places and countries. And never seen something this horrendous!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r365866369-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>365866369</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Spacious room For big families</t>
+  </si>
+  <si>
+    <t>Overall good experience, my only complaint is that the furniture was somewhat worn and showed age. The hot breakfast in the morning was wonderful.  It was about 10 minutes to Huntington Beach pier.  Hotel was very clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Ryan F, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded April 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2016</t>
+  </si>
+  <si>
+    <t>Overall good experience, my only complaint is that the furniture was somewhat worn and showed age. The hot breakfast in the morning was wonderful.  It was about 10 minutes to Huntington Beach pier.  Hotel was very clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r361897681-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>361897681</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Residence Inn Huntington Beach - Great Location!</t>
+  </si>
+  <si>
+    <t>I was in Orange County this week and stayed at the Residence Inn Huntington Beach, this is a Great Location! The new design Residence Inn is just perfect with a free happy hour, great breakfast and a spacious room with kitchen, this is a great stop!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Ryan F, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded April 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2016</t>
+  </si>
+  <si>
+    <t>I was in Orange County this week and stayed at the Residence Inn Huntington Beach, this is a Great Location! The new design Residence Inn is just perfect with a free happy hour, great breakfast and a spacious room with kitchen, this is a great stop!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r361821280-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>361821280</t>
+  </si>
+  <si>
+    <t>Very nice property, good value</t>
+  </si>
+  <si>
+    <t>This residence inn is laid out somewhat unconventionally for those familiar with the brand. Lots of smaller building in a courtyard style. Two floors and no elevators but this wasn't an issue for us.The room was large and nicely furnished with the usual space of a residence inn. Included a nice, fully furnished kitchen and large sitting area. Very comfy bed and decent bathroom.Not much to say about the breakfast, standard residence inn with hot selections including waffles, cereals, bread, bagels, oatmeal, juice and coffee. The sitting area is a little small but we sat outside.There is a nice pool and spa and also a BBQ area, and games court for basketball, tennis etc.Staff were all good. The location is convenient, just off the 405 and close to Huntington Beach. Also not far to the Anaheim/Disney area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>This residence inn is laid out somewhat unconventionally for those familiar with the brand. Lots of smaller building in a courtyard style. Two floors and no elevators but this wasn't an issue for us.The room was large and nicely furnished with the usual space of a residence inn. Included a nice, fully furnished kitchen and large sitting area. Very comfy bed and decent bathroom.Not much to say about the breakfast, standard residence inn with hot selections including waffles, cereals, bread, bagels, oatmeal, juice and coffee. The sitting area is a little small but we sat outside.There is a nice pool and spa and also a BBQ area, and games court for basketball, tennis etc.Staff were all good. The location is convenient, just off the 405 and close to Huntington Beach. Also not far to the Anaheim/Disney area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r350524178-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>350524178</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>Top Notch Service</t>
+  </si>
+  <si>
+    <t>I stay here frequently for business. It's convenient and right off the 405.  They have free breakfast and the staff is awesome, I always happen to get checked in by Jennifer, who is always in the best mood. Make sure to check out the room with a fireplace... a little extra but worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan F, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 29, 2016</t>
+  </si>
+  <si>
+    <t>I stay here frequently for business. It's convenient and right off the 405.  They have free breakfast and the staff is awesome, I always happen to get checked in by Jennifer, who is always in the best mood. Make sure to check out the room with a fireplace... a little extra but worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r336080487-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>336080487</t>
+  </si>
+  <si>
+    <t>12/30/2015</t>
+  </si>
+  <si>
+    <t>James at the front desk was rude, didn't meet up to Marriott friendly standards</t>
+  </si>
+  <si>
+    <t>James was the person who checked us in and he was horrible.  He was difficult to communicate with and extremely rude.  I'm used to Marriott having kind people who seem pleased to greet us and who serve with a smile and kindness.  We were supposed to stay 3 nights and we changed it to one night so we can move to another Marriott and maybe get a better experience.  After making the move to the Marriott in Fullerton, we were pleased and recommend the Fullerton Marriott over the Huntington Beach one 100%.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Spencer D, Front Office Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded January 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 1, 2016</t>
+  </si>
+  <si>
+    <t>James was the person who checked us in and he was horrible.  He was difficult to communicate with and extremely rude.  I'm used to Marriott having kind people who seem pleased to greet us and who serve with a smile and kindness.  We were supposed to stay 3 nights and we changed it to one night so we can move to another Marriott and maybe get a better experience.  After making the move to the Marriott in Fullerton, we were pleased and recommend the Fullerton Marriott over the Huntington Beach one 100%.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r332496473-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>332496473</t>
+  </si>
+  <si>
+    <t>12/13/2015</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We really enjoyed our stay at this Marriott property.  It is a 15 minute drive to the beech. Everything you expect from Marriott.  Clean, well appointed and right off the freeway.  The complimentary breakfast was perfect in the morning to get our day started.  It was a nice getaway weekend adventure.  </t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r319197366-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>319197366</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>Don't trust the website</t>
+  </si>
+  <si>
+    <t>Worst hotel I've stayed in. Room had a horrid or dour which they knew about. Changed rooms then housekeeping kept forgetting to clean room. Applicances didn't work. Broken furniture. Would never recommend this place. Way over priced for standard of hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Spencer D, Front Office Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded October 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2015</t>
+  </si>
+  <si>
+    <t>Worst hotel I've stayed in. Room had a horrid or dour which they knew about. Changed rooms then housekeeping kept forgetting to clean room. Applicances didn't work. Broken furniture. Would never recommend this place. Way over priced for standard of hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r308634610-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>308634610</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>Mixed opinion...</t>
+  </si>
+  <si>
+    <t>We recently spent 5 nights at this hotel. We used points, so shouldn't really complain too much, but there were some issues. The breakfast area was very small and cramped. The last couple days of our stay there wasn't enough seating for everyone and the food was running out and the trashcans were overflowing. They did have crayons and coloring pages available, so my kids enjoyed that feature. Our room was laid out pretty nicely, but we had an issue with the pull-out couch. It appears that a prior guest may have had a child pee the bed and the bed was made back up wet. This resulted in my child waking up wet from the mattress. When I figured this out, I told the front desk clerk, and it appears that the mattress may have gotten dried out that day, but it still smelled like urine. So instead of sleeping on the mattress, I had my kids sleep on the floor. Not ideal, but better than the mattress. Another issue was the last night some guests in our building were extremely noisy. They may have been having a party in the courtyard. There was a lot of loud voices well after 10. I ended up calling the front desk and they sent someone out to quiet the guests. This resolved the problem, thankfully.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>We recently spent 5 nights at this hotel. We used points, so shouldn't really complain too much, but there were some issues. The breakfast area was very small and cramped. The last couple days of our stay there wasn't enough seating for everyone and the food was running out and the trashcans were overflowing. They did have crayons and coloring pages available, so my kids enjoyed that feature. Our room was laid out pretty nicely, but we had an issue with the pull-out couch. It appears that a prior guest may have had a child pee the bed and the bed was made back up wet. This resulted in my child waking up wet from the mattress. When I figured this out, I told the front desk clerk, and it appears that the mattress may have gotten dried out that day, but it still smelled like urine. So instead of sleeping on the mattress, I had my kids sleep on the floor. Not ideal, but better than the mattress. Another issue was the last night some guests in our building were extremely noisy. They may have been having a party in the courtyard. There was a lot of loud voices well after 10. I ended up calling the front desk and they sent someone out to quiet the guests. This resolved the problem, thankfully.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r304812129-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>304812129</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t>Could be better, bed was way too soft!</t>
+  </si>
+  <si>
+    <t>I stayed here for 6 nights in a studio size room on the 1st floor. The room was clean but the bathtub looked outdated. The kitchen was well stocked with dinner wares and utensils, and the fridge was a good size. Parking can be a problem if you come back late. My major complaint for this hotel is that their bed is way too soft. I was literally sinking in it and I'm not overweight. Even a friend of mine who stayed with me who was the skinny type said that the bed was too soft to the point of giving her a backache. We both ended up sleeping on the floor the next 5 days. Changing the room wouldn't have solved anything but be just a hassle, plus they were fully booked when we stayed there. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Spencer D, Front Office Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded August 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for 6 nights in a studio size room on the 1st floor. The room was clean but the bathtub looked outdated. The kitchen was well stocked with dinner wares and utensils, and the fridge was a good size. Parking can be a problem if you come back late. My major complaint for this hotel is that their bed is way too soft. I was literally sinking in it and I'm not overweight. Even a friend of mine who stayed with me who was the skinny type said that the bed was too soft to the point of giving her a backache. We both ended up sleeping on the floor the next 5 days. Changing the room wouldn't have solved anything but be just a hassle, plus they were fully booked when we stayed there. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r289593150-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>289593150</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Excellent service and staff. You will not be disappointed!</t>
+  </si>
+  <si>
+    <t>I stayed here to celebrate my birthday at Huntington Beach and to not have to drive back to Burbank the next day. When I arrived that Friday afternoon I was greeted by two friendly smiling staff who joked around with me and helped me to familiarize myself with the best places to buy food for the beach. When I told them it was my birthday they of course wished me happy birthday then proceeded with the usual check-in. I have always stayed in a suite when I've stayed at other Residence Inns so their two bedroom was a welcome surprise. 
+Within a minute of being inside the room the staff member who helped me out came knocking on the door and had a small gift of some goodies from their pantry (which you can purchase the things you forget if you want a snack) for me as well as a birthday card he had made. It was very sweet and a great surprise. 
+The room reminded me of a two bedroom apartment. My friend and I each had our own rooms and bathrooms so we were never on top of each other fighting for mirror time (ladies you know what I mean)... They also have their own closets and TVs. The rooms were very clean and well maintained and we found everything we needed in the living room and the kitchen. I was even able to hook up laptop to...I stayed here to celebrate my birthday at Huntington Beach and to not have to drive back to Burbank the next day. When I arrived that Friday afternoon I was greeted by two friendly smiling staff who joked around with me and helped me to familiarize myself with the best places to buy food for the beach. When I told them it was my birthday they of course wished me happy birthday then proceeded with the usual check-in. I have always stayed in a suite when I've stayed at other Residence Inns so their two bedroom was a welcome surprise. Within a minute of being inside the room the staff member who helped me out came knocking on the door and had a small gift of some goodies from their pantry (which you can purchase the things you forget if you want a snack) for me as well as a birthday card he had made. It was very sweet and a great surprise. The room reminded me of a two bedroom apartment. My friend and I each had our own rooms and bathrooms so we were never on top of each other fighting for mirror time (ladies you know what I mean)... They also have their own closets and TVs. The rooms were very clean and well maintained and we found everything we needed in the living room and the kitchen. I was even able to hook up laptop to their TV so I could watch Netflix and rent movies if I wanted to. The shower pressure is alright but that is because you are sharing the water heater with four other rooms. We didn't have breakfast bc we would rather sleep in and btw the beds are amazingly comfortable. You will not want to get out of them.That Saturday night after we came back from the beach the people in the room below us and beside us decided to have a party around 1:00am they were yelling and smoking and causing a lot of grief. So I called the front desk to see if they could help. I am allergic to cigarette smoke bc of my asthma so I have to be extremely careful and the nonsmoking properties that Marriott offers is one of the reasons why I stay here. They quieted them down within 10 minutes!! It was quite impressive. Moral of this long review: Stay here!! You will not be disappointed and you will be treated with respect and like family. I was extremely surprised by this visit and will definitely be back again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here to celebrate my birthday at Huntington Beach and to not have to drive back to Burbank the next day. When I arrived that Friday afternoon I was greeted by two friendly smiling staff who joked around with me and helped me to familiarize myself with the best places to buy food for the beach. When I told them it was my birthday they of course wished me happy birthday then proceeded with the usual check-in. I have always stayed in a suite when I've stayed at other Residence Inns so their two bedroom was a welcome surprise. 
+Within a minute of being inside the room the staff member who helped me out came knocking on the door and had a small gift of some goodies from their pantry (which you can purchase the things you forget if you want a snack) for me as well as a birthday card he had made. It was very sweet and a great surprise. 
+The room reminded me of a two bedroom apartment. My friend and I each had our own rooms and bathrooms so we were never on top of each other fighting for mirror time (ladies you know what I mean)... They also have their own closets and TVs. The rooms were very clean and well maintained and we found everything we needed in the living room and the kitchen. I was even able to hook up laptop to...I stayed here to celebrate my birthday at Huntington Beach and to not have to drive back to Burbank the next day. When I arrived that Friday afternoon I was greeted by two friendly smiling staff who joked around with me and helped me to familiarize myself with the best places to buy food for the beach. When I told them it was my birthday they of course wished me happy birthday then proceeded with the usual check-in. I have always stayed in a suite when I've stayed at other Residence Inns so their two bedroom was a welcome surprise. Within a minute of being inside the room the staff member who helped me out came knocking on the door and had a small gift of some goodies from their pantry (which you can purchase the things you forget if you want a snack) for me as well as a birthday card he had made. It was very sweet and a great surprise. The room reminded me of a two bedroom apartment. My friend and I each had our own rooms and bathrooms so we were never on top of each other fighting for mirror time (ladies you know what I mean)... They also have their own closets and TVs. The rooms were very clean and well maintained and we found everything we needed in the living room and the kitchen. I was even able to hook up laptop to their TV so I could watch Netflix and rent movies if I wanted to. The shower pressure is alright but that is because you are sharing the water heater with four other rooms. We didn't have breakfast bc we would rather sleep in and btw the beds are amazingly comfortable. You will not want to get out of them.That Saturday night after we came back from the beach the people in the room below us and beside us decided to have a party around 1:00am they were yelling and smoking and causing a lot of grief. So I called the front desk to see if they could help. I am allergic to cigarette smoke bc of my asthma so I have to be extremely careful and the nonsmoking properties that Marriott offers is one of the reasons why I stay here. They quieted them down within 10 minutes!! It was quite impressive. Moral of this long review: Stay here!! You will not be disappointed and you will be treated with respect and like family. I was extremely surprised by this visit and will definitely be back again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r289337509-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>289337509</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Not the typical Standards of Marriott</t>
+  </si>
+  <si>
+    <t>We just returned from our 5th visit in 14 months, staying at this Residence Inn.  In the time we started to go there, the place keeps deteriorating, including management.  We were just there nights and had to change rooms 3 times.  The first room 1814 had no A/C.  They moved us to another room in building 18 that has a "person who has been there over 31 days so she is technically a residence" the gal at the desk told us.  That Resident had a dog that barked til the person returned home at 3 a.m., and they couldn't call her because they didn't realize her telephone number changed.  Off we went to building 17.  The furniture in all three rooms is in dire need of being replaced.  The vinyl is torn on the chairs, and the couches are just plain over the hill.  This is not a hotel owned by Marriott, we were told, but they have the management contract.  We have a personal interest in Marriott at another location, and they watch our location like a hawk.  We would never be able to have a cable system that produces constant snow on the screen on old, small flat screens.  The buildings are old, and it's been a cash cow, but it's time for them to give these diamonds in the ruff some revitalization. Yes, they finally cleaned up the pool, they have redone a few of the bathrooms,...We just returned from our 5th visit in 14 months, staying at this Residence Inn.  In the time we started to go there, the place keeps deteriorating, including management.  We were just there nights and had to change rooms 3 times.  The first room 1814 had no A/C.  They moved us to another room in building 18 that has a "person who has been there over 31 days so she is technically a residence" the gal at the desk told us.  That Resident had a dog that barked til the person returned home at 3 a.m., and they couldn't call her because they didn't realize her telephone number changed.  Off we went to building 17.  The furniture in all three rooms is in dire need of being replaced.  The vinyl is torn on the chairs, and the couches are just plain over the hill.  This is not a hotel owned by Marriott, we were told, but they have the management contract.  We have a personal interest in Marriott at another location, and they watch our location like a hawk.  We would never be able to have a cable system that produces constant snow on the screen on old, small flat screens.  The buildings are old, and it's been a cash cow, but it's time for them to give these diamonds in the ruff some revitalization. Yes, they finally cleaned up the pool, they have redone a few of the bathrooms, but the majority have old old bathrooms.  Yes, they give you breakfast...We also called one of the men who we have worked with before and asked him to reserve a special room that we have had 3 times before.  He said he would.  Someone else rented it to another person prior to us getting there.  Am not sure if they guy we spoke to didn't mark it or the other desk person didn't pay attention, but we did not get the room that was to be held for us....Very disappointing experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded July 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2015</t>
+  </si>
+  <si>
+    <t>We just returned from our 5th visit in 14 months, staying at this Residence Inn.  In the time we started to go there, the place keeps deteriorating, including management.  We were just there nights and had to change rooms 3 times.  The first room 1814 had no A/C.  They moved us to another room in building 18 that has a "person who has been there over 31 days so she is technically a residence" the gal at the desk told us.  That Resident had a dog that barked til the person returned home at 3 a.m., and they couldn't call her because they didn't realize her telephone number changed.  Off we went to building 17.  The furniture in all three rooms is in dire need of being replaced.  The vinyl is torn on the chairs, and the couches are just plain over the hill.  This is not a hotel owned by Marriott, we were told, but they have the management contract.  We have a personal interest in Marriott at another location, and they watch our location like a hawk.  We would never be able to have a cable system that produces constant snow on the screen on old, small flat screens.  The buildings are old, and it's been a cash cow, but it's time for them to give these diamonds in the ruff some revitalization. Yes, they finally cleaned up the pool, they have redone a few of the bathrooms,...We just returned from our 5th visit in 14 months, staying at this Residence Inn.  In the time we started to go there, the place keeps deteriorating, including management.  We were just there nights and had to change rooms 3 times.  The first room 1814 had no A/C.  They moved us to another room in building 18 that has a "person who has been there over 31 days so she is technically a residence" the gal at the desk told us.  That Resident had a dog that barked til the person returned home at 3 a.m., and they couldn't call her because they didn't realize her telephone number changed.  Off we went to building 17.  The furniture in all three rooms is in dire need of being replaced.  The vinyl is torn on the chairs, and the couches are just plain over the hill.  This is not a hotel owned by Marriott, we were told, but they have the management contract.  We have a personal interest in Marriott at another location, and they watch our location like a hawk.  We would never be able to have a cable system that produces constant snow on the screen on old, small flat screens.  The buildings are old, and it's been a cash cow, but it's time for them to give these diamonds in the ruff some revitalization. Yes, they finally cleaned up the pool, they have redone a few of the bathrooms, but the majority have old old bathrooms.  Yes, they give you breakfast...We also called one of the men who we have worked with before and asked him to reserve a special room that we have had 3 times before.  He said he would.  Someone else rented it to another person prior to us getting there.  Am not sure if they guy we spoke to didn't mark it or the other desk person didn't pay attention, but we did not get the room that was to be held for us....Very disappointing experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r286525758-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>286525758</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>Room was clean. Beds were comfortable. Breakfast was very good. A+Pretty close to beaches and main street. Price was fantastic. Staff was Great. It is also close to freeway access, easy to navigate the area and also close to malls and the Discovery museumMoreShow less</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Room was clean. Beds were comfortable. Breakfast was very good. A+Pretty close to beaches and main street. Price was fantastic. Staff was Great. It is also close to freeway access, easy to navigate the area and also close to malls and the Discovery museumMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r280258921-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>280258921</t>
+  </si>
+  <si>
+    <t>06/14/2015</t>
+  </si>
+  <si>
+    <t>Comfortable and Free Breakfast</t>
+  </si>
+  <si>
+    <t>The rooms were great! We've been here before, but reserved the two bedroom suite this time. Lots of room with two separate bedrooms and bathrooms attached. Lots of common room space to share as well. The kitchen was a good size. We also loved the outdoor facilities, with grills, a fountain and seating areas. The kids enjoyed the pool and basketball courts.MoreShow less</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded June 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2015</t>
+  </si>
+  <si>
+    <t>The rooms were great! We've been here before, but reserved the two bedroom suite this time. Lots of room with two separate bedrooms and bathrooms attached. Lots of common room space to share as well. The kitchen was a good size. We also loved the outdoor facilities, with grills, a fountain and seating areas. The kids enjoyed the pool and basketball courts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r279721666-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>279721666</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay here. Very quiet, extremely clean, and the staff is wonderful. You get so much for the money you spend. Pool and hot tub are nice too. This was our second stay. This hotel is pleasantly close to the beach as well. Not right at the beach but close enough to make us happy. MoreShow less</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay here. Very quiet, extremely clean, and the staff is wonderful. You get so much for the money you spend. Pool and hot tub are nice too. This was our second stay. This hotel is pleasantly close to the beach as well. Not right at the beach but close enough to make us happy. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r275192253-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>275192253</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Perfect family spot</t>
+  </si>
+  <si>
+    <t>Terrific location with easy drives to many top attractions.  Extremely clean.  Friendly staff.  Terrific room layouts.   Held six of us easily.  Free breakfasts.  Nightly specials.  The night we stayed they had a waffle sundae bar.  Great place to stay.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Terrific location with easy drives to many top attractions.  Extremely clean.  Friendly staff.  Terrific room layouts.   Held six of us easily.  Free breakfasts.  Nightly specials.  The night we stayed they had a waffle sundae bar.  Great place to stay.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r259707664-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>259707664</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>very nice and comfortable</t>
+  </si>
+  <si>
+    <t>i happen to stay in this hotel for the business purpose and the staff was good and friendly, the rooms were clean and good, ok. It was overall a very pleasant, comfortable experience. thank you.  AnkitaMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded March 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2015</t>
+  </si>
+  <si>
+    <t>i happen to stay in this hotel for the business purpose and the staff was good and friendly, the rooms were clean and good, ok. It was overall a very pleasant, comfortable experience. thank you.  AnkitaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r258469771-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>258469771</t>
+  </si>
+  <si>
+    <t>03/08/2015</t>
+  </si>
+  <si>
+    <t>Great place for a stopover</t>
+  </si>
+  <si>
+    <t>I was surprised by the quality of this hotel. Stopped over for one night during a baseball tournament. Very nice rooms, well maintained and generous size with sitting area and fully equipped kitchen. Modern interiors that look recently updated. Friendly staff and decent breakfast included. Overall I would deb happy to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded March 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2015</t>
+  </si>
+  <si>
+    <t>I was surprised by the quality of this hotel. Stopped over for one night during a baseball tournament. Very nice rooms, well maintained and generous size with sitting area and fully equipped kitchen. Modern interiors that look recently updated. Friendly staff and decent breakfast included. Overall I would deb happy to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r254949303-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>254949303</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>Great...</t>
+  </si>
+  <si>
+    <t>What a nice unpected surprise to see an anniversary gift bag on our rooms kitchen table when we checked in. Now thats taking care of their guests.  Real nice clean room. Quiet. Great, well stocked breakfast. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>What a nice unpected surprise to see an anniversary gift bag on our rooms kitchen table when we checked in. Now thats taking care of their guests.  Real nice clean room. Quiet. Great, well stocked breakfast. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r251030901-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>251030901</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>Great hotel, friendly staff.</t>
+  </si>
+  <si>
+    <t>Me and my family visited the Residence Inn recently. It is a very clean and they have a super friendly staff. Always helpful with any questions or concerns I had and went out of their way to accommodate me and my family. Will stay here again. Without hesitation. MoreShow less</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded January 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2015</t>
+  </si>
+  <si>
+    <t>Me and my family visited the Residence Inn recently. It is a very clean and they have a super friendly staff. Always helpful with any questions or concerns I had and went out of their way to accommodate me and my family. Will stay here again. Without hesitation. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r250028387-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>250028387</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>Good enough hotel</t>
+  </si>
+  <si>
+    <t>It was a 3 star hotel for sure. The rooms were clean, just a little tired. Newer or pressed drapes would be nice. No elevators for second floor rooms. We chose this place because it was in between LA and Disneyland. There is a pool and hot tub which is hard to figure out from the website. Even has a small basketball court and courtyard to workout a bit. Included breakfast was handy to tank up before going out for the day. Rooms are not connected to lobby as they are all separate small buildings with 8 suites in each building. I'd use it again if I was to go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Spencer D, Front Office Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded January 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2015</t>
+  </si>
+  <si>
+    <t>It was a 3 star hotel for sure. The rooms were clean, just a little tired. Newer or pressed drapes would be nice. No elevators for second floor rooms. We chose this place because it was in between LA and Disneyland. There is a pool and hot tub which is hard to figure out from the website. Even has a small basketball court and courtyard to workout a bit. Included breakfast was handy to tank up before going out for the day. Rooms are not connected to lobby as they are all separate small buildings with 8 suites in each building. I'd use it again if I was to go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r248178428-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>248178428</t>
+  </si>
+  <si>
+    <t>01/07/2015</t>
+  </si>
+  <si>
+    <t>Can always count on residence inn....</t>
+  </si>
+  <si>
+    <t>Once again our choice is the Residence Inn in Fountain Valley for our inlaws visits. Yes it's the same anywhere you stay but what made it our top choice is the people here. They are always helpful and you know they are doing their best. Hot breakfast was enjoyed by all and tastee is what was told to me. Stay here if you need a lil space to cook, keep foods.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded January 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2015</t>
+  </si>
+  <si>
+    <t>Once again our choice is the Residence Inn in Fountain Valley for our inlaws visits. Yes it's the same anywhere you stay but what made it our top choice is the people here. They are always helpful and you know they are doing their best. Hot breakfast was enjoyed by all and tastee is what was told to me. Stay here if you need a lil space to cook, keep foods.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r242030830-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>242030830</t>
+  </si>
+  <si>
+    <t>11/29/2014</t>
+  </si>
+  <si>
+    <t>Good for long stay</t>
+  </si>
+  <si>
+    <t>Based on my experience with Resindence Inn I selected this one. Literally next to the highway, easy to access. The majority of rooms are studios - having the fire-place, well only few apartments have separate living-room (with fully equiped kitchen) with bed-room. This is the one I selected. Room was pretty quiet - yet this was depending on the traffic on 405.Rooms are clean, staff friendly - only the breakfast is rather limited. Good thing is that on some weekdays the hotel serves free snacks/salads in the late afternoon. This can be enjoyed while watching the fire-place in the lobby.In overal - good price for the quality and level of service they provide.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded December 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2014</t>
+  </si>
+  <si>
+    <t>Based on my experience with Resindence Inn I selected this one. Literally next to the highway, easy to access. The majority of rooms are studios - having the fire-place, well only few apartments have separate living-room (with fully equiped kitchen) with bed-room. This is the one I selected. Room was pretty quiet - yet this was depending on the traffic on 405.Rooms are clean, staff friendly - only the breakfast is rather limited. Good thing is that on some weekdays the hotel serves free snacks/salads in the late afternoon. This can be enjoyed while watching the fire-place in the lobby.In overal - good price for the quality and level of service they provide.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r240224103-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>240224103</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>Perfect long term hotel</t>
+  </si>
+  <si>
+    <t>If you have a reason to stay in the Huntington Beach area, and it is for a prolonged period of time , this is your Home away from home. The suites are spacious, well appointed , clean and  ideally located.Amazingly, even though the Inn is located off the 405, you do not hear traffic noises.The pool , although not terribly large, it is heated and clean.If you travel with your dog, the Inn accepts dogs . There is a $100.00 charge, which at first blush offended me, but after I learned that they  actually bring in a cleaning team to sanitize the room after the departure , it was more than reasonable .The only slight negative is the "free breakfast", the menu does not change daily, therefore it can become boring over time.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded November 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2014</t>
+  </si>
+  <si>
+    <t>If you have a reason to stay in the Huntington Beach area, and it is for a prolonged period of time , this is your Home away from home. The suites are spacious, well appointed , clean and  ideally located.Amazingly, even though the Inn is located off the 405, you do not hear traffic noises.The pool , although not terribly large, it is heated and clean.If you travel with your dog, the Inn accepts dogs . There is a $100.00 charge, which at first blush offended me, but after I learned that they  actually bring in a cleaning team to sanitize the room after the departure , it was more than reasonable .The only slight negative is the "free breakfast", the menu does not change daily, therefore it can become boring over time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r232440775-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>232440775</t>
+  </si>
+  <si>
+    <t>10/03/2014</t>
+  </si>
+  <si>
+    <t>Close to The 405 - Nice Place</t>
+  </si>
+  <si>
+    <t>Checked in- friendly staff member. The room was standard studio size. The room was clean and quiet- The 405 was within throwing distance of the building and didn't hear it at all. The breakfast was fine. Both mornings the staff was late getting the breakfast out ( 7:00 A.M. for the weekend). I don't understand why everything can't be out 10 minutes before the actual opening time. The hotel location is central to many Orange County attractions.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded October 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2014</t>
+  </si>
+  <si>
+    <t>Checked in- friendly staff member. The room was standard studio size. The room was clean and quiet- The 405 was within throwing distance of the building and didn't hear it at all. The breakfast was fine. Both mornings the staff was late getting the breakfast out ( 7:00 A.M. for the weekend). I don't understand why everything can't be out 10 minutes before the actual opening time. The hotel location is central to many Orange County attractions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r227937478-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>227937478</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>Very clean, easy check in and excellent breakfast</t>
+  </si>
+  <si>
+    <t>My friend and I had a wonderful night at this property. Great location in Orange County, minutes to the Huntington Beach Pier and Newport Beach. Disneyland and Knotts Berry Farm are a few miles away. Lots of restaurants in area.Easy, friendly check in. Junior suite was roomy and looked like it was recently redone. New appliances for sure. Excellent a/c. Very well done breakfast buffet. Eggs, toast, bagels, biscuits, muffins, Canadian bacon, oatmeal were the standard fare. Plenty of hot coffee and tea. Very satisfied customer. I will be back and I will highly recommend to friends, family and you.MoreShow less</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded September 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2014</t>
+  </si>
+  <si>
+    <t>My friend and I had a wonderful night at this property. Great location in Orange County, minutes to the Huntington Beach Pier and Newport Beach. Disneyland and Knotts Berry Farm are a few miles away. Lots of restaurants in area.Easy, friendly check in. Junior suite was roomy and looked like it was recently redone. New appliances for sure. Excellent a/c. Very well done breakfast buffet. Eggs, toast, bagels, biscuits, muffins, Canadian bacon, oatmeal were the standard fare. Plenty of hot coffee and tea. Very satisfied customer. I will be back and I will highly recommend to friends, family and you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r227613853-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>227613853</t>
+  </si>
+  <si>
+    <t>09/07/2014</t>
+  </si>
+  <si>
+    <t>Sufficient</t>
+  </si>
+  <si>
+    <t>This place is dated and felt run down. Exterior hallways to entrances are dark. Walls pretty thin. Don't forget your toothbrush, they sell and do not provide any complimentary. Breakfast was okay, waffle machine makes great waffles, it's time they change their breakfast buffets to something like what Hyatt Place has, morning scrambles, something about these eggs at this location was odd tasting, had a plastic like texture, maybe they need to scramble better. We were in a downstairs unit and the carpet felt grimly, but maybe that's where dogs typically stay and gave it that feel. Not sure I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded September 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2014</t>
+  </si>
+  <si>
+    <t>This place is dated and felt run down. Exterior hallways to entrances are dark. Walls pretty thin. Don't forget your toothbrush, they sell and do not provide any complimentary. Breakfast was okay, waffle machine makes great waffles, it's time they change their breakfast buffets to something like what Hyatt Place has, morning scrambles, something about these eggs at this location was odd tasting, had a plastic like texture, maybe they need to scramble better. We were in a downstairs unit and the carpet felt grimly, but maybe that's where dogs typically stay and gave it that feel. Not sure I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r222535389-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>222535389</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>A Hidden Gem!</t>
+  </si>
+  <si>
+    <t>Best value we've found in So Cal! Great location just off the 405 but very quiet. Pool, hot tub, and sport court are great. Rooms are very comfortable. The only two minor drawbacks are no elevator and the fitness room is small. Fortunately, a 24 Hour Fitness club is about a half mile away. Love this place and will plan on staying again!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded August 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2014</t>
+  </si>
+  <si>
+    <t>Best value we've found in So Cal! Great location just off the 405 but very quiet. Pool, hot tub, and sport court are great. Rooms are very comfortable. The only two minor drawbacks are no elevator and the fitness room is small. Fortunately, a 24 Hour Fitness club is about a half mile away. Love this place and will plan on staying again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r218646125-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>218646125</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>Overall a good stay with good rooms and very good service.</t>
+  </si>
+  <si>
+    <t>The staff was very attentive and always helpful. The rooms were clean and what you would expect from an extended stay facility with kitchens and large refrigerator . Had a nice court yard with pool and basketball court. This location was extremely convenient to the 405 Fwy and had many local restaurant options. The free breakfast was excellent with fresh waffles, eggs, and fresh fruit . MoreShow less</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded August 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2014</t>
+  </si>
+  <si>
+    <t>The staff was very attentive and always helpful. The rooms were clean and what you would expect from an extended stay facility with kitchens and large refrigerator . Had a nice court yard with pool and basketball court. This location was extremely convenient to the 405 Fwy and had many local restaurant options. The free breakfast was excellent with fresh waffles, eggs, and fresh fruit . More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r209039365-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>209039365</t>
+  </si>
+  <si>
+    <t>06/05/2014</t>
+  </si>
+  <si>
+    <t>Very nice!</t>
+  </si>
+  <si>
+    <t>Very nice stay! The room was very clean and had modern amenities. Very nice to have a full kitchen when traveling with a baby. The only small complaint is that the carpet around the bathroom was wet. We weren't sure if it was because the room was so humid when we first got there or if there was a small leak somewhere.  The staff was very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded June 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2014</t>
+  </si>
+  <si>
+    <t>Very nice stay! The room was very clean and had modern amenities. Very nice to have a full kitchen when traveling with a baby. The only small complaint is that the carpet around the bathroom was wet. We weren't sure if it was because the room was so humid when we first got there or if there was a small leak somewhere.  The staff was very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r205131466-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>205131466</t>
+  </si>
+  <si>
+    <t>05/11/2014</t>
+  </si>
+  <si>
+    <t>A nice place to stay</t>
+  </si>
+  <si>
+    <t>The rooms look just like the website show. We were in a 2 bedroom suite, which is nice, having 2 grown children with us . We did not use the kitchen, but it looked clean &amp; stocked with plates, glasses,etc. the 1st night we got in late &amp; we noticed dozens of little bugs(like fruit flies). I called the front desk, they were apologetic &amp; sent someone over with a can of Raid. He stood outside while I sprayed, I'm not sure it really worked &amp; it left a yucky residue wherever I sprayed. The next day I saw the housekeeper &amp; asked her to do something about the bugs &amp; let the front desk know. I do not know what they did,but when we came back several hours later, they were almost gone. Yes there were so e at night, but much better. The breakfast was so-so, they should serve individual yogurt, not a big bowl. Oatmeal was funky looking &amp; eggs too. Coffee was way too weak &amp; I don't like overly strong coffee. Breakfast Room was too small. The staff was very pleasant&amp; .everything was in close walking distance. Hotel is near a lot of things &amp; highway. Beds in room were very comfortable, I only wished they offered 1 room of the 2 room suite to have 2 beds. The couch was really bad, saggy &amp; when you pulled it out to make a bed, it...The rooms look just like the website show. We were in a 2 bedroom suite, which is nice, having 2 grown children with us . We did not use the kitchen, but it looked clean &amp; stocked with plates, glasses,etc. the 1st night we got in late &amp; we noticed dozens of little bugs(like fruit flies). I called the front desk, they were apologetic &amp; sent someone over with a can of Raid. He stood outside while I sprayed, I'm not sure it really worked &amp; it left a yucky residue wherever I sprayed. The next day I saw the housekeeper &amp; asked her to do something about the bugs &amp; let the front desk know. I do not know what they did,but when we came back several hours later, they were almost gone. Yes there were so e at night, but much better. The breakfast was so-so, they should serve individual yogurt, not a big bowl. Oatmeal was funky looking &amp; eggs too. Coffee was way too weak &amp; I don't like overly strong coffee. Breakfast Room was too small. The staff was very pleasant&amp; .everything was in close walking distance. Hotel is near a lot of things &amp; highway. Beds in room were very comfortable, I only wished they offered 1 room of the 2 room suite to have 2 beds. The couch was really bad, saggy &amp; when you pulled it out to make a bed, it was worse. Those need to be changed. Bathrooms could use a little updating.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>The rooms look just like the website show. We were in a 2 bedroom suite, which is nice, having 2 grown children with us . We did not use the kitchen, but it looked clean &amp; stocked with plates, glasses,etc. the 1st night we got in late &amp; we noticed dozens of little bugs(like fruit flies). I called the front desk, they were apologetic &amp; sent someone over with a can of Raid. He stood outside while I sprayed, I'm not sure it really worked &amp; it left a yucky residue wherever I sprayed. The next day I saw the housekeeper &amp; asked her to do something about the bugs &amp; let the front desk know. I do not know what they did,but when we came back several hours later, they were almost gone. Yes there were so e at night, but much better. The breakfast was so-so, they should serve individual yogurt, not a big bowl. Oatmeal was funky looking &amp; eggs too. Coffee was way too weak &amp; I don't like overly strong coffee. Breakfast Room was too small. The staff was very pleasant&amp; .everything was in close walking distance. Hotel is near a lot of things &amp; highway. Beds in room were very comfortable, I only wished they offered 1 room of the 2 room suite to have 2 beds. The couch was really bad, saggy &amp; when you pulled it out to make a bed, it...The rooms look just like the website show. We were in a 2 bedroom suite, which is nice, having 2 grown children with us . We did not use the kitchen, but it looked clean &amp; stocked with plates, glasses,etc. the 1st night we got in late &amp; we noticed dozens of little bugs(like fruit flies). I called the front desk, they were apologetic &amp; sent someone over with a can of Raid. He stood outside while I sprayed, I'm not sure it really worked &amp; it left a yucky residue wherever I sprayed. The next day I saw the housekeeper &amp; asked her to do something about the bugs &amp; let the front desk know. I do not know what they did,but when we came back several hours later, they were almost gone. Yes there were so e at night, but much better. The breakfast was so-so, they should serve individual yogurt, not a big bowl. Oatmeal was funky looking &amp; eggs too. Coffee was way too weak &amp; I don't like overly strong coffee. Breakfast Room was too small. The staff was very pleasant&amp; .everything was in close walking distance. Hotel is near a lot of things &amp; highway. Beds in room were very comfortable, I only wished they offered 1 room of the 2 room suite to have 2 beds. The couch was really bad, saggy &amp; when you pulled it out to make a bed, it was worse. Those need to be changed. Bathrooms could use a little updating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r197738514-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>197738514</t>
+  </si>
+  <si>
+    <t>03/17/2014</t>
+  </si>
+  <si>
+    <t>Hidden Pet Charges</t>
+  </si>
+  <si>
+    <t>I usually try to stay at Marriott hotels, but the Residence Inn Huntington Beach-Fountain Valley really drove me away.
+To be clear, this review is based on service, not on a stay at the hotel.
+We were heading to Orange County for the day and needed a hotel room in the area.  We had a small dog with us, so we needed a pet friendly hotel.  
+I called the hotel directly and asked if it was pet friendly.  The reservation specialist said yes, and I booked a reservation for that night.  We arrived at the hotel and went to check-in and were surprised to be handed a pet waiver that stated we would be charged $100 per stay for our dog.  Well, we hadn't been informed of the fee when we reserved the room directly with the hotel, so it came as a bit of a surprise.  Not to mention, $100 just for one night is outrageous.
+I politely explained to the front desk clerk that we were not informed of the fee when we placed our reservation over the phone, even though I called the hotel directly.  He stated that the reservations are handled through a central call center, as if that somehow means they can get away with not being upfront.  He also mentioned that the $100 fee is on the website, which I never visited, since I placed my reservation with the hotel directly upon asking about...I usually try to stay at Marriott hotels, but the Residence Inn Huntington Beach-Fountain Valley really drove me away.To be clear, this review is based on service, not on a stay at the hotel.We were heading to Orange County for the day and needed a hotel room in the area.  We had a small dog with us, so we needed a pet friendly hotel.  I called the hotel directly and asked if it was pet friendly.  The reservation specialist said yes, and I booked a reservation for that night.  We arrived at the hotel and went to check-in and were surprised to be handed a pet waiver that stated we would be charged $100 per stay for our dog.  Well, we hadn't been informed of the fee when we reserved the room directly with the hotel, so it came as a bit of a surprise.  Not to mention, $100 just for one night is outrageous.I politely explained to the front desk clerk that we were not informed of the fee when we placed our reservation over the phone, even though I called the hotel directly.  He stated that the reservations are handled through a central call center, as if that somehow means they can get away with not being upfront.  He also mentioned that the $100 fee is on the website, which I never visited, since I placed my reservation with the hotel directly upon asking about its pet friendly status.  He made no accommodations for us, and refused to allow me to speak to someone else about the fee.  I truly believe this was an error on Marriott's part, not on mine, since I depended on the hotel to provide me with complete information.We decided to take our business elsewhere.  If you have a pet, I suggest driving 10 minutes to the Westin in Costa Mesa, where pets are accepted without a fee, and the hotel is much nicer, with better amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded March 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2014</t>
+  </si>
+  <si>
+    <t>I usually try to stay at Marriott hotels, but the Residence Inn Huntington Beach-Fountain Valley really drove me away.
+To be clear, this review is based on service, not on a stay at the hotel.
+We were heading to Orange County for the day and needed a hotel room in the area.  We had a small dog with us, so we needed a pet friendly hotel.  
+I called the hotel directly and asked if it was pet friendly.  The reservation specialist said yes, and I booked a reservation for that night.  We arrived at the hotel and went to check-in and were surprised to be handed a pet waiver that stated we would be charged $100 per stay for our dog.  Well, we hadn't been informed of the fee when we reserved the room directly with the hotel, so it came as a bit of a surprise.  Not to mention, $100 just for one night is outrageous.
+I politely explained to the front desk clerk that we were not informed of the fee when we placed our reservation over the phone, even though I called the hotel directly.  He stated that the reservations are handled through a central call center, as if that somehow means they can get away with not being upfront.  He also mentioned that the $100 fee is on the website, which I never visited, since I placed my reservation with the hotel directly upon asking about...I usually try to stay at Marriott hotels, but the Residence Inn Huntington Beach-Fountain Valley really drove me away.To be clear, this review is based on service, not on a stay at the hotel.We were heading to Orange County for the day and needed a hotel room in the area.  We had a small dog with us, so we needed a pet friendly hotel.  I called the hotel directly and asked if it was pet friendly.  The reservation specialist said yes, and I booked a reservation for that night.  We arrived at the hotel and went to check-in and were surprised to be handed a pet waiver that stated we would be charged $100 per stay for our dog.  Well, we hadn't been informed of the fee when we reserved the room directly with the hotel, so it came as a bit of a surprise.  Not to mention, $100 just for one night is outrageous.I politely explained to the front desk clerk that we were not informed of the fee when we placed our reservation over the phone, even though I called the hotel directly.  He stated that the reservations are handled through a central call center, as if that somehow means they can get away with not being upfront.  He also mentioned that the $100 fee is on the website, which I never visited, since I placed my reservation with the hotel directly upon asking about its pet friendly status.  He made no accommodations for us, and refused to allow me to speak to someone else about the fee.  I truly believe this was an error on Marriott's part, not on mine, since I depended on the hotel to provide me with complete information.We decided to take our business elsewhere.  If you have a pet, I suggest driving 10 minutes to the Westin in Costa Mesa, where pets are accepted without a fee, and the hotel is much nicer, with better amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r194588160-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>194588160</t>
+  </si>
+  <si>
+    <t>02/18/2014</t>
+  </si>
+  <si>
+    <t>Overall it is good hotel</t>
+  </si>
+  <si>
+    <t>Overall the facilities, interior, and location is very good. With free breakfast, swimming pool, and exercise room, very convenient for family traveling. Staffs are friendly as well.One negative thing is that as these is no gated entrance, there was loud noisy after midnight, not sure it was from the teenage nearby or drunk people staying the hotel. It will be good to have some control. Another thing is that it will be better if there is curtain can be closed at night to block some street lights.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded February 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2014</t>
+  </si>
+  <si>
+    <t>Overall the facilities, interior, and location is very good. With free breakfast, swimming pool, and exercise room, very convenient for family traveling. Staffs are friendly as well.One negative thing is that as these is no gated entrance, there was loud noisy after midnight, not sure it was from the teenage nearby or drunk people staying the hotel. It will be good to have some control. Another thing is that it will be better if there is curtain can be closed at night to block some street lights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r194134232-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>194134232</t>
+  </si>
+  <si>
+    <t>02/15/2014</t>
+  </si>
+  <si>
+    <t>Quiet, comfy, decent value for price. Close enough to Disney &amp; other top spots.</t>
+  </si>
+  <si>
+    <t>Residence Inns come in a variety of flavours - some are apartment style where all rooms are in one building, others have four, six or eight suites in one building, with two or four suites accessed by one stairwell like this hotel. Warning - No elevators! Vaulted ceilings give this suite a nice touch with central living area quite large and inviting. Both bedrooms are cozy with a good queen bed but not super comfortable like other Marriott properties. Pool looked ok but we didn't use it. Close enough drive to Disney but still a ways away. Close to John Wayne airport. Breakfast was good but small room compared to size of hotel. I would not choose to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded February 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2014</t>
+  </si>
+  <si>
+    <t>Residence Inns come in a variety of flavours - some are apartment style where all rooms are in one building, others have four, six or eight suites in one building, with two or four suites accessed by one stairwell like this hotel. Warning - No elevators! Vaulted ceilings give this suite a nice touch with central living area quite large and inviting. Both bedrooms are cozy with a good queen bed but not super comfortable like other Marriott properties. Pool looked ok but we didn't use it. Close enough drive to Disney but still a ways away. Close to John Wayne airport. Breakfast was good but small room compared to size of hotel. I would not choose to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r192364772-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>192364772</t>
+  </si>
+  <si>
+    <t>01/28/2014</t>
+  </si>
+  <si>
+    <t>Excellent staff; good place to stay</t>
+  </si>
+  <si>
+    <t>This is the first time I have stayed in a 'residence' inn and I was pleasantly surprised.  Our two bedroom suite was very clean and spacious, although I would have preferred more room in the dining/sitting area and less in the bedrooms.  There were enough dishes and pots for four, with a note to call the front desk should anything more be required.  The staff was wonderful; check-in was quick and easy.  We were able to get into our room early - which was nice after a long day's drive.  I contacted the desk three times with questions and requests and each time, the response was polite, cheerful and quick.  The outdoor sitting area with bbq was an unexpected treat.  A gentle fountain, lots of comfortable chairs and umbrellas for shade gave a nice area for relaxing.  While we did not use the pool, hot tub or basketball area, we saw others doing so.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded January 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2014</t>
+  </si>
+  <si>
+    <t>This is the first time I have stayed in a 'residence' inn and I was pleasantly surprised.  Our two bedroom suite was very clean and spacious, although I would have preferred more room in the dining/sitting area and less in the bedrooms.  There were enough dishes and pots for four, with a note to call the front desk should anything more be required.  The staff was wonderful; check-in was quick and easy.  We were able to get into our room early - which was nice after a long day's drive.  I contacted the desk three times with questions and requests and each time, the response was polite, cheerful and quick.  The outdoor sitting area with bbq was an unexpected treat.  A gentle fountain, lots of comfortable chairs and umbrellas for shade gave a nice area for relaxing.  While we did not use the pool, hot tub or basketball area, we saw others doing so.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r190450239-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>190450239</t>
+  </si>
+  <si>
+    <t>01/10/2014</t>
+  </si>
+  <si>
+    <t>Still a great place to stay.</t>
+  </si>
+  <si>
+    <t>Have stayed at the Fountain Valley Residence Inn for many years.  It is still well maintained and updated after all of the years (20+) that I have stayed at this hotel.  Staff is very helpful and always friendly.  Great place to stay and located within easy drive to all of the Orange County attractions.  I will definitely return.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded January 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2014</t>
+  </si>
+  <si>
+    <t>Have stayed at the Fountain Valley Residence Inn for many years.  It is still well maintained and updated after all of the years (20+) that I have stayed at this hotel.  Staff is very helpful and always friendly.  Great place to stay and located within easy drive to all of the Orange County attractions.  I will definitely return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r186392867-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>186392867</t>
+  </si>
+  <si>
+    <t>11/30/2013</t>
+  </si>
+  <si>
+    <t>Awesome Spot!</t>
+  </si>
+  <si>
+    <t>I love this hotel - freeway close (right off Brookhurst) and right down the street from Mile Park where you can walk, job, bike or people watch. It's a little home away from home. Very convenient shopping nearby. If you need to be in this area for work or pleasure I would highly recommend it!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded December 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2013</t>
+  </si>
+  <si>
+    <t>I love this hotel - freeway close (right off Brookhurst) and right down the street from Mile Park where you can walk, job, bike or people watch. It's a little home away from home. Very convenient shopping nearby. If you need to be in this area for work or pleasure I would highly recommend it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r181691675-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>181691675</t>
+  </si>
+  <si>
+    <t>10/20/2013</t>
+  </si>
+  <si>
+    <t>Love Residence Inn</t>
+  </si>
+  <si>
+    <t>Residence Inn in FV is the perfect place...just like the other reviewers it is a home away from home. Rooms are spacious and updated.  Pools, outdoor lounging and breakfast area all beautiful and welcoming.  Free parking.  Free breakfast - basic continental stuff, but acceptable.  Location is situated close to everything - grocery stores, restaurants, freeway &amp; parks.  It is the perfect stay if you are visiting Huntington Beach/OC area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded October 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2013</t>
+  </si>
+  <si>
+    <t>Residence Inn in FV is the perfect place...just like the other reviewers it is a home away from home. Rooms are spacious and updated.  Pools, outdoor lounging and breakfast area all beautiful and welcoming.  Free parking.  Free breakfast - basic continental stuff, but acceptable.  Location is situated close to everything - grocery stores, restaurants, freeway &amp; parks.  It is the perfect stay if you are visiting Huntington Beach/OC area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r180682122-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>180682122</t>
+  </si>
+  <si>
+    <t>10/12/2013</t>
+  </si>
+  <si>
+    <t>Perfect for what we needed</t>
+  </si>
+  <si>
+    <t>My wife was attending a workshop in Huntington beach and as Elite Members, we had 3 Marriott certificates to burn so our stay was free, not even taxes were charged. Location is good for access to long beach and Huntington beach if you have a car, parking is free. Good places to eat and beaches within a few miles. Public parking at the beaches in town was $1.50/hour further out was free.Our studio Room was very spacious and clean, had a full kitchen, desk for working, large comfortable bed and good sized bathroom. Nothing fancy, but would be good for work or a budget friendly place to stay and do Disney, Newport beach, long beach and the Queen Mary and just hanging out at Huntington beach which is a really cool area (beach and downtown). Free breakfast was good and filling, again not gourmet but something for everyone Would be nice if room had a small balcony. There were grills at the pool and a basketball court. Also for a fee onsite self serve laundry. They have some evening events with free food and snacks but not on the nights we were there. It is next to the highway but the noise was not noticeable at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded October 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2013</t>
+  </si>
+  <si>
+    <t>My wife was attending a workshop in Huntington beach and as Elite Members, we had 3 Marriott certificates to burn so our stay was free, not even taxes were charged. Location is good for access to long beach and Huntington beach if you have a car, parking is free. Good places to eat and beaches within a few miles. Public parking at the beaches in town was $1.50/hour further out was free.Our studio Room was very spacious and clean, had a full kitchen, desk for working, large comfortable bed and good sized bathroom. Nothing fancy, but would be good for work or a budget friendly place to stay and do Disney, Newport beach, long beach and the Queen Mary and just hanging out at Huntington beach which is a really cool area (beach and downtown). Free breakfast was good and filling, again not gourmet but something for everyone Would be nice if room had a small balcony. There were grills at the pool and a basketball court. Also for a fee onsite self serve laundry. They have some evening events with free food and snacks but not on the nights we were there. It is next to the highway but the noise was not noticeable at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r174529511-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>174529511</t>
+  </si>
+  <si>
+    <t>08/28/2013</t>
+  </si>
+  <si>
+    <t>Very good as advertised</t>
+  </si>
+  <si>
+    <t>Everything we read about this hotel was right on. Though it was our wedding anniversary weekend and we had to bring along the kids at the last minute and the hotel could not accommodate our request to upgrade to two bedroom suite, everything went smooth. Location is convenient to beaches, which we enjoyed, and grounds were clean and not crowded. The only glitch we encountered was at check-in where we were given a room whose door did not lock properly. We soonafter mentioned it to a person at the front desk, who seemed to know which room we were talking about, which made us wonder why the door hadn't been fixed and we were still given a room with an unsafe door. That said, we requested and were politely granted another room by the friendly, albeit young, front desk staff though the new room was located right above the lobby. We checked out a day early. Bottom line: For the price, room size, location, free hot breakfast and accommodations, it's a great place to stayMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Everything we read about this hotel was right on. Though it was our wedding anniversary weekend and we had to bring along the kids at the last minute and the hotel could not accommodate our request to upgrade to two bedroom suite, everything went smooth. Location is convenient to beaches, which we enjoyed, and grounds were clean and not crowded. The only glitch we encountered was at check-in where we were given a room whose door did not lock properly. We soonafter mentioned it to a person at the front desk, who seemed to know which room we were talking about, which made us wonder why the door hadn't been fixed and we were still given a room with an unsafe door. That said, we requested and were politely granted another room by the friendly, albeit young, front desk staff though the new room was located right above the lobby. We checked out a day early. Bottom line: For the price, room size, location, free hot breakfast and accommodations, it's a great place to stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r169380737-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>169380737</t>
+  </si>
+  <si>
+    <t>07/27/2013</t>
+  </si>
+  <si>
+    <t>Great for families</t>
+  </si>
+  <si>
+    <t>We spent one night at this Residence Inn, traveling with two toddlers.  The staff was wonderful; friendly and prompt.  We stayed in a one bedroom unit, which has a sleeper sofa in the living room.  This was perfect for us.  Everything was great except for one thing.......the beds, both the king size and the sofa sleeper, are in need of replacement.  We found the mattresses to be uncomfortable and the pillows small and flat.    If new bedding finds its way to this hotel, we will certainly stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded July 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2013</t>
+  </si>
+  <si>
+    <t>We spent one night at this Residence Inn, traveling with two toddlers.  The staff was wonderful; friendly and prompt.  We stayed in a one bedroom unit, which has a sleeper sofa in the living room.  This was perfect for us.  Everything was great except for one thing.......the beds, both the king size and the sofa sleeper, are in need of replacement.  We found the mattresses to be uncomfortable and the pillows small and flat.    If new bedding finds its way to this hotel, we will certainly stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r168630303-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>168630303</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>Only one request...</t>
+  </si>
+  <si>
+    <t>I have stayed at many Residence Inns, and they all have either a separate building that does not allow pets OR rooms set aside that are "pet free" - which we have always requested since I have pet allergies/asthma.  This is the first Residence Inn that has told me that they don't do this.  They said that the best they could do was put me in a room that hasn't had a pet in it for a while.  I decided to keep the reservation anyway and risk it.  Luckily when the time came, I did NOT have any real allergy problems with the room.The 2 bedroom was great, nice hotel.  Good location.  Free breakfast.  We had a nice stay.But I do wish that they would consider doing what the other Residence Inns have done for their customers with allergies.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at many Residence Inns, and they all have either a separate building that does not allow pets OR rooms set aside that are "pet free" - which we have always requested since I have pet allergies/asthma.  This is the first Residence Inn that has told me that they don't do this.  They said that the best they could do was put me in a room that hasn't had a pet in it for a while.  I decided to keep the reservation anyway and risk it.  Luckily when the time came, I did NOT have any real allergy problems with the room.The 2 bedroom was great, nice hotel.  Good location.  Free breakfast.  We had a nice stay.But I do wish that they would consider doing what the other Residence Inns have done for their customers with allergies.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r168124551-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>168124551</t>
+  </si>
+  <si>
+    <t>07/18/2013</t>
+  </si>
+  <si>
+    <t>Reasonably Priced Two Bedroom</t>
+  </si>
+  <si>
+    <t>It is one of the few in the area that offers two bedrooms.  The bedrooms are big enough, each with a TV.  Beds are relatively comfortable.  The kitchen offers bare essentials, but enough so you can cook a meal.  They do offer hot breakfast and a lite dinner most days.  The meal quality is average, but it's handy.  The "living room" is quite small, but has a TV and a work station for your computer.  WiFi is complimentary and works well.Staff is friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded July 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2013</t>
+  </si>
+  <si>
+    <t>It is one of the few in the area that offers two bedrooms.  The bedrooms are big enough, each with a TV.  Beds are relatively comfortable.  The kitchen offers bare essentials, but enough so you can cook a meal.  They do offer hot breakfast and a lite dinner most days.  The meal quality is average, but it's handy.  The "living room" is quite small, but has a TV and a work station for your computer.  WiFi is complimentary and works well.Staff is friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r167311597-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>167311597</t>
+  </si>
+  <si>
+    <t>07/12/2013</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>My two teenage sons, husband and I stayed here for two weeks while we were waiting to move into our new home.  We stayed in a one room studio with pull out sofa bed and were very comfortable.  I was able to cook meals, work out in their gym, have a full breakfast and a nice complimentary meal with wine or beer three nights out of the week.  The staff was what really made our stay though.  Each day we were met by people going beyond their typical duties trying to make us feel comfortable.  Thanks again for making us feel at home!MoreShow less</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded July 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2013</t>
+  </si>
+  <si>
+    <t>My two teenage sons, husband and I stayed here for two weeks while we were waiting to move into our new home.  We stayed in a one room studio with pull out sofa bed and were very comfortable.  I was able to cook meals, work out in their gym, have a full breakfast and a nice complimentary meal with wine or beer three nights out of the week.  The staff was what really made our stay though.  Each day we were met by people going beyond their typical duties trying to make us feel comfortable.  Thanks again for making us feel at home!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r166970445-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>166970445</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>Roomy but not in Huntington beach</t>
+  </si>
+  <si>
+    <t>Had 2night stay for Disney trip -room was really roomy and comfy but I would not say this is Huntington beach area Easy access to 405 but didnt hear much loud noise from freeway Breakfast was pretty solid - waffle, bagel, egg... -breakfast was better than spring hill Pretty clean -but I can see gabege here and there, especially pool area -they really need clean pool area but room was clean enough They did little upgrade on room (new color, new kitchen...) but somehow you can still tell this is old property We would like to stay here again because having a kitchen is big plus with kidsMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded July 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2013</t>
+  </si>
+  <si>
+    <t>Had 2night stay for Disney trip -room was really roomy and comfy but I would not say this is Huntington beach area Easy access to 405 but didnt hear much loud noise from freeway Breakfast was pretty solid - waffle, bagel, egg... -breakfast was better than spring hill Pretty clean -but I can see gabege here and there, especially pool area -they really need clean pool area but room was clean enough They did little upgrade on room (new color, new kitchen...) but somehow you can still tell this is old property We would like to stay here again because having a kitchen is big plus with kidsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r166576915-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>166576915</t>
+  </si>
+  <si>
+    <t>07/06/2013</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel for 2 weeks- perfect location for Disney &amp; Huntington beach.  Staff very helpful &amp; friendly.   The pool &amp; basket ball court was great for kids.  A family oriented place/ would come back again.MoreShow less</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded July 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2013</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel for 2 weeks- perfect location for Disney &amp; Huntington beach.  Staff very helpful &amp; friendly.   The pool &amp; basket ball court was great for kids.  A family oriented place/ would come back again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r162651401-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>162651401</t>
+  </si>
+  <si>
+    <t>06/01/2013</t>
+  </si>
+  <si>
+    <t>Great, Comfortable Stay</t>
+  </si>
+  <si>
+    <t>Very nice rooms with wonderful full, hot breakfast daily, with some variety from day to day. Every day there was a  good assortment of cereals including hot oatmeal, bagels, toast, waffles, scrambled eggs, yogurt, etc.  A special treat was the evening social hour a few evenings while we were there.  One evening there was soup &amp; salad available.  Another evening cheeseburgers, potato chips &amp; salad.  Both evening there was red or white wine, beer &amp; lemonade. Pool was nice &amp; warm and there is a nice outside gathering area with a barbecue, couches, easy chairs &amp; tables &amp; chairs.  We were traveling with 4 generations of family and required 2 rooms. The clerk suggested we have the rooms keyed the same, which was a wonderful idea, so we had a total of 4 keys to open both rooms.  One of the family has trouble walking, and we were provided rooms on the first floor close to everything. Staff was very friendly &amp; helpful with ideas of where to dine &amp; a list of delivery restaurants.  The location was very good, right off the xway &amp; only about 15-20 mins from Knotts Berry Farm which is why we picked this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded June 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2013</t>
+  </si>
+  <si>
+    <t>Very nice rooms with wonderful full, hot breakfast daily, with some variety from day to day. Every day there was a  good assortment of cereals including hot oatmeal, bagels, toast, waffles, scrambled eggs, yogurt, etc.  A special treat was the evening social hour a few evenings while we were there.  One evening there was soup &amp; salad available.  Another evening cheeseburgers, potato chips &amp; salad.  Both evening there was red or white wine, beer &amp; lemonade. Pool was nice &amp; warm and there is a nice outside gathering area with a barbecue, couches, easy chairs &amp; tables &amp; chairs.  We were traveling with 4 generations of family and required 2 rooms. The clerk suggested we have the rooms keyed the same, which was a wonderful idea, so we had a total of 4 keys to open both rooms.  One of the family has trouble walking, and we were provided rooms on the first floor close to everything. Staff was very friendly &amp; helpful with ideas of where to dine &amp; a list of delivery restaurants.  The location was very good, right off the xway &amp; only about 15-20 mins from Knotts Berry Farm which is why we picked this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r158944286-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>158944286</t>
+  </si>
+  <si>
+    <t>04/27/2013</t>
+  </si>
+  <si>
+    <t>Righ Place at the right price</t>
+  </si>
+  <si>
+    <t>Hotels are getting very pricey in this area so we were pleased to find this property.  It is an older design that has been updated to keep pace with business needs.  We found the condition to be great, staff to be extremely good at their jobs!.  Location is about 5 miles north of the SNA airport very close to the 405.  Traffic could be an issue if you have to travel to Irvine in rush hour.  Either way, we would be happy to return as guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>ArtA622, General Manager at Residence Inn by Marriott Huntington Beach Fountain Valley, responded to this reviewResponded April 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2013</t>
+  </si>
+  <si>
+    <t>Hotels are getting very pricey in this area so we were pleased to find this property.  It is an older design that has been updated to keep pace with business needs.  We found the condition to be great, staff to be extremely good at their jobs!.  Location is about 5 miles north of the SNA airport very close to the 405.  Traffic could be an issue if you have to travel to Irvine in rush hour.  Either way, we would be happy to return as guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r158765714-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>158765714</t>
+  </si>
+  <si>
+    <t>04/25/2013</t>
+  </si>
+  <si>
+    <t>Nice stay, courteous follow up</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Residence Inn and have stayed there on many previous trips to Southern California. First hand experience tells me that the staff is very concerned with guest safety and security. Thank you to the manager, Mr. Aquino, for his thoughtful response to questions I had; I felt like a valued guest. We always enjoy Residence Inn breakfasts and this breakfast room seemed particularly clean and well stocked. Despite the easy access to the 405, I have never had any freeway noise disturb my sleep. I was able to use the computer in the lobby to quickly keep up with email. I think the studio rooms are a good value for a short stay, but when I need 2 beds for my family or wish to ensure that no one sleeps on a sofa bed (of course regular beds are more comfortable!), the price for the larger accommodations is generally out of my league and, regrettably, I stay somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Residence Inn and have stayed there on many previous trips to Southern California. First hand experience tells me that the staff is very concerned with guest safety and security. Thank you to the manager, Mr. Aquino, for his thoughtful response to questions I had; I felt like a valued guest. We always enjoy Residence Inn breakfasts and this breakfast room seemed particularly clean and well stocked. Despite the easy access to the 405, I have never had any freeway noise disturb my sleep. I was able to use the computer in the lobby to quickly keep up with email. I think the studio rooms are a good value for a short stay, but when I need 2 beds for my family or wish to ensure that no one sleeps on a sofa bed (of course regular beds are more comfortable!), the price for the larger accommodations is generally out of my league and, regrettably, I stay somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r154098107-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>154098107</t>
+  </si>
+  <si>
+    <t>03/09/2013</t>
+  </si>
+  <si>
+    <t>Apartment like Stay</t>
+  </si>
+  <si>
+    <t>Great  stay close to family in Fountain Valley.   Close to Disney, beach and malls.  Rooms like apartments - very comfortable and clean..  We were upgraded to a 2 bedroom which was great for a couple - not having to share the bathrooms, as they are small.    Free breakfast not quite up to other Residence inns where I've stayed. They ran out of food early and room too small for the size of the complex, since many families with children stay here.   Overall nice stay and good location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r152998325-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>152998325</t>
+  </si>
+  <si>
+    <t>02/24/2013</t>
+  </si>
+  <si>
+    <t>one night stay</t>
+  </si>
+  <si>
+    <t>My husband and I were celebrating his mom's birthday this weekend and we decided to stay at this Residence Inn.  The rooms were very clean and well maintained.  Ask for extra shampoo and conditioner - the very tiny containers of Paul Mitchell were not enough for one person's hair.  The check in was pleasant and the grounds were well maintained.  Breakfast was just OK - standard fruit, muffins, "fake" eggs, greasy sausage patties, make your own waffles, cereal, coffee, etc....so you could have healthy breakfast of fresh fruit and raisin bran cereal.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r150440008-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>150440008</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>Enjoyable Stay</t>
+  </si>
+  <si>
+    <t>We spent two nights here recently due to having to have our house fumigated.  The staff was great and the two bedroom unit very comfortable and well maintained.  We especially enjoyed the breakfast and happy hour.  Used the exercise room a bit and although small, adequate for my needs.  Pool area was clean and pool was heated in spite of being winter.  Will recommend to others and stay again if necessary.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r146490143-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>146490143</t>
+  </si>
+  <si>
+    <t>11/30/2012</t>
+  </si>
+  <si>
+    <t>Great location, excellent rooms and wonderful service!</t>
+  </si>
+  <si>
+    <t>The location is great for quick entry to the 405 and only minutes from John Wayne!  Not sure of the age of the location but my room was completely brand new...the kitchen, the bathroom, etc.  My room was very near the back of the property and the interstate...but I heard NOTHING!! Highly recommend...the breakfast and staff were great too.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r146392773-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>146392773</t>
+  </si>
+  <si>
+    <t>11/28/2012</t>
+  </si>
+  <si>
+    <t>Home away from Home- Great Suburban location just of I-405</t>
+  </si>
+  <si>
+    <t>Very good location close to the I-405 and central to Orange County. Also, close to the Orange County airport. What I really liked about this hotel is that it in a subarban area  with low traffic and a the mile long park nearby. Breakfast and the heated pool was a a hit with the kids. They also have free dinner on Mondays, Tuesday and Wednesdays. Hotel room was very good with fully equipped kitchen. Overall, a great way to feel somewhat at home when travelling.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r144629750-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>144629750</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Quiet Hotel, Friendly staff</t>
+  </si>
+  <si>
+    <t>We just spent a week at this hotel in a 2 bedroom suite. Yes, the hotel is older and it shows in a few places even though it has been rehabbed and the kitchen seems fairly new.  However, it was very quiet during our stay, good to have breakfast every morning, and the staff was excellent. Very kind and friendly and our room was very clean.  The beds are a bit hard from what I am used to, but still slept OK.Just a comment about the previous review about sand in the bathtub- there was a rough texture on the bathtub surface to keep from slipping, and it does feel a bit like sand at first.  I think this is what the reviewer noticed.I would definitely recommend this hotel and would stay again if we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>We just spent a week at this hotel in a 2 bedroom suite. Yes, the hotel is older and it shows in a few places even though it has been rehabbed and the kitchen seems fairly new.  However, it was very quiet during our stay, good to have breakfast every morning, and the staff was excellent. Very kind and friendly and our room was very clean.  The beds are a bit hard from what I am used to, but still slept OK.Just a comment about the previous review about sand in the bathtub- there was a rough texture on the bathtub surface to keep from slipping, and it does feel a bit like sand at first.  I think this is what the reviewer noticed.I would definitely recommend this hotel and would stay again if we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r141696907-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>141696907</t>
+  </si>
+  <si>
+    <t>09/30/2012</t>
+  </si>
+  <si>
+    <t>Good location and great value.</t>
+  </si>
+  <si>
+    <t>My older daughter and I recently stayed here to attend a conference in Huntington Beach.  We were here for 7 nights.  We extended one additional night here instead of getting a room closer to the Orange County airport.  It turns out it's only 7 miles from the airport anyway.   I am one of those people who agonize about hotel rooms and locations and particularly cleanliness and safety.  This place was just fine and I would stay there again.  The room was clean and the kitchenette was an added bonus for those days when we didn't want to eat out. The breakfast was a good start to the day.  There was always yogurt, fruit, bagels, waffles if you cared to make them, cereal, hot scrambled eggs and sausage and potatoes.  I used the exercise room and my daughter used the pool; both were fine.  The staff was always very friendly.  There was a manager's reception Mon through Wed with some kind of substantial snack like nachos or turkey sandwiches or burgers.  There were several restaurants right around the corner.  We walked to the Duo restaurant one night.  Parking and wireless Internet connection was free.  My daughter was able to attend her graduate classes remotely for two nights, 3 hours each, without the connection dropping out.  We would definitely stay there again.  Based on our good experience with a Residence Inn, I will be looking for them in other cities when I...My older daughter and I recently stayed here to attend a conference in Huntington Beach.  We were here for 7 nights.  We extended one additional night here instead of getting a room closer to the Orange County airport.  It turns out it's only 7 miles from the airport anyway.   I am one of those people who agonize about hotel rooms and locations and particularly cleanliness and safety.  This place was just fine and I would stay there again.  The room was clean and the kitchenette was an added bonus for those days when we didn't want to eat out. The breakfast was a good start to the day.  There was always yogurt, fruit, bagels, waffles if you cared to make them, cereal, hot scrambled eggs and sausage and potatoes.  I used the exercise room and my daughter used the pool; both were fine.  The staff was always very friendly.  There was a manager's reception Mon through Wed with some kind of substantial snack like nachos or turkey sandwiches or burgers.  There were several restaurants right around the corner.  We walked to the Duo restaurant one night.  Parking and wireless Internet connection was free.  My daughter was able to attend her graduate classes remotely for two nights, 3 hours each, without the connection dropping out.  We would definitely stay there again.  Based on our good experience with a Residence Inn, I will be looking for them in other cities when I travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>My older daughter and I recently stayed here to attend a conference in Huntington Beach.  We were here for 7 nights.  We extended one additional night here instead of getting a room closer to the Orange County airport.  It turns out it's only 7 miles from the airport anyway.   I am one of those people who agonize about hotel rooms and locations and particularly cleanliness and safety.  This place was just fine and I would stay there again.  The room was clean and the kitchenette was an added bonus for those days when we didn't want to eat out. The breakfast was a good start to the day.  There was always yogurt, fruit, bagels, waffles if you cared to make them, cereal, hot scrambled eggs and sausage and potatoes.  I used the exercise room and my daughter used the pool; both were fine.  The staff was always very friendly.  There was a manager's reception Mon through Wed with some kind of substantial snack like nachos or turkey sandwiches or burgers.  There were several restaurants right around the corner.  We walked to the Duo restaurant one night.  Parking and wireless Internet connection was free.  My daughter was able to attend her graduate classes remotely for two nights, 3 hours each, without the connection dropping out.  We would definitely stay there again.  Based on our good experience with a Residence Inn, I will be looking for them in other cities when I...My older daughter and I recently stayed here to attend a conference in Huntington Beach.  We were here for 7 nights.  We extended one additional night here instead of getting a room closer to the Orange County airport.  It turns out it's only 7 miles from the airport anyway.   I am one of those people who agonize about hotel rooms and locations and particularly cleanliness and safety.  This place was just fine and I would stay there again.  The room was clean and the kitchenette was an added bonus for those days when we didn't want to eat out. The breakfast was a good start to the day.  There was always yogurt, fruit, bagels, waffles if you cared to make them, cereal, hot scrambled eggs and sausage and potatoes.  I used the exercise room and my daughter used the pool; both were fine.  The staff was always very friendly.  There was a manager's reception Mon through Wed with some kind of substantial snack like nachos or turkey sandwiches or burgers.  There were several restaurants right around the corner.  We walked to the Duo restaurant one night.  Parking and wireless Internet connection was free.  My daughter was able to attend her graduate classes remotely for two nights, 3 hours each, without the connection dropping out.  We would definitely stay there again.  Based on our good experience with a Residence Inn, I will be looking for them in other cities when I travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r141622660-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>141622660</t>
+  </si>
+  <si>
+    <t>09/29/2012</t>
+  </si>
+  <si>
+    <t>Pretty good considering the location</t>
+  </si>
+  <si>
+    <t>Well when i first pulled off the Interstate and realized this property was between the 405 and Slater which is a busy street....I thought damn this is going to be a noisy place.  On the weekends the place is not packed and I requested a quiet room and got one in the middle of the property between the two thoroughfares.  It was relatively quiet and the the 2 bedroom suite I got was nice.  Only downsides is they have HiDef TV's with no HiDef signals so the reception is not good which is not the best for football viewing.  Breakfast was so-so.  Pro's:  Front desk kid was super nice and helped me with the internet as they have a computer that doesn't automatically go to Internet explorer.  Rooms are thermostat controlled and fans are pretty quiet.Con's: You could get a room facing the 405 so if you are a light sleeper could be an issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>Well when i first pulled off the Interstate and realized this property was between the 405 and Slater which is a busy street....I thought damn this is going to be a noisy place.  On the weekends the place is not packed and I requested a quiet room and got one in the middle of the property between the two thoroughfares.  It was relatively quiet and the the 2 bedroom suite I got was nice.  Only downsides is they have HiDef TV's with no HiDef signals so the reception is not good which is not the best for football viewing.  Breakfast was so-so.  Pro's:  Front desk kid was super nice and helped me with the internet as they have a computer that doesn't automatically go to Internet explorer.  Rooms are thermostat controlled and fans are pretty quiet.Con's: You could get a room facing the 405 so if you are a light sleeper could be an issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r141293403-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>141293403</t>
+  </si>
+  <si>
+    <t>09/25/2012</t>
+  </si>
+  <si>
+    <t>Another great Residence Inn</t>
+  </si>
+  <si>
+    <t>My parents, daughter and I stayed in a two room suite in building 9.  Couldn't hear the freeway from the room.  Room was clean.  My daughter was sick and visited the front desk in the middle of the night for some soda and the front desk clerk was friendly and super helpful.  Would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r139532864-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>139532864</t>
+  </si>
+  <si>
+    <t>09/05/2012</t>
+  </si>
+  <si>
+    <t>Back to the Residence Inn standards</t>
+  </si>
+  <si>
+    <t>Have not stayed in the RI of Fountain Valley for 5 years due to previous bad experiences, it is good to see that it is back to Marriot Residence Inn standards with only a few things left to improve.We stayed for more than a week in building 10 which faces the 405 freeway. Close the windows and you only hear big trucks using their brakes but no other traffic.All rooms have been remodeled 2 years ago and follow the new RI color scheme. Unfortunately they have not upgraded the WiFi (slow download rates with less than 200 kB and long response times) and the TV is still analog with a limited number of channels (no Disney to the great disappointment of my daughter).Room service was consistently good and the front desk service perfect, very polite and obliging.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Have not stayed in the RI of Fountain Valley for 5 years due to previous bad experiences, it is good to see that it is back to Marriot Residence Inn standards with only a few things left to improve.We stayed for more than a week in building 10 which faces the 405 freeway. Close the windows and you only hear big trucks using their brakes but no other traffic.All rooms have been remodeled 2 years ago and follow the new RI color scheme. Unfortunately they have not upgraded the WiFi (slow download rates with less than 200 kB and long response times) and the TV is still analog with a limited number of channels (no Disney to the great disappointment of my daughter).Room service was consistently good and the front desk service perfect, very polite and obliging.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r135789942-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>135789942</t>
+  </si>
+  <si>
+    <t>07/30/2012</t>
+  </si>
+  <si>
+    <t>Great place, pricey, could be better with a little effort</t>
+  </si>
+  <si>
+    <t>Overall we enjoyed our stay here.
+Our main requirement was a 2 room suite - that's what we got. The living room and kitchen were great additions. The location is great - close to the 405 and easy to get to Newport and Huntington Beach, Disneyland, local restaurants and stores, and John Wayne Airport. We had family staying at nearby hotels (they only needed a single room so other places worked out better for them) and we were close to them too. The continental breakfast was fine (be warned - when they say that breakfast ends at 9:30, they mean it - all of the food is put away promptly) and they have free dinner Monday through Wednesday but we have other stuff planned so we didn't go.
+The drawbacks. Firstly, it's pricey. We would have paid less for 2 rooms at a different hotel but we needed the rooms to be connected. Hotels rarely if ever assure this, and even then you may find out at check-in that the adjoining rooms are all gone. Secondly, they have a sport court and so we wanted to play a little b-ball. We went to the front desk to check out a ball and were told that the people who checked it (apparently thier one and only ball) out yesterday never returned it. There was no effort by the staff to try to accomodate us and to get the ball back. I...Overall we enjoyed our stay here.Our main requirement was a 2 room suite - that's what we got. The living room and kitchen were great additions. The location is great - close to the 405 and easy to get to Newport and Huntington Beach, Disneyland, local restaurants and stores, and John Wayne Airport. We had family staying at nearby hotels (they only needed a single room so other places worked out better for them) and we were close to them too. The continental breakfast was fine (be warned - when they say that breakfast ends at 9:30, they mean it - all of the food is put away promptly) and they have free dinner Monday through Wednesday but we have other stuff planned so we didn't go.The drawbacks. Firstly, it's pricey. We would have paid less for 2 rooms at a different hotel but we needed the rooms to be connected. Hotels rarely if ever assure this, and even then you may find out at check-in that the adjoining rooms are all gone. Secondly, they have a sport court and so we wanted to play a little b-ball. We went to the front desk to check out a ball and were told that the people who checked it (apparently thier one and only ball) out yesterday never returned it. There was no effort by the staff to try to accomodate us and to get the ball back. I asked if they had any other kind of ball and was told no. A basketball costs about $20 - perhaps they could buy 4 or 5 to make sure that at least a couple are available at all times. They should get a few volleyballs too.Again, nice place overall but expensive and they need to make sure that all of the amenities are useable.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Overall we enjoyed our stay here.
+Our main requirement was a 2 room suite - that's what we got. The living room and kitchen were great additions. The location is great - close to the 405 and easy to get to Newport and Huntington Beach, Disneyland, local restaurants and stores, and John Wayne Airport. We had family staying at nearby hotels (they only needed a single room so other places worked out better for them) and we were close to them too. The continental breakfast was fine (be warned - when they say that breakfast ends at 9:30, they mean it - all of the food is put away promptly) and they have free dinner Monday through Wednesday but we have other stuff planned so we didn't go.
+The drawbacks. Firstly, it's pricey. We would have paid less for 2 rooms at a different hotel but we needed the rooms to be connected. Hotels rarely if ever assure this, and even then you may find out at check-in that the adjoining rooms are all gone. Secondly, they have a sport court and so we wanted to play a little b-ball. We went to the front desk to check out a ball and were told that the people who checked it (apparently thier one and only ball) out yesterday never returned it. There was no effort by the staff to try to accomodate us and to get the ball back. I...Overall we enjoyed our stay here.Our main requirement was a 2 room suite - that's what we got. The living room and kitchen were great additions. The location is great - close to the 405 and easy to get to Newport and Huntington Beach, Disneyland, local restaurants and stores, and John Wayne Airport. We had family staying at nearby hotels (they only needed a single room so other places worked out better for them) and we were close to them too. The continental breakfast was fine (be warned - when they say that breakfast ends at 9:30, they mean it - all of the food is put away promptly) and they have free dinner Monday through Wednesday but we have other stuff planned so we didn't go.The drawbacks. Firstly, it's pricey. We would have paid less for 2 rooms at a different hotel but we needed the rooms to be connected. Hotels rarely if ever assure this, and even then you may find out at check-in that the adjoining rooms are all gone. Secondly, they have a sport court and so we wanted to play a little b-ball. We went to the front desk to check out a ball and were told that the people who checked it (apparently thier one and only ball) out yesterday never returned it. There was no effort by the staff to try to accomodate us and to get the ball back. I asked if they had any other kind of ball and was told no. A basketball costs about $20 - perhaps they could buy 4 or 5 to make sure that at least a couple are available at all times. They should get a few volleyballs too.Again, nice place overall but expensive and they need to make sure that all of the amenities are useable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r132750738-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>132750738</t>
+  </si>
+  <si>
+    <t>06/25/2012</t>
+  </si>
+  <si>
+    <t>OK, not great.  Staff was very courteous and helpful</t>
+  </si>
+  <si>
+    <t>Upon arrival we got our keys and room number, our room was way in the back of the property.  After unloading all luggage and kids, we can't get into our room and find someone is already there.  We had to go back to the front desk with all our stuff to find out we were given the wrong room number, twice, once on the key envelope and again on the map.  Frustrating since we lost about 20 minutes dealing with this.
+First of all, these are practically apartments, the entrance to your room is on the outside, there are no hallways or elevators.  Our room smells weird but we try to ignore this.  It was a studio so there was only one TV.  We race to the pool to get in some swimming before closing time but it is filthy.  When we get ready for bed we find there are no linens or pillows for the sofa bed.  The vanity in the bathroom has a broken handle.  Now this isn't important but it does show lack of care to details.  Room is king with sofa sleeper and should accommodate three but the shampoo provided isn't even an a full ounce.  No paper towels provided in the kitchen.  No waste basket provided in the bathroom or the bathroom vanity area.  Breakfast looked OK, variety of hot foods, but the dining area was so small and crowded that we couldn't get to...Upon arrival we got our keys and room number, our room was way in the back of the property.  After unloading all luggage and kids, we can't get into our room and find someone is already there.  We had to go back to the front desk with all our stuff to find out we were given the wrong room number, twice, once on the key envelope and again on the map.  Frustrating since we lost about 20 minutes dealing with this.First of all, these are practically apartments, the entrance to your room is on the outside, there are no hallways or elevators.  Our room smells weird but we try to ignore this.  It was a studio so there was only one TV.  We race to the pool to get in some swimming before closing time but it is filthy.  When we get ready for bed we find there are no linens or pillows for the sofa bed.  The vanity in the bathroom has a broken handle.  Now this isn't important but it does show lack of care to details.  Room is king with sofa sleeper and should accommodate three but the shampoo provided isn't even an a full ounce.  No paper towels provided in the kitchen.  No waste basket provided in the bathroom or the bathroom vanity area.  Breakfast looked OK, variety of hot foods, but the dining area was so small and crowded that we couldn't get to anything or find a place to sit, so we had to go buy breakfast somewhere else.We have been very loyal to another hotel chain and this was our first stay at a Marriott property.  I have never paid as much as I did to stay here and was very disappointed.  So much that we did everything we could to not have to be back to our room until bedtime.  The fact that we couldn't swim with our kids or have breakfast on the property was the most disappointing.The only compliment I have is that the staff was very friendly and courteous the several times I had to call to get things we needed.  Specifically the gentleman in charge of housekeeping was very nice and helpful even giving us directions to the closest beach. The room itself was quiet and roomy.Unfortunately we were not impressed and probably will not be returning here or to any Marriott properties.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Upon arrival we got our keys and room number, our room was way in the back of the property.  After unloading all luggage and kids, we can't get into our room and find someone is already there.  We had to go back to the front desk with all our stuff to find out we were given the wrong room number, twice, once on the key envelope and again on the map.  Frustrating since we lost about 20 minutes dealing with this.
+First of all, these are practically apartments, the entrance to your room is on the outside, there are no hallways or elevators.  Our room smells weird but we try to ignore this.  It was a studio so there was only one TV.  We race to the pool to get in some swimming before closing time but it is filthy.  When we get ready for bed we find there are no linens or pillows for the sofa bed.  The vanity in the bathroom has a broken handle.  Now this isn't important but it does show lack of care to details.  Room is king with sofa sleeper and should accommodate three but the shampoo provided isn't even an a full ounce.  No paper towels provided in the kitchen.  No waste basket provided in the bathroom or the bathroom vanity area.  Breakfast looked OK, variety of hot foods, but the dining area was so small and crowded that we couldn't get to...Upon arrival we got our keys and room number, our room was way in the back of the property.  After unloading all luggage and kids, we can't get into our room and find someone is already there.  We had to go back to the front desk with all our stuff to find out we were given the wrong room number, twice, once on the key envelope and again on the map.  Frustrating since we lost about 20 minutes dealing with this.First of all, these are practically apartments, the entrance to your room is on the outside, there are no hallways or elevators.  Our room smells weird but we try to ignore this.  It was a studio so there was only one TV.  We race to the pool to get in some swimming before closing time but it is filthy.  When we get ready for bed we find there are no linens or pillows for the sofa bed.  The vanity in the bathroom has a broken handle.  Now this isn't important but it does show lack of care to details.  Room is king with sofa sleeper and should accommodate three but the shampoo provided isn't even an a full ounce.  No paper towels provided in the kitchen.  No waste basket provided in the bathroom or the bathroom vanity area.  Breakfast looked OK, variety of hot foods, but the dining area was so small and crowded that we couldn't get to anything or find a place to sit, so we had to go buy breakfast somewhere else.We have been very loyal to another hotel chain and this was our first stay at a Marriott property.  I have never paid as much as I did to stay here and was very disappointed.  So much that we did everything we could to not have to be back to our room until bedtime.  The fact that we couldn't swim with our kids or have breakfast on the property was the most disappointing.The only compliment I have is that the staff was very friendly and courteous the several times I had to call to get things we needed.  Specifically the gentleman in charge of housekeeping was very nice and helpful even giving us directions to the closest beach. The room itself was quiet and roomy.Unfortunately we were not impressed and probably will not be returning here or to any Marriott properties.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r126952538-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>126952538</t>
+  </si>
+  <si>
+    <t>03/30/2012</t>
+  </si>
+  <si>
+    <t>Two bedroom suite</t>
+  </si>
+  <si>
+    <t>From the moment I booked the accomodation to the moment we arrived at to the moment we left - we were made to feel like valued customers.
+The suite was ready when we arrived. The two bedroom suite has two separate bathrooms and TVs in each room.  The beds were comfortable and clean.  The living room was equiped with TV, a pullout sofa, a chair, a coffee table, a writing desk and chair.  The kitchen was fully stocked with silverware and crockery.  A stove, fridge and dishwasher completed the kitchen area.  There was a nice eating bar counter set up with tall chairs.  We liked the darkening drapes in all the rooms.  The Air conditioning worked well.
+ Corey at reception was excellent. We had a medical emergency the second day of our arrival, and he found the number of the local clinic and hospital for us.  Ashley was helpful as well.  Manager Art Aquino came and thanked me for staying there, and upon me complementing the hotel, he complemented his staff for running it so well.  A great quality in a manager!  Happy staff make for happy guests.
+This hotel upholds the Marriott name.  Everyone was just eager to please the guests.  If we were short anything in our room, one call would take care of it.  Even the small fruit flies - as another reviewer mentioned - were taken care of when I mentioned that to the front desk....From the moment I booked the accomodation to the moment we arrived at to the moment we left - we were made to feel like valued customers.The suite was ready when we arrived. The two bedroom suite has two separate bathrooms and TVs in each room.  The beds were comfortable and clean.  The living room was equiped with TV, a pullout sofa, a chair, a coffee table, a writing desk and chair.  The kitchen was fully stocked with silverware and crockery.  A stove, fridge and dishwasher completed the kitchen area.  There was a nice eating bar counter set up with tall chairs.  We liked the darkening drapes in all the rooms.  The Air conditioning worked well. Corey at reception was excellent. We had a medical emergency the second day of our arrival, and he found the number of the local clinic and hospital for us.  Ashley was helpful as well.  Manager Art Aquino came and thanked me for staying there, and upon me complementing the hotel, he complemented his staff for running it so well.  A great quality in a manager!  Happy staff make for happy guests.This hotel upholds the Marriott name.  Everyone was just eager to please the guests.  If we were short anything in our room, one call would take care of it.  Even the small fruit flies - as another reviewer mentioned - were taken care of when I mentioned that to the front desk.  They sent someone to spray the room whilst we were out, and upon our arrival, the flies were gone, and there was no spray odour.Parking was plentiful and free which was a bonus.  The WiFi was great, and connecting to it was not much of a problem.  Our room did not face the highway, but was to the side a bit.  Being on the second floor helped keep the noise level down - not that there was that much noise from the traffic or other guests in our suite.  We ate at the buffet for a few days.  Usual fare - toast, bagels, muffins, coffee, juice, waffles, scrambled eggs, sausages, apples, bananas, yogurt, pancakes......  Monday through Wednesday, there are also some refreshments offered between 5 and 7, but unfortunately, we did not partake in those as we were never at the hotel until later in the night.  We were going to stay for 8 days, but ended up extending our trip to 13 days.  I am glad we picked this hotel to stay at.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>From the moment I booked the accomodation to the moment we arrived at to the moment we left - we were made to feel like valued customers.
+The suite was ready when we arrived. The two bedroom suite has two separate bathrooms and TVs in each room.  The beds were comfortable and clean.  The living room was equiped with TV, a pullout sofa, a chair, a coffee table, a writing desk and chair.  The kitchen was fully stocked with silverware and crockery.  A stove, fridge and dishwasher completed the kitchen area.  There was a nice eating bar counter set up with tall chairs.  We liked the darkening drapes in all the rooms.  The Air conditioning worked well.
+ Corey at reception was excellent. We had a medical emergency the second day of our arrival, and he found the number of the local clinic and hospital for us.  Ashley was helpful as well.  Manager Art Aquino came and thanked me for staying there, and upon me complementing the hotel, he complemented his staff for running it so well.  A great quality in a manager!  Happy staff make for happy guests.
+This hotel upholds the Marriott name.  Everyone was just eager to please the guests.  If we were short anything in our room, one call would take care of it.  Even the small fruit flies - as another reviewer mentioned - were taken care of when I mentioned that to the front desk....From the moment I booked the accomodation to the moment we arrived at to the moment we left - we were made to feel like valued customers.The suite was ready when we arrived. The two bedroom suite has two separate bathrooms and TVs in each room.  The beds were comfortable and clean.  The living room was equiped with TV, a pullout sofa, a chair, a coffee table, a writing desk and chair.  The kitchen was fully stocked with silverware and crockery.  A stove, fridge and dishwasher completed the kitchen area.  There was a nice eating bar counter set up with tall chairs.  We liked the darkening drapes in all the rooms.  The Air conditioning worked well. Corey at reception was excellent. We had a medical emergency the second day of our arrival, and he found the number of the local clinic and hospital for us.  Ashley was helpful as well.  Manager Art Aquino came and thanked me for staying there, and upon me complementing the hotel, he complemented his staff for running it so well.  A great quality in a manager!  Happy staff make for happy guests.This hotel upholds the Marriott name.  Everyone was just eager to please the guests.  If we were short anything in our room, one call would take care of it.  Even the small fruit flies - as another reviewer mentioned - were taken care of when I mentioned that to the front desk.  They sent someone to spray the room whilst we were out, and upon our arrival, the flies were gone, and there was no spray odour.Parking was plentiful and free which was a bonus.  The WiFi was great, and connecting to it was not much of a problem.  Our room did not face the highway, but was to the side a bit.  Being on the second floor helped keep the noise level down - not that there was that much noise from the traffic or other guests in our suite.  We ate at the buffet for a few days.  Usual fare - toast, bagels, muffins, coffee, juice, waffles, scrambled eggs, sausages, apples, bananas, yogurt, pancakes......  Monday through Wednesday, there are also some refreshments offered between 5 and 7, but unfortunately, we did not partake in those as we were never at the hotel until later in the night.  We were going to stay for 8 days, but ended up extending our trip to 13 days.  I am glad we picked this hotel to stay at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r125958366-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>125958366</t>
+  </si>
+  <si>
+    <t>03/11/2012</t>
+  </si>
+  <si>
+    <t>Great location to Huntington Beach</t>
+  </si>
+  <si>
+    <t>Decent place to stay....bed average but the room and bathroom were very clean other than the small flies we were never able to get rid of.  Room had a king bed and pullout (but very uncomfortable) sofa.   Room looked to be recently re-decorated.  Great water pressure in shower.  Ask for extra towels when you check in if you have more than 2 people.Smart to get a room facing the freeway (and oddly it wasn't loud)....but if you face the pool, you get that noise PLUS the kids who are playing basketball endlessly on the court near the pool at all hours of the night and very early morning.  That was the loudest part of our stay.Fair hot or cold breakfast with the usual offerings.  We found the staff to be very friendly and accommodating when we checked in.  We had a mini-kitchen with small dining table plus a desk which was nice.Teenage daughter liked the free wi-fi and we liked free and ample parking.  We stayed 2 nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>Decent place to stay....bed average but the room and bathroom were very clean other than the small flies we were never able to get rid of.  Room had a king bed and pullout (but very uncomfortable) sofa.   Room looked to be recently re-decorated.  Great water pressure in shower.  Ask for extra towels when you check in if you have more than 2 people.Smart to get a room facing the freeway (and oddly it wasn't loud)....but if you face the pool, you get that noise PLUS the kids who are playing basketball endlessly on the court near the pool at all hours of the night and very early morning.  That was the loudest part of our stay.Fair hot or cold breakfast with the usual offerings.  We found the staff to be very friendly and accommodating when we checked in.  We had a mini-kitchen with small dining table plus a desk which was nice.Teenage daughter liked the free wi-fi and we liked free and ample parking.  We stayed 2 nights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r124323214-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>124323214</t>
+  </si>
+  <si>
+    <t>02/08/2012</t>
+  </si>
+  <si>
+    <t>Great For Multi-Day Stays</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 days and it was very nice. Many amenities as home such as full refrigerator, stove and microwave.  Had a king studio suite which was spacious enough for us with a sofa, work table, chair and dinning table.  The room was clean and quiet even though we were on the freeway side.  The staff was very cordial and helpful.  I got to the hotel 3 hours before normal check-in time and they were able to accommodate my check-in early with less than an hour wait.  The room had a nice closet and also good digital heating controls.  The wash area is separate from the shower.  Bed comfort was good.  There is a free breakfast which was quite good.  Eggs, potatoes, susage, bagels, toast, MYO waffles, cereal and juice and coffee was part of the offering.  There is no restaurant on site but some can be found about a two mile drive away.  I would not hesitate to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 days and it was very nice. Many amenities as home such as full refrigerator, stove and microwave.  Had a king studio suite which was spacious enough for us with a sofa, work table, chair and dinning table.  The room was clean and quiet even though we were on the freeway side.  The staff was very cordial and helpful.  I got to the hotel 3 hours before normal check-in time and they were able to accommodate my check-in early with less than an hour wait.  The room had a nice closet and also good digital heating controls.  The wash area is separate from the shower.  Bed comfort was good.  There is a free breakfast which was quite good.  Eggs, potatoes, susage, bagels, toast, MYO waffles, cereal and juice and coffee was part of the offering.  There is no restaurant on site but some can be found about a two mile drive away.  I would not hesitate to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r120637534-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>120637534</t>
+  </si>
+  <si>
+    <t>11/15/2011</t>
+  </si>
+  <si>
+    <t>Great Place for a 3+ day stay!</t>
+  </si>
+  <si>
+    <t>Great location, very safe and clean and restaurants are just a few miles down the road.  If you are on business this is great, all the kitchen amenities, and a great room lay out with fast wi-fi!</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r119072903-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>119072903</t>
+  </si>
+  <si>
+    <t>10/08/2011</t>
+  </si>
+  <si>
+    <t>Clean, Safe</t>
+  </si>
+  <si>
+    <t>Our stay at this facility was a gift from a friend.Staff was attentive.  The accommodations were well maintained.  The happy hour was well stocked.  Breakfast had a variety of items that would make most people happy.The room included a kitchenette with a dishwasher.  The room itself had very nice decor.  The bathroom and kitchen was clean.The only reason I didn't give this facility five stars was because the bed was hard AND lumpy and the drinking glasses in the kitchen had not been cleaned, only wiped out--yuck.There was dish soap available had I needed to use them - or I could have used the dishwasher.There are some fast food restaurants within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our stay at this facility was a gift from a friend.Staff was attentive.  The accommodations were well maintained.  The happy hour was well stocked.  Breakfast had a variety of items that would make most people happy.The room included a kitchenette with a dishwasher.  The room itself had very nice decor.  The bathroom and kitchen was clean.The only reason I didn't give this facility five stars was because the bed was hard AND lumpy and the drinking glasses in the kitchen had not been cleaned, only wiped out--yuck.There was dish soap available had I needed to use them - or I could have used the dishwasher.There are some fast food restaurants within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r118218363-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>118218363</t>
+  </si>
+  <si>
+    <t>09/16/2011</t>
+  </si>
+  <si>
+    <t>Great would go back there again and again !!</t>
+  </si>
+  <si>
+    <t>This is a really nice property.  2 bedroom suite is just beautiful..  Kitchen with granite counter tops , dishes glasses forks ( not that I used any) , Kitchen is fullly prepared.  Fireplace, living room , 3 flat screen TV.  Nice pool, laundry room which came is handy when our trip got delayed coz of the hurricane in NJ.  ( no flight out for 5 days)  it's close to everything, disney is 10 mins away.  beach is close, it's an easy drive to visit Laguna and newport beach...complementary breakfast everyday....hey they even had a complementary barbeque one night.....beds very comfortable two bathrooms with tub and shower...    Stay you wont regret it,.....MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>This is a really nice property.  2 bedroom suite is just beautiful..  Kitchen with granite counter tops , dishes glasses forks ( not that I used any) , Kitchen is fullly prepared.  Fireplace, living room , 3 flat screen TV.  Nice pool, laundry room which came is handy when our trip got delayed coz of the hurricane in NJ.  ( no flight out for 5 days)  it's close to everything, disney is 10 mins away.  beach is close, it's an easy drive to visit Laguna and newport beach...complementary breakfast everyday....hey they even had a complementary barbeque one night.....beds very comfortable two bathrooms with tub and shower...    Stay you wont regret it,.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r117019131-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>117019131</t>
+  </si>
+  <si>
+    <t>08/21/2011</t>
+  </si>
+  <si>
+    <t>Rude Security and Poor Customer Service</t>
+  </si>
+  <si>
+    <t>We stayed for 5 nights, my discount paperwork was lost and the late night guy (dark skin) )was rude about it. Refused to book another night even though hotel was empty. Stated they called room but no messages were left. Female Security Guard was rude and even would close the pool before 11pm, Stood and watch you gather your belongings and interrupted your conversations to say leave now. Not polite or friendly at all.The breakfast was the same everyday very little change compared to other Residence Inn.Will never stay again. Yes room was upgraded but cheaply done. Very disappointed would not stay again. Other hotels in the area are higher quality. Beginning to loose faith in the Marriott ChainJacuzzi filthy every evening and jets didn't work most of the time. Felt slimy after using it.Only positive was the Housekeeping crew and young man that worked various shifts Caucasian with dark brown hair. Breakfast no fresh fruit, no variance. Light snacks basic and cheap compared to other Residence Inns.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed for 5 nights, my discount paperwork was lost and the late night guy (dark skin) )was rude about it. Refused to book another night even though hotel was empty. Stated they called room but no messages were left. Female Security Guard was rude and even would close the pool before 11pm, Stood and watch you gather your belongings and interrupted your conversations to say leave now. Not polite or friendly at all.The breakfast was the same everyday very little change compared to other Residence Inn.Will never stay again. Yes room was upgraded but cheaply done. Very disappointed would not stay again. Other hotels in the area are higher quality. Beginning to loose faith in the Marriott ChainJacuzzi filthy every evening and jets didn't work most of the time. Felt slimy after using it.Only positive was the Housekeeping crew and young man that worked various shifts Caucasian with dark brown hair. Breakfast no fresh fruit, no variance. Light snacks basic and cheap compared to other Residence Inns.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r116581310-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>116581310</t>
+  </si>
+  <si>
+    <t>08/11/2011</t>
+  </si>
+  <si>
+    <t>Awesome Rooms - Awful Guests</t>
+  </si>
+  <si>
+    <t>While reviewing a hotel mentioning it's guests is not always fair, I think it is safe to say the comment can stay for this place. There were many long term guests there that we quite obnoxious.The parking is AWFUL. The rooms are gorgeous. We stayed in a two bedroom suite.... it was sa-weeet. The breakfast was terrible. We ate there once and then purchased food to make ourselves in our room the rest of the time.The only reason we'd stay there again is if the location was necessary.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r115821427-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
+  </si>
+  <si>
+    <t>115821427</t>
+  </si>
+  <si>
+    <t>07/26/2011</t>
+  </si>
+  <si>
+    <t>Very, Very, pleased! Pleasant Stay - Excellent Customer Service!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 1 week in July while my husband attended to business in the area and the kids and I played! I must say it has been a long, long time since I have found a hotel that was clean, comfortable, met all of our needs and provided the highest standard of customer service and then some. Our room was immaculate upon arrival and then again each evening when we returned. I was impressed that they even put our dirty dishes in the dishwasher for us. That alone really made it a vacation for me! The breakfast was good every morning with a variety of choices and we had the option to bring it back to our room. But I was even more impressed with the ladies attending to the breakfast. They kept everything filled up and neat throughout the morning and were very pleasant and helpful. One morning we were struggling to take all of our plates (husband and I and 3 kids) back to our room and without our even asking one of the employees quickly fashioned us a foil covered small box for a tray. Wow! What superb customer service. It wasn't a fancy tray but it was so out of her way kind to bother to do that. You don't get that kind of service any more. They really are very genuine anytime you need their help or have questions. We...My husband and I stayed here for 1 week in July while my husband attended to business in the area and the kids and I played! I must say it has been a long, long time since I have found a hotel that was clean, comfortable, met all of our needs and provided the highest standard of customer service and then some. Our room was immaculate upon arrival and then again each evening when we returned. I was impressed that they even put our dirty dishes in the dishwasher for us. That alone really made it a vacation for me! The breakfast was good every morning with a variety of choices and we had the option to bring it back to our room. But I was even more impressed with the ladies attending to the breakfast. They kept everything filled up and neat throughout the morning and were very pleasant and helpful. One morning we were struggling to take all of our plates (husband and I and 3 kids) back to our room and without our even asking one of the employees quickly fashioned us a foil covered small box for a tray. Wow! What superb customer service. It wasn't a fancy tray but it was so out of her way kind to bother to do that. You don't get that kind of service any more. They really are very genuine anytime you need their help or have questions. We headed to the front desk a number of times for questions about beaches in the area, directions, change for parking meters, needed extra blankets and towels and they were ALWAYS genuinely courteous and acommadating. The room like I said was very clean and updated. The bathroom had a large mirror over the sink/counter and plenty of counter space and drawers. The closet had large mirrored doors and plenty of space. The bed was super comfortable and the AC and or blankets always made for a good nights sleep too. The kitchen had a full size refrigerator, 2 burner stove and lots of counter space. No oven though, that was their only downfall. They had all of the basic essentials needed to make a basic meal. They even have a gas bbq and nice outdoor dining and relaxing area for use on a first come first serve basis. They are a short drive to huntington beaches and other nice beaches. Lots of shopping and dining available in the area - Costco, target, etc. you name it! You probably do need a car to get to most stores though. There are a couple of gas stations/mini marts close by. And we discovered that Disneyland is just a 10 min drive away. The pool was small but nice enough for the kids to play and great comfortable lounge chairs for me to read and relax! Can't say enough great things about Residence Inn Huntington Beach/Fountain Valley. Bravo! Bravo! Thank you! We will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 1 week in July while my husband attended to business in the area and the kids and I played! I must say it has been a long, long time since I have found a hotel that was clean, comfortable, met all of our needs and provided the highest standard of customer service and then some. Our room was immaculate upon arrival and then again each evening when we returned. I was impressed that they even put our dirty dishes in the dishwasher for us. That alone really made it a vacation for me! The breakfast was good every morning with a variety of choices and we had the option to bring it back to our room. But I was even more impressed with the ladies attending to the breakfast. They kept everything filled up and neat throughout the morning and were very pleasant and helpful. One morning we were struggling to take all of our plates (husband and I and 3 kids) back to our room and without our even asking one of the employees quickly fashioned us a foil covered small box for a tray. Wow! What superb customer service. It wasn't a fancy tray but it was so out of her way kind to bother to do that. You don't get that kind of service any more. They really are very genuine anytime you need their help or have questions. We...My husband and I stayed here for 1 week in July while my husband attended to business in the area and the kids and I played! I must say it has been a long, long time since I have found a hotel that was clean, comfortable, met all of our needs and provided the highest standard of customer service and then some. Our room was immaculate upon arrival and then again each evening when we returned. I was impressed that they even put our dirty dishes in the dishwasher for us. That alone really made it a vacation for me! The breakfast was good every morning with a variety of choices and we had the option to bring it back to our room. But I was even more impressed with the ladies attending to the breakfast. They kept everything filled up and neat throughout the morning and were very pleasant and helpful. One morning we were struggling to take all of our plates (husband and I and 3 kids) back to our room and without our even asking one of the employees quickly fashioned us a foil covered small box for a tray. Wow! What superb customer service. It wasn't a fancy tray but it was so out of her way kind to bother to do that. You don't get that kind of service any more. They really are very genuine anytime you need their help or have questions. We headed to the front desk a number of times for questions about beaches in the area, directions, change for parking meters, needed extra blankets and towels and they were ALWAYS genuinely courteous and acommadating. The room like I said was very clean and updated. The bathroom had a large mirror over the sink/counter and plenty of counter space and drawers. The closet had large mirrored doors and plenty of space. The bed was super comfortable and the AC and or blankets always made for a good nights sleep too. The kitchen had a full size refrigerator, 2 burner stove and lots of counter space. No oven though, that was their only downfall. They had all of the basic essentials needed to make a basic meal. They even have a gas bbq and nice outdoor dining and relaxing area for use on a first come first serve basis. They are a short drive to huntington beaches and other nice beaches. Lots of shopping and dining available in the area - Costco, target, etc. you name it! You probably do need a car to get to most stores though. There are a couple of gas stations/mini marts close by. And we discovered that Disneyland is just a 10 min drive away. The pool was small but nice enough for the kids to play and great comfortable lounge chairs for me to read and relax! Can't say enough great things about Residence Inn Huntington Beach/Fountain Valley. Bravo! Bravo! Thank you! We will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r98034174-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californi.html</t>
+  </si>
+  <si>
+    <t>98034174</t>
+  </si>
+  <si>
+    <t>02/25/2011</t>
+  </si>
+  <si>
+    <t>older but updated Residence Inn</t>
+  </si>
+  <si>
+    <t>This location is the older style Residence Inn (which we prefer) and has recently been going through an upgrade; I think most rooms have been upgraded - but NOT totally upgraded.  
+The kitchen area has cheap GE stainless steel appliances, granite counters, and tile floor.  What is missing is a full size stove with an OVEN.  There is a two burner electric stove top set into the granite but no oven (which I expected).  The pots, dishes, glassware, etc. are minimal (no large dinner plates)....why even a dishwasher - if you put all on the shelves it would only fill 1/4th of the dishwasher.  Coffee, dishwasher soap never replished;  bathroom soap was replenished once.  The bathroom had new sink, cabinet and granite counter.  The separate tub area had a new tile floor and that was it...the bath tub enclosure was original - clean, but looked dated.  The living/bed area (we were in a studio) had a new flat screen TV, a fireplace with poker but not able to be used and nothing in any literature about it's use; the window treatment was dated and obviously the same from years past (as shown in photos).
+Breakfast was OK....small room, crowded - the old exercise room....the staff was very pleasant.
+Used the laundry area...clean, good equipment....$2.00 for each wash and each dry.
+The price was right for what we got....would we stay here again? Probably...just wish they had got what they updated...This location is the older style Residence Inn (which we prefer) and has recently been going through an upgrade; I think most rooms have been upgraded - but NOT totally upgraded.  The kitchen area has cheap GE stainless steel appliances, granite counters, and tile floor.  What is missing is a full size stove with an OVEN.  There is a two burner electric stove top set into the granite but no oven (which I expected).  The pots, dishes, glassware, etc. are minimal (no large dinner plates)....why even a dishwasher - if you put all on the shelves it would only fill 1/4th of the dishwasher.  Coffee, dishwasher soap never replished;  bathroom soap was replenished once.  The bathroom had new sink, cabinet and granite counter.  The separate tub area had a new tile floor and that was it...the bath tub enclosure was original - clean, but looked dated.  The living/bed area (we were in a studio) had a new flat screen TV, a fireplace with poker but not able to be used and nothing in any literature about it's use; the window treatment was dated and obviously the same from years past (as shown in photos).Breakfast was OK....small room, crowded - the old exercise room....the staff was very pleasant.Used the laundry area...clean, good equipment....$2.00 for each wash and each dry.The price was right for what we got....would we stay here again? Probably...just wish they had got what they updated right!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>This location is the older style Residence Inn (which we prefer) and has recently been going through an upgrade; I think most rooms have been upgraded - but NOT totally upgraded.  
+The kitchen area has cheap GE stainless steel appliances, granite counters, and tile floor.  What is missing is a full size stove with an OVEN.  There is a two burner electric stove top set into the granite but no oven (which I expected).  The pots, dishes, glassware, etc. are minimal (no large dinner plates)....why even a dishwasher - if you put all on the shelves it would only fill 1/4th of the dishwasher.  Coffee, dishwasher soap never replished;  bathroom soap was replenished once.  The bathroom had new sink, cabinet and granite counter.  The separate tub area had a new tile floor and that was it...the bath tub enclosure was original - clean, but looked dated.  The living/bed area (we were in a studio) had a new flat screen TV, a fireplace with poker but not able to be used and nothing in any literature about it's use; the window treatment was dated and obviously the same from years past (as shown in photos).
+Breakfast was OK....small room, crowded - the old exercise room....the staff was very pleasant.
+Used the laundry area...clean, good equipment....$2.00 for each wash and each dry.
+The price was right for what we got....would we stay here again? Probably...just wish they had got what they updated...This location is the older style Residence Inn (which we prefer) and has recently been going through an upgrade; I think most rooms have been upgraded - but NOT totally upgraded.  The kitchen area has cheap GE stainless steel appliances, granite counters, and tile floor.  What is missing is a full size stove with an OVEN.  There is a two burner electric stove top set into the granite but no oven (which I expected).  The pots, dishes, glassware, etc. are minimal (no large dinner plates)....why even a dishwasher - if you put all on the shelves it would only fill 1/4th of the dishwasher.  Coffee, dishwasher soap never replished;  bathroom soap was replenished once.  The bathroom had new sink, cabinet and granite counter.  The separate tub area had a new tile floor and that was it...the bath tub enclosure was original - clean, but looked dated.  The living/bed area (we were in a studio) had a new flat screen TV, a fireplace with poker but not able to be used and nothing in any literature about it's use; the window treatment was dated and obviously the same from years past (as shown in photos).Breakfast was OK....small room, crowded - the old exercise room....the staff was very pleasant.Used the laundry area...clean, good equipment....$2.00 for each wash and each dry.The price was right for what we got....would we stay here again? Probably...just wish they had got what they updated right!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r91911198-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californi.html</t>
+  </si>
+  <si>
+    <t>91911198</t>
+  </si>
+  <si>
+    <t>01/05/2011</t>
+  </si>
+  <si>
+    <t>Good home away from home</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence Inn Fountain Valley for 2 weeks with my kids while traveling on business.  We had a 2 bedroom suite which was roomy enough and we used the kitchen often.  The only issue we had was with the cleaning staff but once we let the front desk know it was quickly remedied.  The pool had a ring if dirt around it also.</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r90831124-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californi.html</t>
+  </si>
+  <si>
+    <t>90831124</t>
+  </si>
+  <si>
+    <t>12/27/2010</t>
+  </si>
+  <si>
+    <t>Great room, great beds</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 2 nights.  We found the room to be tastefully furnished.  The free wi-fi and wired connectivity met our needs.  The breakfast they provided was very good (although due to construction we had to walk to the Courtyard next door for our breakfast).  The beds provided the best sleep we had during our 8 day trip to California.  The staff was friendly and helpful.  We enjoyed our stay and would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r53326420-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californi.html</t>
+  </si>
+  <si>
+    <t>53326420</t>
+  </si>
+  <si>
+    <t>01/12/2010</t>
+  </si>
+  <si>
+    <t>Property dated and needs improvement</t>
+  </si>
+  <si>
+    <t>We stayed in a 2 BR unit.  They layout is 2 BR across each other with living room in the middle.  This property is showing signs of age.  The bathroom, sink, vanity have been caulked and re-caulked over many times.  The kitchen cabinets are old, painted over and some cabinet doors are crooked.  They are not dirty, just old.  One can only go so far in making old furnitures look good.  The pullout sofa cod is so old and barely had any cushion left.  The property is adequate but definite at the low end for Marriott standards. It's ok if you can get a bargain rate; Otherwise, find other Residence Inns if you have to pay regular rate.  Complimentary breakfast is good just like other R.I.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>We stayed in a 2 BR unit.  They layout is 2 BR across each other with living room in the middle.  This property is showing signs of age.  The bathroom, sink, vanity have been caulked and re-caulked over many times.  The kitchen cabinets are old, painted over and some cabinet doors are crooked.  They are not dirty, just old.  One can only go so far in making old furnitures look good.  The pullout sofa cod is so old and barely had any cushion left.  The property is adequate but definite at the low end for Marriott standards. It's ok if you can get a bargain rate; Otherwise, find other Residence Inns if you have to pay regular rate.  Complimentary breakfast is good just like other R.I.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r45590199-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californi.html</t>
+  </si>
+  <si>
+    <t>45590199</t>
+  </si>
+  <si>
+    <t>10/01/2009</t>
+  </si>
+  <si>
+    <t>Very functional if you can get things to work and don't stay next to the freeway.</t>
+  </si>
+  <si>
+    <t>My introduction to this hotel was so bad, I considered asking for a refund and leaving the first night.  Upon check-in at 9pm on a Monday night after a long work day, I was given a room next to the freeway and the walls are so thin you could hear the traffic pass.  I called the front desk and they apologized and offered a room on the other side of the hotel - the hotel was very empty so why give me a crappy room in the first place?  So I lugged my bags and equipment back to my car and went to the new room.  This room smelled terrible, had a bathtub full of water - a leaky tub and the maid left the drain plugged, the remote control did not work nor did the internet.
+I fixed the tub myself - and with the bathroom door shut could not hear the leak.  The front desk sent a new TV remote and connected me with tech support that took 30-45 minutes to get the internet connected.  I requested that I receive a discount on my room for all the problems and time this cost me.  Nothing was offered or done. 
+On the positive side, I had a great work space once everything got running.  There was a kitchen which was very convenient, a nice workout facility and a great breakfast.  This hotel is convenient if you don't have the...My introduction to this hotel was so bad, I considered asking for a refund and leaving the first night.  Upon check-in at 9pm on a Monday night after a long work day, I was given a room next to the freeway and the walls are so thin you could hear the traffic pass.  I called the front desk and they apologized and offered a room on the other side of the hotel - the hotel was very empty so why give me a crappy room in the first place?  So I lugged my bags and equipment back to my car and went to the new room.  This room smelled terrible, had a bathtub full of water - a leaky tub and the maid left the drain plugged, the remote control did not work nor did the internet.I fixed the tub myself - and with the bathroom door shut could not hear the leak.  The front desk sent a new TV remote and connected me with tech support that took 30-45 minutes to get the internet connected.  I requested that I receive a discount on my room for all the problems and time this cost me.  Nothing was offered or done. On the positive side, I had a great work space once everything got running.  There was a kitchen which was very convenient, a nice workout facility and a great breakfast.  This hotel is convenient if you don't have the problems I had, but for $150/night with a discount,  I don't know that I would stay at this hotel again or recommend it - perhaps it's more economical for families since the room was so large.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>My introduction to this hotel was so bad, I considered asking for a refund and leaving the first night.  Upon check-in at 9pm on a Monday night after a long work day, I was given a room next to the freeway and the walls are so thin you could hear the traffic pass.  I called the front desk and they apologized and offered a room on the other side of the hotel - the hotel was very empty so why give me a crappy room in the first place?  So I lugged my bags and equipment back to my car and went to the new room.  This room smelled terrible, had a bathtub full of water - a leaky tub and the maid left the drain plugged, the remote control did not work nor did the internet.
+I fixed the tub myself - and with the bathroom door shut could not hear the leak.  The front desk sent a new TV remote and connected me with tech support that took 30-45 minutes to get the internet connected.  I requested that I receive a discount on my room for all the problems and time this cost me.  Nothing was offered or done. 
+On the positive side, I had a great work space once everything got running.  There was a kitchen which was very convenient, a nice workout facility and a great breakfast.  This hotel is convenient if you don't have the...My introduction to this hotel was so bad, I considered asking for a refund and leaving the first night.  Upon check-in at 9pm on a Monday night after a long work day, I was given a room next to the freeway and the walls are so thin you could hear the traffic pass.  I called the front desk and they apologized and offered a room on the other side of the hotel - the hotel was very empty so why give me a crappy room in the first place?  So I lugged my bags and equipment back to my car and went to the new room.  This room smelled terrible, had a bathtub full of water - a leaky tub and the maid left the drain plugged, the remote control did not work nor did the internet.I fixed the tub myself - and with the bathroom door shut could not hear the leak.  The front desk sent a new TV remote and connected me with tech support that took 30-45 minutes to get the internet connected.  I requested that I receive a discount on my room for all the problems and time this cost me.  Nothing was offered or done. On the positive side, I had a great work space once everything got running.  There was a kitchen which was very convenient, a nice workout facility and a great breakfast.  This hotel is convenient if you don't have the problems I had, but for $150/night with a discount,  I don't know that I would stay at this hotel again or recommend it - perhaps it's more economical for families since the room was so large.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r37436860-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californi.html</t>
+  </si>
+  <si>
+    <t>37436860</t>
+  </si>
+  <si>
+    <t>08/11/2009</t>
+  </si>
+  <si>
+    <t>old and dirty</t>
+  </si>
+  <si>
+    <t>As previously said from a reviewer, the 2-bedroom unit we had was old and dirty. This place was conveniently located but that was all.In addition to the old furniture, no plasma TV screens as advertized on their website, the curtains were stained, the doorhandle from one bedroom was loose, nobody fixed it during the 4 nights we stayed, obviously it was repaired several times with sillicone. The last day, the doorhandle from the bathroom was also loose. The pool was rather small and not enough towels. For 199$+tax, this was bad value for money. They plan to remodel in September. Won't return or recommend until done.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r15207835-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californi.html</t>
+  </si>
+  <si>
+    <t>15207835</t>
+  </si>
+  <si>
+    <t>04/21/2008</t>
+  </si>
+  <si>
+    <t>Perfect, inexpensive Disneyland Option</t>
+  </si>
+  <si>
+    <t>We stopped in Southern California on our way home from Acapulco. We wanted a trip to Disneyland, but a hotel away from all the hubbub (since it was just us adults). This hotel was a perfect choice, the old, apartment style Residence Inn (as opposed to the newer highrise format), asbolutely PERFECT service. Every request we had was honored, with a smile. Case-in-point: We needed quarters to do a week's worth of laundry we had brought back from Mexico ... they didn't have enough at the front desk, so they clerk walked to the Courtyard next door, and brought them back to us - and didn't even act put out. What's more, they give your free soap and dryer sheets (most hotels charge a buck or more for a tiny box of Tide)The studio was a bit small, will probably request a one-bedroom next time ... but that was our doing, not theirs. The hotel is accessible to the freeway, close to shopping (Costco, supermarkets, sports stores), and restaurants (Olive Garden, Boston Market, Souplantation - just about anything else you could think of. Only about 15 minutes from the Disney parks. Will definitely return.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>We stopped in Southern California on our way home from Acapulco. We wanted a trip to Disneyland, but a hotel away from all the hubbub (since it was just us adults). This hotel was a perfect choice, the old, apartment style Residence Inn (as opposed to the newer highrise format), asbolutely PERFECT service. Every request we had was honored, with a smile. Case-in-point: We needed quarters to do a week's worth of laundry we had brought back from Mexico ... they didn't have enough at the front desk, so they clerk walked to the Courtyard next door, and brought them back to us - and didn't even act put out. What's more, they give your free soap and dryer sheets (most hotels charge a buck or more for a tiny box of Tide)The studio was a bit small, will probably request a one-bedroom next time ... but that was our doing, not theirs. The hotel is accessible to the freeway, close to shopping (Costco, supermarkets, sports stores), and restaurants (Olive Garden, Boston Market, Souplantation - just about anything else you could think of. Only about 15 minutes from the Disney parks. Will definitely return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r14324022-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californi.html</t>
+  </si>
+  <si>
+    <t>14324022</t>
+  </si>
+  <si>
+    <t>03/16/2008</t>
+  </si>
+  <si>
+    <t>More than adequate for one night</t>
+  </si>
+  <si>
+    <t>Four of us decided to stay at this property after a day trip to Disneyland, instead of driving home late that night.  The location is in a very quiet area off the 405, and it's about a 15 minute drive to Disney parks.  The hotel is older, and it hasn't been renovated to the degree of the Courtyard next door, but it is still a fine hotel.  We stayed in a king suite with a fold out sofa bed without any problems.   There was a full kitchen, including a dishwasher, refrigerator, and sink. The staff was incredibly friendly and helpful from everything; towels to finding a place to deliver dinner after 11pm.  We used the hot tub, and it was very relaxing.  They offer complimentary breakfast, though we didn't partake.  The Courtyard next door charges $10pp for the same thing.  Overall, I'd probably stay here again with a group, if not just for the excellent service we received.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>Four of us decided to stay at this property after a day trip to Disneyland, instead of driving home late that night.  The location is in a very quiet area off the 405, and it's about a 15 minute drive to Disney parks.  The hotel is older, and it hasn't been renovated to the degree of the Courtyard next door, but it is still a fine hotel.  We stayed in a king suite with a fold out sofa bed without any problems.   There was a full kitchen, including a dishwasher, refrigerator, and sink. The staff was incredibly friendly and helpful from everything; towels to finding a place to deliver dinner after 11pm.  We used the hot tub, and it was very relaxing.  They offer complimentary breakfast, though we didn't partake.  The Courtyard next door charges $10pp for the same thing.  Overall, I'd probably stay here again with a group, if not just for the excellent service we received.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r13359588-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californi.html</t>
+  </si>
+  <si>
+    <t>13359588</t>
+  </si>
+  <si>
+    <t>02/07/2008</t>
+  </si>
+  <si>
+    <t>Best hotel for long stays</t>
+  </si>
+  <si>
+    <t>I had to travel for business for 2 weeks and was delighted to stay at this hotel. The staff was extremely nice and the breakfast and social hour through the week was EXCELLENT. Definitely a good value for the money. I even got to bring my dog! The bed was super comfortable too. I would definitely recommend this hotel to anyone... especially for people who need somewhere to stay long term.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r7438098-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>7438098</t>
+  </si>
+  <si>
+    <t>04/25/2007</t>
+  </si>
+  <si>
+    <t>Getting Better, but doesn't meet my Marriott expectations</t>
+  </si>
+  <si>
+    <t>Stayed here back in January 2007 for 2 nights, didn't get house keeping and when we checked out early (all came down with the flu) they didn't check us out!  Two days later we called the hotel after we got home with a question, and even though we called the office and checked out over the phone before we left, they never checked us out!  This time, arrived at hotel at 2:00pm, told us no rooms ready yet, come back in an hour.  We went back at 4:00pm, two hours later and room still not ready, come back in an hour.  (Check in is at 4:00pm)  Talked with Manager, she apologized, I explained I was told to come back in an hour and gave them two hours, still no room.  We left, called Marriott Rewards Reservations for help, they called hotel and within 20 minnutes, our room was ready.  Manager apologized again, ordered Pizza and had it delivered to the room later that evening.  Kids, needless to say, were estatic. Aside from that, stay was pleasant.  Breakfast Buffet always  had plenty of food.  Only one day could not get a table and took the food back to the room.  Hotel is a great location right off Interstate.  Close to Huntington Beach Pier.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2007</t>
+  </si>
+  <si>
+    <t>Stayed here back in January 2007 for 2 nights, didn't get house keeping and when we checked out early (all came down with the flu) they didn't check us out!  Two days later we called the hotel after we got home with a question, and even though we called the office and checked out over the phone before we left, they never checked us out!  This time, arrived at hotel at 2:00pm, told us no rooms ready yet, come back in an hour.  We went back at 4:00pm, two hours later and room still not ready, come back in an hour.  (Check in is at 4:00pm)  Talked with Manager, she apologized, I explained I was told to come back in an hour and gave them two hours, still no room.  We left, called Marriott Rewards Reservations for help, they called hotel and within 20 minnutes, our room was ready.  Manager apologized again, ordered Pizza and had it delivered to the room later that evening.  Kids, needless to say, were estatic. Aside from that, stay was pleasant.  Breakfast Buffet always  had plenty of food.  Only one day could not get a table and took the food back to the room.  Hotel is a great location right off Interstate.  Close to Huntington Beach Pier.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r5482385-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>5482385</t>
+  </si>
+  <si>
+    <t>07/17/2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loved It </t>
+  </si>
+  <si>
+    <t>Stayed in this for 1 night it, i loved it the staff was soo nice. The rooms were big and really nice to stay in. I will be coming back to stay there for business.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r3544941-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
+  </si>
+  <si>
+    <t>3544941</t>
+  </si>
+  <si>
+    <t>06/11/2005</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We stayed here while having our house exterminated.  We live only 2 blocks away.  The staff was wonderful and very helpful.   They let us check in early acknowledging our situation; we had items that needed to be put in the freezer and some that needed immediate refrigeration.  Only problem was they have no elevator but did offered to help us carry up our things.  The room smelled refreshing upon entry and was sparkling clean.  Wonderful kitchen with perfect utensils.  Breakfast was better than continental, homemade waffles and delicious oatmeal.  Too our surprise, they also have a "light dinner" in the summer months Monday thru Thursday with a BBQ every Wednesday.  A call to housekeeping for extra pillows was quickly answered.  Every staff member greeted us and they were all "hands on staff", always cleaning and picking up.  Felt like home and sad to leave.  Everyone wished us "goodbye"MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here while having our house exterminated.  We live only 2 blocks away.  The staff was wonderful and very helpful.   They let us check in early acknowledging our situation; we had items that needed to be put in the freezer and some that needed immediate refrigeration.  Only problem was they have no elevator but did offered to help us carry up our things.  The room smelled refreshing upon entry and was sparkling clean.  Wonderful kitchen with perfect utensils.  Breakfast was better than continental, homemade waffles and delicious oatmeal.  Too our surprise, they also have a "light dinner" in the summer months Monday thru Thursday with a BBQ every Wednesday.  A call to housekeeping for extra pillows was quickly answered.  Every staff member greeted us and they were all "hands on staff", always cleaning and picking up.  Felt like home and sad to leave.  Everyone wished us "goodbye"More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2978,6511 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>123</v>
+      </c>
+      <c r="X11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>157</v>
+      </c>
+      <c r="X15" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>165</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>166</v>
+      </c>
+      <c r="X16" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>175</v>
+      </c>
+      <c r="X17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>174</v>
+      </c>
+      <c r="O18" t="s">
+        <v>183</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>184</v>
+      </c>
+      <c r="X18" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s">
+        <v>190</v>
+      </c>
+      <c r="L19" t="s">
+        <v>191</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>192</v>
+      </c>
+      <c r="X19" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>200</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>201</v>
+      </c>
+      <c r="X20" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" t="s">
+        <v>206</v>
+      </c>
+      <c r="K21" t="s">
+        <v>207</v>
+      </c>
+      <c r="L21" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>209</v>
+      </c>
+      <c r="O21" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>210</v>
+      </c>
+      <c r="X21" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" t="s">
+        <v>206</v>
+      </c>
+      <c r="K22" t="s">
+        <v>215</v>
+      </c>
+      <c r="L22" t="s">
+        <v>216</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>217</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>220</v>
+      </c>
+      <c r="J23" t="s">
+        <v>221</v>
+      </c>
+      <c r="K23" t="s">
+        <v>222</v>
+      </c>
+      <c r="L23" t="s">
+        <v>223</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>217</v>
+      </c>
+      <c r="O23" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>224</v>
+      </c>
+      <c r="X23" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>228</v>
+      </c>
+      <c r="J24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s">
+        <v>231</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>232</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>233</v>
+      </c>
+      <c r="X24" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J25" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" t="s">
+        <v>239</v>
+      </c>
+      <c r="L25" t="s">
+        <v>240</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>241</v>
+      </c>
+      <c r="O25" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>243</v>
+      </c>
+      <c r="J26" t="s">
+        <v>244</v>
+      </c>
+      <c r="K26" t="s">
+        <v>245</v>
+      </c>
+      <c r="L26" t="s">
+        <v>246</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>247</v>
+      </c>
+      <c r="O26" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>248</v>
+      </c>
+      <c r="X26" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>251</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>252</v>
+      </c>
+      <c r="J27" t="s">
+        <v>253</v>
+      </c>
+      <c r="K27" t="s">
+        <v>254</v>
+      </c>
+      <c r="L27" t="s">
+        <v>255</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>256</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>259</v>
+      </c>
+      <c r="J28" t="s">
+        <v>260</v>
+      </c>
+      <c r="K28" t="s">
+        <v>261</v>
+      </c>
+      <c r="L28" t="s">
+        <v>262</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>263</v>
+      </c>
+      <c r="O28" t="s">
+        <v>75</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>264</v>
+      </c>
+      <c r="X28" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>268</v>
+      </c>
+      <c r="J29" t="s">
+        <v>269</v>
+      </c>
+      <c r="K29" t="s">
+        <v>270</v>
+      </c>
+      <c r="L29" t="s">
+        <v>271</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>272</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>273</v>
+      </c>
+      <c r="X29" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>276</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>277</v>
+      </c>
+      <c r="J30" t="s">
+        <v>278</v>
+      </c>
+      <c r="K30" t="s">
+        <v>279</v>
+      </c>
+      <c r="L30" t="s">
+        <v>280</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>281</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>282</v>
+      </c>
+      <c r="X30" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>285</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>286</v>
+      </c>
+      <c r="J31" t="s">
+        <v>287</v>
+      </c>
+      <c r="K31" t="s">
+        <v>288</v>
+      </c>
+      <c r="L31" t="s">
+        <v>289</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>281</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>290</v>
+      </c>
+      <c r="X31" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>293</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>294</v>
+      </c>
+      <c r="J32" t="s">
+        <v>295</v>
+      </c>
+      <c r="K32" t="s">
+        <v>296</v>
+      </c>
+      <c r="L32" t="s">
+        <v>297</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>272</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>298</v>
+      </c>
+      <c r="X32" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>301</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>302</v>
+      </c>
+      <c r="J33" t="s">
+        <v>303</v>
+      </c>
+      <c r="K33" t="s">
+        <v>304</v>
+      </c>
+      <c r="L33" t="s">
+        <v>305</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>298</v>
+      </c>
+      <c r="X33" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>307</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>308</v>
+      </c>
+      <c r="J34" t="s">
+        <v>309</v>
+      </c>
+      <c r="K34" t="s">
+        <v>310</v>
+      </c>
+      <c r="L34" t="s">
+        <v>311</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>298</v>
+      </c>
+      <c r="X34" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>313</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>314</v>
+      </c>
+      <c r="J35" t="s">
+        <v>315</v>
+      </c>
+      <c r="K35" t="s">
+        <v>316</v>
+      </c>
+      <c r="L35" t="s">
+        <v>317</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>318</v>
+      </c>
+      <c r="O35" t="s">
+        <v>75</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>319</v>
+      </c>
+      <c r="X35" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>322</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>323</v>
+      </c>
+      <c r="J36" t="s">
+        <v>324</v>
+      </c>
+      <c r="K36" t="s">
+        <v>325</v>
+      </c>
+      <c r="L36" t="s">
+        <v>326</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>318</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>327</v>
+      </c>
+      <c r="X36" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>330</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>331</v>
+      </c>
+      <c r="J37" t="s">
+        <v>332</v>
+      </c>
+      <c r="K37" t="s">
+        <v>333</v>
+      </c>
+      <c r="L37" t="s">
+        <v>334</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>335</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>327</v>
+      </c>
+      <c r="X37" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>337</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>338</v>
+      </c>
+      <c r="J38" t="s">
+        <v>339</v>
+      </c>
+      <c r="K38" t="s">
+        <v>340</v>
+      </c>
+      <c r="L38" t="s">
+        <v>341</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>342</v>
+      </c>
+      <c r="X38" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>345</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>346</v>
+      </c>
+      <c r="J39" t="s">
+        <v>347</v>
+      </c>
+      <c r="K39" t="s">
+        <v>348</v>
+      </c>
+      <c r="L39" t="s">
+        <v>349</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>241</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>350</v>
+      </c>
+      <c r="X39" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>353</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>354</v>
+      </c>
+      <c r="J40" t="s">
+        <v>355</v>
+      </c>
+      <c r="K40" t="s">
+        <v>356</v>
+      </c>
+      <c r="L40" t="s">
+        <v>357</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>358</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>359</v>
+      </c>
+      <c r="X40" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>362</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>363</v>
+      </c>
+      <c r="J41" t="s">
+        <v>364</v>
+      </c>
+      <c r="K41" t="s">
+        <v>365</v>
+      </c>
+      <c r="L41" t="s">
+        <v>366</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>367</v>
+      </c>
+      <c r="O41" t="s">
+        <v>75</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>368</v>
+      </c>
+      <c r="X41" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>371</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>372</v>
+      </c>
+      <c r="J42" t="s">
+        <v>373</v>
+      </c>
+      <c r="K42" t="s">
+        <v>374</v>
+      </c>
+      <c r="L42" t="s">
+        <v>375</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>376</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>377</v>
+      </c>
+      <c r="X42" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>380</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>381</v>
+      </c>
+      <c r="J43" t="s">
+        <v>382</v>
+      </c>
+      <c r="K43" t="s">
+        <v>383</v>
+      </c>
+      <c r="L43" t="s">
+        <v>384</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>385</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>386</v>
+      </c>
+      <c r="X43" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>389</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>390</v>
+      </c>
+      <c r="J44" t="s">
+        <v>391</v>
+      </c>
+      <c r="K44" t="s">
+        <v>392</v>
+      </c>
+      <c r="L44" t="s">
+        <v>393</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>385</v>
+      </c>
+      <c r="O44" t="s">
+        <v>183</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>394</v>
+      </c>
+      <c r="X44" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>397</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>398</v>
+      </c>
+      <c r="J45" t="s">
+        <v>399</v>
+      </c>
+      <c r="K45" t="s">
+        <v>400</v>
+      </c>
+      <c r="L45" t="s">
+        <v>401</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>385</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>402</v>
+      </c>
+      <c r="X45" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>405</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>406</v>
+      </c>
+      <c r="J46" t="s">
+        <v>407</v>
+      </c>
+      <c r="K46" t="s">
+        <v>408</v>
+      </c>
+      <c r="L46" t="s">
+        <v>409</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>410</v>
+      </c>
+      <c r="O46" t="s">
+        <v>183</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>411</v>
+      </c>
+      <c r="X46" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>414</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>415</v>
+      </c>
+      <c r="J47" t="s">
+        <v>416</v>
+      </c>
+      <c r="K47" t="s">
+        <v>417</v>
+      </c>
+      <c r="L47" t="s">
+        <v>418</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>419</v>
+      </c>
+      <c r="X47" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>422</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>423</v>
+      </c>
+      <c r="J48" t="s">
+        <v>424</v>
+      </c>
+      <c r="K48" t="s">
+        <v>425</v>
+      </c>
+      <c r="L48" t="s">
+        <v>426</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>427</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>428</v>
+      </c>
+      <c r="X48" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>431</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>432</v>
+      </c>
+      <c r="J49" t="s">
+        <v>433</v>
+      </c>
+      <c r="K49" t="s">
+        <v>434</v>
+      </c>
+      <c r="L49" t="s">
+        <v>435</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>436</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>438</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>439</v>
+      </c>
+      <c r="J50" t="s">
+        <v>440</v>
+      </c>
+      <c r="K50" t="s">
+        <v>441</v>
+      </c>
+      <c r="L50" t="s">
+        <v>442</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>443</v>
+      </c>
+      <c r="O50" t="s">
+        <v>183</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>444</v>
+      </c>
+      <c r="X50" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>447</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>448</v>
+      </c>
+      <c r="J51" t="s">
+        <v>449</v>
+      </c>
+      <c r="K51" t="s">
+        <v>450</v>
+      </c>
+      <c r="L51" t="s">
+        <v>451</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>452</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>453</v>
+      </c>
+      <c r="X51" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>456</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>457</v>
+      </c>
+      <c r="J52" t="s">
+        <v>458</v>
+      </c>
+      <c r="K52" t="s">
+        <v>459</v>
+      </c>
+      <c r="L52" t="s">
+        <v>460</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>461</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>462</v>
+      </c>
+      <c r="X52" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>465</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>466</v>
+      </c>
+      <c r="J53" t="s">
+        <v>467</v>
+      </c>
+      <c r="K53" t="s">
+        <v>468</v>
+      </c>
+      <c r="L53" t="s">
+        <v>469</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>470</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>471</v>
+      </c>
+      <c r="X53" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>474</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>475</v>
+      </c>
+      <c r="J54" t="s">
+        <v>476</v>
+      </c>
+      <c r="K54" t="s">
+        <v>477</v>
+      </c>
+      <c r="L54" t="s">
+        <v>478</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>479</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>480</v>
+      </c>
+      <c r="X54" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>483</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>484</v>
+      </c>
+      <c r="J55" t="s">
+        <v>485</v>
+      </c>
+      <c r="K55" t="s">
+        <v>486</v>
+      </c>
+      <c r="L55" t="s">
+        <v>487</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>488</v>
+      </c>
+      <c r="O55" t="s">
+        <v>75</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>489</v>
+      </c>
+      <c r="X55" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>492</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>493</v>
+      </c>
+      <c r="J56" t="s">
+        <v>494</v>
+      </c>
+      <c r="K56" t="s">
+        <v>495</v>
+      </c>
+      <c r="L56" t="s">
+        <v>496</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>497</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>498</v>
+      </c>
+      <c r="X56" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>501</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>502</v>
+      </c>
+      <c r="J57" t="s">
+        <v>503</v>
+      </c>
+      <c r="K57" t="s">
+        <v>504</v>
+      </c>
+      <c r="L57" t="s">
+        <v>505</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>506</v>
+      </c>
+      <c r="O57" t="s">
+        <v>183</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>507</v>
+      </c>
+      <c r="X57" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>510</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>511</v>
+      </c>
+      <c r="J58" t="s">
+        <v>512</v>
+      </c>
+      <c r="K58" t="s">
+        <v>513</v>
+      </c>
+      <c r="L58" t="s">
+        <v>514</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>515</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>517</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>518</v>
+      </c>
+      <c r="J59" t="s">
+        <v>519</v>
+      </c>
+      <c r="K59" t="s">
+        <v>520</v>
+      </c>
+      <c r="L59" t="s">
+        <v>521</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>488</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>522</v>
+      </c>
+      <c r="X59" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>525</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>526</v>
+      </c>
+      <c r="J60" t="s">
+        <v>527</v>
+      </c>
+      <c r="K60" t="s">
+        <v>528</v>
+      </c>
+      <c r="L60" t="s">
+        <v>529</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>488</v>
+      </c>
+      <c r="O60" t="s">
+        <v>59</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>522</v>
+      </c>
+      <c r="X60" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>531</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>532</v>
+      </c>
+      <c r="J61" t="s">
+        <v>533</v>
+      </c>
+      <c r="K61" t="s">
+        <v>534</v>
+      </c>
+      <c r="L61" t="s">
+        <v>535</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>488</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>536</v>
+      </c>
+      <c r="X61" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>539</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>540</v>
+      </c>
+      <c r="J62" t="s">
+        <v>541</v>
+      </c>
+      <c r="K62" t="s">
+        <v>542</v>
+      </c>
+      <c r="L62" t="s">
+        <v>543</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>488</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>544</v>
+      </c>
+      <c r="X62" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>547</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>548</v>
+      </c>
+      <c r="J63" t="s">
+        <v>549</v>
+      </c>
+      <c r="K63" t="s">
+        <v>550</v>
+      </c>
+      <c r="L63" t="s">
+        <v>551</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>552</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>553</v>
+      </c>
+      <c r="X63" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>556</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>557</v>
+      </c>
+      <c r="J64" t="s">
+        <v>558</v>
+      </c>
+      <c r="K64" t="s">
+        <v>559</v>
+      </c>
+      <c r="L64" t="s">
+        <v>560</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>561</v>
+      </c>
+      <c r="X64" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>564</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>565</v>
+      </c>
+      <c r="J65" t="s">
+        <v>566</v>
+      </c>
+      <c r="K65" t="s">
+        <v>567</v>
+      </c>
+      <c r="L65" t="s">
+        <v>568</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>569</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>570</v>
+      </c>
+      <c r="X65" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>573</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>574</v>
+      </c>
+      <c r="J66" t="s">
+        <v>575</v>
+      </c>
+      <c r="K66" t="s">
+        <v>576</v>
+      </c>
+      <c r="L66" t="s">
+        <v>577</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>578</v>
+      </c>
+      <c r="O66" t="s">
+        <v>75</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>579</v>
+      </c>
+      <c r="X66" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>582</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>583</v>
+      </c>
+      <c r="J67" t="s">
+        <v>584</v>
+      </c>
+      <c r="K67" t="s">
+        <v>585</v>
+      </c>
+      <c r="L67" t="s">
+        <v>586</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>587</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>579</v>
+      </c>
+      <c r="X67" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>589</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>590</v>
+      </c>
+      <c r="J68" t="s">
+        <v>591</v>
+      </c>
+      <c r="K68" t="s">
+        <v>592</v>
+      </c>
+      <c r="L68" t="s">
+        <v>593</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>587</v>
+      </c>
+      <c r="O68" t="s">
+        <v>183</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>594</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>595</v>
+      </c>
+      <c r="J69" t="s">
+        <v>596</v>
+      </c>
+      <c r="K69" t="s">
+        <v>597</v>
+      </c>
+      <c r="L69" t="s">
+        <v>598</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>599</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>600</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>601</v>
+      </c>
+      <c r="J70" t="s">
+        <v>602</v>
+      </c>
+      <c r="K70" t="s">
+        <v>603</v>
+      </c>
+      <c r="L70" t="s">
+        <v>604</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>605</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>606</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>607</v>
+      </c>
+      <c r="J71" t="s">
+        <v>608</v>
+      </c>
+      <c r="K71" t="s">
+        <v>609</v>
+      </c>
+      <c r="L71" t="s">
+        <v>610</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>611</v>
+      </c>
+      <c r="O71" t="s">
+        <v>75</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>612</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>613</v>
+      </c>
+      <c r="J72" t="s">
+        <v>614</v>
+      </c>
+      <c r="K72" t="s">
+        <v>615</v>
+      </c>
+      <c r="L72" t="s">
+        <v>616</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>611</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>617</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>618</v>
+      </c>
+      <c r="J73" t="s">
+        <v>619</v>
+      </c>
+      <c r="K73" t="s">
+        <v>620</v>
+      </c>
+      <c r="L73" t="s">
+        <v>621</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>622</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>624</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>625</v>
+      </c>
+      <c r="J74" t="s">
+        <v>626</v>
+      </c>
+      <c r="K74" t="s">
+        <v>627</v>
+      </c>
+      <c r="L74" t="s">
+        <v>628</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>629</v>
+      </c>
+      <c r="O74" t="s">
+        <v>75</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>631</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>632</v>
+      </c>
+      <c r="J75" t="s">
+        <v>633</v>
+      </c>
+      <c r="K75" t="s">
+        <v>634</v>
+      </c>
+      <c r="L75" t="s">
+        <v>635</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>629</v>
+      </c>
+      <c r="O75" t="s">
+        <v>59</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>637</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>638</v>
+      </c>
+      <c r="J76" t="s">
+        <v>639</v>
+      </c>
+      <c r="K76" t="s">
+        <v>640</v>
+      </c>
+      <c r="L76" t="s">
+        <v>641</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>629</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>642</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>643</v>
+      </c>
+      <c r="J77" t="s">
+        <v>644</v>
+      </c>
+      <c r="K77" t="s">
+        <v>645</v>
+      </c>
+      <c r="L77" t="s">
+        <v>646</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>647</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>649</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>650</v>
+      </c>
+      <c r="J78" t="s">
+        <v>651</v>
+      </c>
+      <c r="K78" t="s">
+        <v>652</v>
+      </c>
+      <c r="L78" t="s">
+        <v>653</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>654</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>656</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>657</v>
+      </c>
+      <c r="J79" t="s">
+        <v>658</v>
+      </c>
+      <c r="K79" t="s">
+        <v>659</v>
+      </c>
+      <c r="L79" t="s">
+        <v>660</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>661</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>663</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>664</v>
+      </c>
+      <c r="J80" t="s">
+        <v>665</v>
+      </c>
+      <c r="K80" t="s">
+        <v>666</v>
+      </c>
+      <c r="L80" t="s">
+        <v>667</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>668</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>670</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>671</v>
+      </c>
+      <c r="J81" t="s">
+        <v>672</v>
+      </c>
+      <c r="K81" t="s">
+        <v>673</v>
+      </c>
+      <c r="L81" t="s">
+        <v>674</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>668</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>676</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>677</v>
+      </c>
+      <c r="J82" t="s">
+        <v>678</v>
+      </c>
+      <c r="K82" t="s">
+        <v>679</v>
+      </c>
+      <c r="L82" t="s">
+        <v>680</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>681</v>
+      </c>
+      <c r="O82" t="s">
+        <v>183</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>683</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>684</v>
+      </c>
+      <c r="J83" t="s">
+        <v>685</v>
+      </c>
+      <c r="K83" t="s">
+        <v>686</v>
+      </c>
+      <c r="L83" t="s">
+        <v>687</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>688</v>
+      </c>
+      <c r="O83" t="s">
+        <v>75</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>689</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>690</v>
+      </c>
+      <c r="J84" t="s">
+        <v>691</v>
+      </c>
+      <c r="K84" t="s">
+        <v>692</v>
+      </c>
+      <c r="L84" t="s">
+        <v>693</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>688</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>695</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>696</v>
+      </c>
+      <c r="J85" t="s">
+        <v>697</v>
+      </c>
+      <c r="K85" t="s">
+        <v>698</v>
+      </c>
+      <c r="L85" t="s">
+        <v>699</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>700</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>702</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>703</v>
+      </c>
+      <c r="J86" t="s">
+        <v>704</v>
+      </c>
+      <c r="K86" t="s">
+        <v>705</v>
+      </c>
+      <c r="L86" t="s">
+        <v>706</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>700</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>708</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>709</v>
+      </c>
+      <c r="J87" t="s">
+        <v>710</v>
+      </c>
+      <c r="K87" t="s">
+        <v>711</v>
+      </c>
+      <c r="L87" t="s">
+        <v>712</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>713</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>714</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>715</v>
+      </c>
+      <c r="J88" t="s">
+        <v>716</v>
+      </c>
+      <c r="K88" t="s">
+        <v>717</v>
+      </c>
+      <c r="L88" t="s">
+        <v>718</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>719</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>721</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>722</v>
+      </c>
+      <c r="J89" t="s">
+        <v>723</v>
+      </c>
+      <c r="K89" t="s">
+        <v>724</v>
+      </c>
+      <c r="L89" t="s">
+        <v>725</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>726</v>
+      </c>
+      <c r="O89" t="s">
+        <v>183</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>728</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>729</v>
+      </c>
+      <c r="J90" t="s">
+        <v>730</v>
+      </c>
+      <c r="K90" t="s">
+        <v>731</v>
+      </c>
+      <c r="L90" t="s">
+        <v>732</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>733</v>
+      </c>
+      <c r="O90" t="s">
+        <v>75</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>2</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>734</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>735</v>
+      </c>
+      <c r="J91" t="s">
+        <v>736</v>
+      </c>
+      <c r="K91" t="s">
+        <v>737</v>
+      </c>
+      <c r="L91" t="s">
+        <v>738</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>739</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>740</v>
+      </c>
+      <c r="J92" t="s">
+        <v>741</v>
+      </c>
+      <c r="K92" t="s">
+        <v>742</v>
+      </c>
+      <c r="L92" t="s">
+        <v>743</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>744</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>746</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>747</v>
+      </c>
+      <c r="J93" t="s">
+        <v>748</v>
+      </c>
+      <c r="K93" t="s">
+        <v>749</v>
+      </c>
+      <c r="L93" t="s">
+        <v>750</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>751</v>
+      </c>
+      <c r="O93" t="s">
+        <v>75</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>753</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>754</v>
+      </c>
+      <c r="J94" t="s">
+        <v>755</v>
+      </c>
+      <c r="K94" t="s">
+        <v>756</v>
+      </c>
+      <c r="L94" t="s">
+        <v>757</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>758</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>2</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>759</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>760</v>
+      </c>
+      <c r="J95" t="s">
+        <v>761</v>
+      </c>
+      <c r="K95" t="s">
+        <v>762</v>
+      </c>
+      <c r="L95" t="s">
+        <v>763</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>764</v>
+      </c>
+      <c r="O95" t="s">
+        <v>183</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>766</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>767</v>
+      </c>
+      <c r="J96" t="s">
+        <v>768</v>
+      </c>
+      <c r="K96" t="s">
+        <v>769</v>
+      </c>
+      <c r="L96" t="s">
+        <v>770</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>771</v>
+      </c>
+      <c r="O96" t="s">
+        <v>59</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>773</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>774</v>
+      </c>
+      <c r="J97" t="s">
+        <v>775</v>
+      </c>
+      <c r="K97" t="s">
+        <v>776</v>
+      </c>
+      <c r="L97" t="s">
+        <v>777</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="s"/>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>778</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>779</v>
+      </c>
+      <c r="J98" t="s">
+        <v>780</v>
+      </c>
+      <c r="K98" t="s">
+        <v>781</v>
+      </c>
+      <c r="L98" t="s">
+        <v>782</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="s">
+        <v>783</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>785</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>786</v>
+      </c>
+      <c r="J99" t="s">
+        <v>787</v>
+      </c>
+      <c r="K99" t="s">
+        <v>788</v>
+      </c>
+      <c r="L99" t="s">
+        <v>789</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>28491</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>790</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>791</v>
+      </c>
+      <c r="J100" t="s">
+        <v>792</v>
+      </c>
+      <c r="K100" t="s">
+        <v>793</v>
+      </c>
+      <c r="L100" t="s">
+        <v>794</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="s"/>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>795</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_643.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_643.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="894">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Bridget C</t>
+  </si>
+  <si>
     <t>07/08/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Eduardo  C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r569488599-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>evans186</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r555296019-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -223,6 +232,9 @@
   </si>
   <si>
     <t>We were placed here for 5 nights because of a flood in our house. It seems like a place for similarly displaced people.  Room was reasonably clean and the free breakfast worked out.  Good location and nice front desk but nothing fancy.More</t>
+  </si>
+  <si>
+    <t>1Aislinn</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r532882798-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
@@ -273,6 +285,9 @@
 - The biggest area of opportunity is the room needs some major updates: The furniture is worn and has frayed corners; the desk chair was not comfortable to sit in for longer than 5 minutes; the walls and ceilings need fresh coats of paint; the carpet was worn, needed replacing and felt very icky - normally I am okay with wearing thick socks or shoes inside hotel rooms (never barefoot), but there I would only wear shoes after I felt the ickiness. You can see where there have been some updates (the tiling in the shower, the vanity in the bathroom, etc.), but...I was in town for a 6 nights for business and brought my family (husband, mother and aunt along). The four of us shared a two-bedroom/two-bathroom suite on the bottom floor.Pros:- The location is good; not only was it close to the office I was working in, it's close to the airport, has easy access to the freeway and is close to lots of food options and gas stations and not too far from beaches.- The suite has a full kitchen.- The front desk check-in process was easy.- Any staff we encountered were friendly.Areas of Opportunity:- The breakfast was okay - standard hotel breakfast fare (waffles, boiled eggs, etc.), but there was no bacon and no potatoes.- Parking costs $7/day, but that seems to be average for that area.- The biggest area of opportunity is the room needs some major updates: The furniture is worn and has frayed corners; the desk chair was not comfortable to sit in for longer than 5 minutes; the walls and ceilings need fresh coats of paint; the carpet was worn, needed replacing and felt very icky - normally I am okay with wearing thick socks or shoes inside hotel rooms (never barefoot), but there I would only wear shoes after I felt the ickiness. You can see where there have been some updates (the tiling in the shower, the vanity in the bathroom, etc.), but it looks like they started and didn't continue. Also, we were close to the basketball court, which was right by our bedroom window; so, people playing basketball at 7am woke us up on the Saturday morning.- The pillows were not that comfortable.- The rooms could use ceiling fans.- It also felt odd that the full-length mirror was directly across from the toilet. It's a small thing, but it seems like there could be a better place for it.- The Internet was not the greatest, particularly when using it for an extended period of time. It dropped periodically and randomly. There was only wireless and no LAN cable (one at the desk would have been nice).- It would also be nice to have a printer onsite (even if there's a fee).Overall:It was okay. I chose this hotel because it has 2-bedroom/2-bathroom suites, which I wanted for the 4 of us traveling together. If I had that situation again, I would choose this hotel again because again it wasn't terrible. However, if I had a situation where I did not need a 2-bedroom/2-bathroom suite, I would definitely choose another Marriott property in the area.More</t>
   </si>
   <si>
+    <t>R6908OYwilliams</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r515570838-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t>2nd time staying here because we had a good time last year. Location is great. Quiet and away from all the hustle and bustle of high tourist areas but centrally located between all major attractions we want. Few issues this time. No bacon!  Breakfast for 9 days with no bacon????  Kids love bacon. Overall breakfast was kind of bland. None of the Marriott breakfast potatoes either. Also our dishwasher did not clean the dishes well. Having a full kitchen is great with a large family but it would be nice if everything worked properly. Most annoying are the little flying insects at this location which seem to love flying into any room we stay in. Overall we would come back again regardless of these minor issues. More</t>
   </si>
   <si>
+    <t>Softballmom702</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r510102025-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -321,6 +339,9 @@
     <t>Stayed at this location due to my daughters softball tournament. Great location near Fountain Valley Sports Park. The Pros: LOVE having a kitchen to be able to prepare meals. Full fridge, utensils, etc. Comfortable beds!The room was clean! Shower was great! Nice people work there! The Cons:Small breakfast room, mediocre food, not like other Residence Inns...Grounds need a good cleaning along with Lovby windows and roomCleaning and replacement of towels was inconsistentThe pool always had leavesThere is a cost for parkingOverall, it was a good stay.  It was comfortable for my family. It was a great location and with the AAA discount the price was a really good value. More</t>
   </si>
   <si>
+    <t>Debbie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r500534740-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -345,6 +366,9 @@
     <t>We have stayed in several hotels around Huntington and this is by far our favorite. It's like staying in an apartment. They have full size kitchens, which I love because we cook dinner every night to save money. It's only 5-10 minutes from the beach, grocery store, drug store, restaurants and parks within a couple miles and Disneyland is 30 min away. Free breakfast and basketball court/BBQ area on site. One of the best hotels! More</t>
   </si>
   <si>
+    <t>163459</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r500518874-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -358,6 +382,9 @@
   </si>
   <si>
     <t>We got a studio room and it worked out good for a family of four. My daughters shared the sofa bed and had no issues with it. Pool was the perfect temp. Breakfast was always good and the evening social activities in the lobby are a nice touch.More</t>
+  </si>
+  <si>
+    <t>mattybb1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r473000031-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
@@ -403,6 +430,9 @@
 &gt;Breakfast items advertised on their website, were not available during our 5...Ryan and the other employees were all very nice, but they need to fix some things. It started off badly when we checked in and there was issues with our reservations. There was only one person working the desk, so guests including ourselves were frustrated, and then the fire alarm went off adding to the frustration.&gt;Issues we encountered were all the Gnats around our room doors that would come in when you open the door. &gt;The doors themselves slam and absolutely shake the room every time the neighbors come and go.&gt;The mattresses are not comfortable, and the shower heads seemed to be plugged and only put out a fine hard spray. &gt;The room towels feel like old pool tools and are pretty thin and scratchy.&gt;The pool area is not stocked with towels, so we had to go ask for some every time we visited the pool and Jacuzzi area. &gt;The Jacuzzi only had one jet that had all the pressure, while the rest had very little. I mentioned this to front desk, and was told this had been an issue for a while, so they obviously haven't bothered to fix it.&gt;There was a van with no disabled parking permit parked half in the disabled spot and half in the disabled walkway for 2 days. We needed this spot and were unable to use it.&gt;Breakfast items advertised on their website, were not available during our 5 day stay, and the fire pit they advertised was also not available.This is a pet friendly hotel, so if you don't want to hear barking dogs, than don't stay here. There is also a sport court right in the middle of the courtyard, so if you don't want to hear people playing basketball at 8:00am, than get a room far away from it.I really wanted to like this hotel because the employees were so nice, but with all the problems that kept coming up, we just didn't have a good stay. We were in town for a family reunion and had 5 rooms here, so these issues were not isolated just to me. I think with some work this would be a nice place to stay, but for this trip, we were not impressed.More</t>
   </si>
   <si>
+    <t>James Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r458200692-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -430,6 +460,9 @@
     <t>Stayed here for five nights on vacation with my wife and six month old son. The room had lots of space and a kitchen which was needed with a baby. The staff is really friendly and they go out of their way to ensure you are enjoying your stay. Every Monday, Tuesday and Wednesday evening there are gatherings in the lobby where they provide food and booze to guests for free! With these gatherings, the open outside BBQ setup and the breakfasts, we meet a lot of other travelers and felt like we were part of a small community at this hotel. The beach is only a short drive away, and this hotel was over $100 cheaper a night then the hotels at the beach! Also the drive to the beach is beautiful as you drive by tons of orange and lemon trees. If we are ever in the Hungington beach area again we will definitely stay here again.More</t>
   </si>
   <si>
+    <t>JulienMike</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r456466176-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -454,6 +487,9 @@
     <t>I love a good Residence Inn.  You cannot beat the price and space you get in their 2-bedroom suites.  Five of my girlfriends stayed here for a weekend mini-reunion in January. Nice to have two king sized beds in two separate bedrooms with separate bathrooms, and of course the kitchen and living space.  Yes, it more glamorous to be down on PCH right at Huntington Pier, but we easily drove down there, 15 min., for shopping and dinner.  Plus, everything is cheaper right near the 405, and there are classic Orange County strip malls everywhere - so you can get anything you want within a 0-5min drive. Free parking, which you do not get at the hotels on the beach. The breakfast is typical for a Residence Inn, eggs, waffles, sausage, oatmeal, pastries, cereal, OJ, etc. etc. etc.  after a while it all tastes a little fake, but that's a hotel breakfast for you.  I was surprised  to find flavored syrups for the coffee - caramel and vanilla - I think, yum! We hopped in the hot tub one night - and the front desk brought us out towels right away. If you have to be on the 405, this is super convenient for beaches, and Orange County access.  You don't hear the fwy noise, it's nicely laid out, more like little apartments.  Another no fuss stay.  Super comfortable beds.  I'll be back!More</t>
   </si>
   <si>
+    <t>JBeedo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r454307474-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -478,6 +514,9 @@
     <t>Stayed here on a rainy night in Southern California in January 2017.  The room itself was OK, nice lay-out in the Residence Inn style.  A little extra legroom, and a Fridge and Microwave if you want to keep and cook some food.I got in late, had to work, and never really had a chance to spend much time here.  I never did locate the TV remote control, so never switched it on.Nothing to complain about but there was a lot of Freeway  noise, and I heard the rain all night but it's possible a lot of the  noise came from a drip and not the actual rain itself.Breakfast the next morning was good.More</t>
   </si>
   <si>
+    <t>LiveLov3Travel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r445122169-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -503,6 +542,9 @@
   </si>
   <si>
     <t>Stayed here for two weeks. Room was decent. Staff was friendly and very helpful. There was a problem with the cable and was fixed within hours. Happy hour was welcoming. Hotel is right off the highway so was easy to go places . I'd stay here again if I was in the area. More</t>
+  </si>
+  <si>
+    <t>traveler2828</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r438199396-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
@@ -536,6 +578,9 @@
 There is plenty of free parking as well.  There was also a pool in the interior courtyard.  I did not try the pool as it is late fall and the air is cool in the evening when I got back from my meetings nearby.  The free internet did not require a sign-in.  And...I stayed at this hotel for two nights.  I had a one bedroom suite room in building 6, 2nd floor.  The room was quiet at night which is what I usually desire.  The furniture is functional and good, but not overly nice.  In other words this is a comfortable place to stay but not luxurious.  The breakfast the first morning was scrambled eggs with tortillas and two types of sausages.  The other breakfast was the same except we had bacon and some other hot option that I didn't sample.  Both mornings you could also make waffles or have cereal, yogurts and toasts.  There were fruits as well.  When walking to the breakfast room you are unable to access the breakfast area from the interior as the door is locked.  You need to go around to the front and even there you can get into the first sliding door but you need to use a key to open the 2nd door.  I guess security is tight at this location.  There are two Marriott properties right next to each other, this Residence Inn and next door a Courtyard Marriott.   There is plenty of free parking as well.  There was also a pool in the interior courtyard.  I did not try the pool as it is late fall and the air is cool in the evening when I got back from my meetings nearby.  The free internet did not require a sign-in.  And the rest of the room functioned as it should.  I will likely stay here again if I travel on business to here in the future.   The staff was pleasant but also, not much stood out either.  Mostly this was appropriate if you want a place to relax and sleep while visiting for business or pleasure during the day and it fulfills this function well.More</t>
   </si>
   <si>
+    <t>NikG43</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r432522835-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -563,6 +608,9 @@
     <t>I wanted to love this hotel (I'm from the area) but was sorely disappointed. The furniture in our two bedroom suite was dingy and run down. There were gnats everywhere. Everywhere. The were all over the hallway then would get into our room. I spent a night trying to whack them all. I even noticed dead gnats on the curtains. Then the tv reception in the main living area was spotty. Breakfast was pretty much the same everyday. So overall it was just an ok experience. I've stayed at Residence Inns much nicer than this one. More</t>
   </si>
   <si>
+    <t>Matthew T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r410341318-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -590,6 +638,9 @@
     <t>In town for a reunion that extended over three days.  Great location between Huntington Beach (one of the days) and Fullerton (the other two). Clean, comfortable, and quiet.  This is a property that is not new, but is well maintained.More</t>
   </si>
   <si>
+    <t>Jason B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r396003633-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -617,6 +668,9 @@
     <t>I wish I had read the reviews on TripAdvisor prior to booking a stay at this Residence Inn. There is no excuse for the level of dirtiness and griminess of the hotel. When we got to our hotel room, we had a few "used" towels that had not been freshened - yuk. In the main lobby area, there was filth everywhere.Dirt, food, crumbs on the floor counters, coffee table and check-in counter. I would recommend trying the Courtyard that is next door over this particular Residence Inn.More</t>
   </si>
   <si>
+    <t>Ellinor I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r388545771-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -641,6 +695,9 @@
     <t>This hotel is so disgusting! The room was dirty when we got here and there is cockroaches outside AND inside the room. Plus there is dirt in the ventilation for the AC. Really disappointing, been staying at Marriot hotels many times and on different places and countries. And never seen something this horrendous!More</t>
   </si>
   <si>
+    <t>mikxav01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r365866369-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -668,6 +725,9 @@
     <t>Overall good experience, my only complaint is that the furniture was somewhat worn and showed age. The hot breakfast in the morning was wonderful.  It was about 10 minutes to Huntington Beach pier.  Hotel was very clean.More</t>
   </si>
   <si>
+    <t>P51rayf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r361897681-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -695,6 +755,9 @@
     <t>I was in Orange County this week and stayed at the Residence Inn Huntington Beach, this is a Great Location! The new design Residence Inn is just perfect with a free happy hour, great breakfast and a spacious room with kitchen, this is a great stop!More</t>
   </si>
   <si>
+    <t>Quagm1re</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r361821280-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -713,6 +776,9 @@
     <t>This residence inn is laid out somewhat unconventionally for those familiar with the brand. Lots of smaller building in a courtyard style. Two floors and no elevators but this wasn't an issue for us.The room was large and nicely furnished with the usual space of a residence inn. Included a nice, fully furnished kitchen and large sitting area. Very comfy bed and decent bathroom.Not much to say about the breakfast, standard residence inn with hot selections including waffles, cereals, bread, bagels, oatmeal, juice and coffee. The sitting area is a little small but we sat outside.There is a nice pool and spa and also a BBQ area, and games court for basketball, tennis etc.Staff were all good. The location is convenient, just off the 405 and close to Huntington Beach. Also not far to the Anaheim/Disney area.More</t>
   </si>
   <si>
+    <t>Fernand0001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r350524178-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -737,6 +803,9 @@
     <t>I stay here frequently for business. It's convenient and right off the 405.  They have free breakfast and the staff is awesome, I always happen to get checked in by Jennifer, who is always in the best mood. Make sure to check out the room with a fireplace... a little extra but worth it.More</t>
   </si>
   <si>
+    <t>Amanda H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r336080487-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -764,6 +833,9 @@
     <t>James was the person who checked us in and he was horrible.  He was difficult to communicate with and extremely rude.  I'm used to Marriott having kind people who seem pleased to greet us and who serve with a smile and kindness.  We were supposed to stay 3 nights and we changed it to one night so we can move to another Marriott and maybe get a better experience.  After making the move to the Marriott in Fullerton, we were pleased and recommend the Fullerton Marriott over the Huntington Beach one 100%.More</t>
   </si>
   <si>
+    <t>Roger S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r332496473-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -782,6 +854,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Mittens25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r319197366-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -809,6 +884,9 @@
     <t>Worst hotel I've stayed in. Room had a horrid or dour which they knew about. Changed rooms then housekeeping kept forgetting to clean room. Applicances didn't work. Broken furniture. Would never recommend this place. Way over priced for standard of hotel.More</t>
   </si>
   <si>
+    <t>DaisySue6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r308634610-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -830,6 +908,9 @@
     <t>We recently spent 5 nights at this hotel. We used points, so shouldn't really complain too much, but there were some issues. The breakfast area was very small and cramped. The last couple days of our stay there wasn't enough seating for everyone and the food was running out and the trashcans were overflowing. They did have crayons and coloring pages available, so my kids enjoyed that feature. Our room was laid out pretty nicely, but we had an issue with the pull-out couch. It appears that a prior guest may have had a child pee the bed and the bed was made back up wet. This resulted in my child waking up wet from the mattress. When I figured this out, I told the front desk clerk, and it appears that the mattress may have gotten dried out that day, but it still smelled like urine. So instead of sleeping on the mattress, I had my kids sleep on the floor. Not ideal, but better than the mattress. Another issue was the last night some guests in our building were extremely noisy. They may have been having a party in the courtyard. There was a lot of loud voices well after 10. I ended up calling the front desk and they sent someone out to quiet the guests. This resolved the problem, thankfully.More</t>
   </si>
   <si>
+    <t>Mai P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r304812129-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -855,6 +936,9 @@
   </si>
   <si>
     <t>I stayed here for 6 nights in a studio size room on the 1st floor. The room was clean but the bathtub looked outdated. The kitchen was well stocked with dinner wares and utensils, and the fridge was a good size. Parking can be a problem if you come back late. My major complaint for this hotel is that their bed is way too soft. I was literally sinking in it and I'm not overweight. Even a friend of mine who stayed with me who was the skinny type said that the bed was too soft to the point of giving her a backache. We both ended up sleeping on the floor the next 5 days. Changing the room wouldn't have solved anything but be just a hassle, plus they were fully booked when we stayed there. More</t>
+  </si>
+  <si>
+    <t>Jewls03</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r289593150-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
@@ -888,6 +972,9 @@
 The room reminded me of a two bedroom apartment. My friend and I each had our own rooms and bathrooms so we were never on top of each other fighting for mirror time (ladies you know what I mean)... They also have their own closets and TVs. The rooms were very clean and well maintained and we found everything we needed in the living room and the kitchen. I was even able to hook up laptop to...I stayed here to celebrate my birthday at Huntington Beach and to not have to drive back to Burbank the next day. When I arrived that Friday afternoon I was greeted by two friendly smiling staff who joked around with me and helped me to familiarize myself with the best places to buy food for the beach. When I told them it was my birthday they of course wished me happy birthday then proceeded with the usual check-in. I have always stayed in a suite when I've stayed at other Residence Inns so their two bedroom was a welcome surprise. Within a minute of being inside the room the staff member who helped me out came knocking on the door and had a small gift of some goodies from their pantry (which you can purchase the things you forget if you want a snack) for me as well as a birthday card he had made. It was very sweet and a great surprise. The room reminded me of a two bedroom apartment. My friend and I each had our own rooms and bathrooms so we were never on top of each other fighting for mirror time (ladies you know what I mean)... They also have their own closets and TVs. The rooms were very clean and well maintained and we found everything we needed in the living room and the kitchen. I was even able to hook up laptop to their TV so I could watch Netflix and rent movies if I wanted to. The shower pressure is alright but that is because you are sharing the water heater with four other rooms. We didn't have breakfast bc we would rather sleep in and btw the beds are amazingly comfortable. You will not want to get out of them.That Saturday night after we came back from the beach the people in the room below us and beside us decided to have a party around 1:00am they were yelling and smoking and causing a lot of grief. So I called the front desk to see if they could help. I am allergic to cigarette smoke bc of my asthma so I have to be extremely careful and the nonsmoking properties that Marriott offers is one of the reasons why I stay here. They quieted them down within 10 minutes!! It was quite impressive. Moral of this long review: Stay here!! You will not be disappointed and you will be treated with respect and like family. I was extremely surprised by this visit and will definitely be back again.More</t>
   </si>
   <si>
+    <t>jtimbo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r289337509-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -915,6 +1002,9 @@
     <t>We just returned from our 5th visit in 14 months, staying at this Residence Inn.  In the time we started to go there, the place keeps deteriorating, including management.  We were just there nights and had to change rooms 3 times.  The first room 1814 had no A/C.  They moved us to another room in building 18 that has a "person who has been there over 31 days so she is technically a residence" the gal at the desk told us.  That Resident had a dog that barked til the person returned home at 3 a.m., and they couldn't call her because they didn't realize her telephone number changed.  Off we went to building 17.  The furniture in all three rooms is in dire need of being replaced.  The vinyl is torn on the chairs, and the couches are just plain over the hill.  This is not a hotel owned by Marriott, we were told, but they have the management contract.  We have a personal interest in Marriott at another location, and they watch our location like a hawk.  We would never be able to have a cable system that produces constant snow on the screen on old, small flat screens.  The buildings are old, and it's been a cash cow, but it's time for them to give these diamonds in the ruff some revitalization. Yes, they finally cleaned up the pool, they have redone a few of the bathrooms,...We just returned from our 5th visit in 14 months, staying at this Residence Inn.  In the time we started to go there, the place keeps deteriorating, including management.  We were just there nights and had to change rooms 3 times.  The first room 1814 had no A/C.  They moved us to another room in building 18 that has a "person who has been there over 31 days so she is technically a residence" the gal at the desk told us.  That Resident had a dog that barked til the person returned home at 3 a.m., and they couldn't call her because they didn't realize her telephone number changed.  Off we went to building 17.  The furniture in all three rooms is in dire need of being replaced.  The vinyl is torn on the chairs, and the couches are just plain over the hill.  This is not a hotel owned by Marriott, we were told, but they have the management contract.  We have a personal interest in Marriott at another location, and they watch our location like a hawk.  We would never be able to have a cable system that produces constant snow on the screen on old, small flat screens.  The buildings are old, and it's been a cash cow, but it's time for them to give these diamonds in the ruff some revitalization. Yes, they finally cleaned up the pool, they have redone a few of the bathrooms, but the majority have old old bathrooms.  Yes, they give you breakfast...We also called one of the men who we have worked with before and asked him to reserve a special room that we have had 3 times before.  He said he would.  Someone else rented it to another person prior to us getting there.  Am not sure if they guy we spoke to didn't mark it or the other desk person didn't pay attention, but we did not get the room that was to be held for us....Very disappointing experience.More</t>
   </si>
   <si>
+    <t>jlowery702</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r286525758-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -939,6 +1029,9 @@
     <t>Room was clean. Beds were comfortable. Breakfast was very good. A+Pretty close to beaches and main street. Price was fantastic. Staff was Great. It is also close to freeway access, easy to navigate the area and also close to malls and the Discovery museumMore</t>
   </si>
   <si>
+    <t>SonnyaD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r280258921-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -981,6 +1074,9 @@
     <t>We really enjoyed our stay here. Very quiet, extremely clean, and the staff is wonderful. You get so much for the money you spend. Pool and hot tub are nice too. This was our second stay. This hotel is pleasantly close to the beach as well. Not right at the beach but close enough to make us happy. More</t>
   </si>
   <si>
+    <t>MikeKerrey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r275192253-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -999,6 +1095,9 @@
     <t>Terrific location with easy drives to many top attractions.  Extremely clean.  Friendly staff.  Terrific room layouts.   Held six of us easily.  Free breakfasts.  Nightly specials.  The night we stayed they had a waffle sundae bar.  Great place to stay.  More</t>
   </si>
   <si>
+    <t>angelankita</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r259707664-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1026,6 +1125,9 @@
     <t>i happen to stay in this hotel for the business purpose and the staff was good and friendly, the rooms were clean and good, ok. It was overall a very pleasant, comfortable experience. thank you.  AnkitaMore</t>
   </si>
   <si>
+    <t>SteveJ-SanDiego</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r258469771-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1050,6 +1152,9 @@
     <t>I was surprised by the quality of this hotel. Stopped over for one night during a baseball tournament. Very nice rooms, well maintained and generous size with sitting area and fully equipped kitchen. Modern interiors that look recently updated. Friendly staff and decent breakfast included. Overall I would deb happy to stay here again.More</t>
   </si>
   <si>
+    <t>Bigcoach6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r254949303-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1071,6 +1176,9 @@
     <t>What a nice unpected surprise to see an anniversary gift bag on our rooms kitchen table when we checked in. Now thats taking care of their guests.  Real nice clean room. Quiet. Great, well stocked breakfast. More</t>
   </si>
   <si>
+    <t>opilla36</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r251030901-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1095,6 +1203,9 @@
     <t>Me and my family visited the Residence Inn recently. It is a very clean and they have a super friendly staff. Always helpful with any questions or concerns I had and went out of their way to accommodate me and my family. Will stay here again. Without hesitation. More</t>
   </si>
   <si>
+    <t>Paul-R-Boston</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r250028387-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1119,6 +1230,9 @@
     <t>It was a 3 star hotel for sure. The rooms were clean, just a little tired. Newer or pressed drapes would be nice. No elevators for second floor rooms. We chose this place because it was in between LA and Disneyland. There is a pool and hot tub which is hard to figure out from the website. Even has a small basketball court and courtyard to workout a bit. Included breakfast was handy to tank up before going out for the day. Rooms are not connected to lobby as they are all separate small buildings with 8 suites in each building. I'd use it again if I was to go back.More</t>
   </si>
   <si>
+    <t>Tigerfam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r248178428-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1146,6 +1260,9 @@
     <t>Once again our choice is the Residence Inn in Fountain Valley for our inlaws visits. Yes it's the same anywhere you stay but what made it our top choice is the people here. They are always helpful and you know they are doing their best. Hot breakfast was enjoyed by all and tastee is what was told to me. Stay here if you need a lil space to cook, keep foods.More</t>
   </si>
   <si>
+    <t>mxn399</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r242030830-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1173,6 +1290,9 @@
     <t>Based on my experience with Resindence Inn I selected this one. Literally next to the highway, easy to access. The majority of rooms are studios - having the fire-place, well only few apartments have separate living-room (with fully equiped kitchen) with bed-room. This is the one I selected. Room was pretty quiet - yet this was depending on the traffic on 405.Rooms are clean, staff friendly - only the breakfast is rather limited. Good thing is that on some weekdays the hotel serves free snacks/salads in the late afternoon. This can be enjoyed while watching the fire-place in the lobby.In overal - good price for the quality and level of service they provide.More</t>
   </si>
   <si>
+    <t>Jefftimb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r240224103-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1200,6 +1320,9 @@
     <t>If you have a reason to stay in the Huntington Beach area, and it is for a prolonged period of time , this is your Home away from home. The suites are spacious, well appointed , clean and  ideally located.Amazingly, even though the Inn is located off the 405, you do not hear traffic noises.The pool , although not terribly large, it is heated and clean.If you travel with your dog, the Inn accepts dogs . There is a $100.00 charge, which at first blush offended me, but after I learned that they  actually bring in a cleaning team to sanitize the room after the departure , it was more than reasonable .The only slight negative is the "free breakfast", the menu does not change daily, therefore it can become boring over time.More</t>
   </si>
   <si>
+    <t>explorer1421</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r232440775-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1227,6 +1350,9 @@
     <t>Checked in- friendly staff member. The room was standard studio size. The room was clean and quiet- The 405 was within throwing distance of the building and didn't hear it at all. The breakfast was fine. Both mornings the staff was late getting the breakfast out ( 7:00 A.M. for the weekend). I don't understand why everything can't be out 10 minutes before the actual opening time. The hotel location is central to many Orange County attractions.More</t>
   </si>
   <si>
+    <t>cabopapa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r227937478-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1251,6 +1377,9 @@
     <t>My friend and I had a wonderful night at this property. Great location in Orange County, minutes to the Huntington Beach Pier and Newport Beach. Disneyland and Knotts Berry Farm are a few miles away. Lots of restaurants in area.Easy, friendly check in. Junior suite was roomy and looked like it was recently redone. New appliances for sure. Excellent a/c. Very well done breakfast buffet. Eggs, toast, bagels, biscuits, muffins, Canadian bacon, oatmeal were the standard fare. Plenty of hot coffee and tea. Very satisfied customer. I will be back and I will highly recommend to friends, family and you.More</t>
   </si>
   <si>
+    <t>AmySD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r227613853-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1275,6 +1404,9 @@
     <t>This place is dated and felt run down. Exterior hallways to entrances are dark. Walls pretty thin. Don't forget your toothbrush, they sell and do not provide any complimentary. Breakfast was okay, waffle machine makes great waffles, it's time they change their breakfast buffets to something like what Hyatt Place has, morning scrambles, something about these eggs at this location was odd tasting, had a plastic like texture, maybe they need to scramble better. We were in a downstairs unit and the carpet felt grimly, but maybe that's where dogs typically stay and gave it that feel. Not sure I would stay here again.More</t>
   </si>
   <si>
+    <t>Anewsbud</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r222535389-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1302,6 +1434,9 @@
     <t>Best value we've found in So Cal! Great location just off the 405 but very quiet. Pool, hot tub, and sport court are great. Rooms are very comfortable. The only two minor drawbacks are no elevator and the fitness room is small. Fortunately, a 24 Hour Fitness club is about a half mile away. Love this place and will plan on staying again!More</t>
   </si>
   <si>
+    <t>Mario T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r218646125-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1326,6 +1461,9 @@
     <t>The staff was very attentive and always helpful. The rooms were clean and what you would expect from an extended stay facility with kitchens and large refrigerator . Had a nice court yard with pool and basketball court. This location was extremely convenient to the 405 Fwy and had many local restaurant options. The free breakfast was excellent with fresh waffles, eggs, and fresh fruit . More</t>
   </si>
   <si>
+    <t>chariz808</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r209039365-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1353,6 +1491,9 @@
     <t>Very nice stay! The room was very clean and had modern amenities. Very nice to have a full kitchen when traveling with a baby. The only small complaint is that the carpet around the bathroom was wet. We weren't sure if it was because the room was so humid when we first got there or if there was a small leak somewhere.  The staff was very nice.More</t>
   </si>
   <si>
+    <t>Futbolmommy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r205131466-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1372,6 +1513,9 @@
   </si>
   <si>
     <t>The rooms look just like the website show. We were in a 2 bedroom suite, which is nice, having 2 grown children with us . We did not use the kitchen, but it looked clean &amp; stocked with plates, glasses,etc. the 1st night we got in late &amp; we noticed dozens of little bugs(like fruit flies). I called the front desk, they were apologetic &amp; sent someone over with a can of Raid. He stood outside while I sprayed, I'm not sure it really worked &amp; it left a yucky residue wherever I sprayed. The next day I saw the housekeeper &amp; asked her to do something about the bugs &amp; let the front desk know. I do not know what they did,but when we came back several hours later, they were almost gone. Yes there were so e at night, but much better. The breakfast was so-so, they should serve individual yogurt, not a big bowl. Oatmeal was funky looking &amp; eggs too. Coffee was way too weak &amp; I don't like overly strong coffee. Breakfast Room was too small. The staff was very pleasant&amp; .everything was in close walking distance. Hotel is near a lot of things &amp; highway. Beds in room were very comfortable, I only wished they offered 1 room of the 2 room suite to have 2 beds. The couch was really bad, saggy &amp; when you pulled it out to make a bed, it...The rooms look just like the website show. We were in a 2 bedroom suite, which is nice, having 2 grown children with us . We did not use the kitchen, but it looked clean &amp; stocked with plates, glasses,etc. the 1st night we got in late &amp; we noticed dozens of little bugs(like fruit flies). I called the front desk, they were apologetic &amp; sent someone over with a can of Raid. He stood outside while I sprayed, I'm not sure it really worked &amp; it left a yucky residue wherever I sprayed. The next day I saw the housekeeper &amp; asked her to do something about the bugs &amp; let the front desk know. I do not know what they did,but when we came back several hours later, they were almost gone. Yes there were so e at night, but much better. The breakfast was so-so, they should serve individual yogurt, not a big bowl. Oatmeal was funky looking &amp; eggs too. Coffee was way too weak &amp; I don't like overly strong coffee. Breakfast Room was too small. The staff was very pleasant&amp; .everything was in close walking distance. Hotel is near a lot of things &amp; highway. Beds in room were very comfortable, I only wished they offered 1 room of the 2 room suite to have 2 beds. The couch was really bad, saggy &amp; when you pulled it out to make a bed, it was worse. Those need to be changed. Bathrooms could use a little updating.More</t>
+  </si>
+  <si>
+    <t>Ashley R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r197738514-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
@@ -1409,6 +1553,9 @@
 I politely explained to the front desk clerk that we were not informed of the fee when we placed our reservation over the phone, even though I called the hotel directly.  He stated that the reservations are handled through a central call center, as if that somehow means they can get away with not being upfront.  He also mentioned that the $100 fee is on the website, which I never visited, since I placed my reservation with the hotel directly upon asking about...I usually try to stay at Marriott hotels, but the Residence Inn Huntington Beach-Fountain Valley really drove me away.To be clear, this review is based on service, not on a stay at the hotel.We were heading to Orange County for the day and needed a hotel room in the area.  We had a small dog with us, so we needed a pet friendly hotel.  I called the hotel directly and asked if it was pet friendly.  The reservation specialist said yes, and I booked a reservation for that night.  We arrived at the hotel and went to check-in and were surprised to be handed a pet waiver that stated we would be charged $100 per stay for our dog.  Well, we hadn't been informed of the fee when we reserved the room directly with the hotel, so it came as a bit of a surprise.  Not to mention, $100 just for one night is outrageous.I politely explained to the front desk clerk that we were not informed of the fee when we placed our reservation over the phone, even though I called the hotel directly.  He stated that the reservations are handled through a central call center, as if that somehow means they can get away with not being upfront.  He also mentioned that the $100 fee is on the website, which I never visited, since I placed my reservation with the hotel directly upon asking about its pet friendly status.  He made no accommodations for us, and refused to allow me to speak to someone else about the fee.  I truly believe this was an error on Marriott's part, not on mine, since I depended on the hotel to provide me with complete information.We decided to take our business elsewhere.  If you have a pet, I suggest driving 10 minutes to the Westin in Costa Mesa, where pets are accepted without a fee, and the hotel is much nicer, with better amenities.More</t>
   </si>
   <si>
+    <t>Junster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r194588160-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1436,6 +1583,9 @@
     <t>Overall the facilities, interior, and location is very good. With free breakfast, swimming pool, and exercise room, very convenient for family traveling. Staffs are friendly as well.One negative thing is that as these is no gated entrance, there was loud noisy after midnight, not sure it was from the teenage nearby or drunk people staying the hotel. It will be good to have some control. Another thing is that it will be better if there is curtain can be closed at night to block some street lights.More</t>
   </si>
   <si>
+    <t>yvrtravelguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r194134232-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1463,6 +1613,9 @@
     <t>Residence Inns come in a variety of flavours - some are apartment style where all rooms are in one building, others have four, six or eight suites in one building, with two or four suites accessed by one stairwell like this hotel. Warning - No elevators! Vaulted ceilings give this suite a nice touch with central living area quite large and inviting. Both bedrooms are cozy with a good queen bed but not super comfortable like other Marriott properties. Pool looked ok but we didn't use it. Close enough drive to Disney but still a ways away. Close to John Wayne airport. Breakfast was good but small room compared to size of hotel. I would not choose to stay here again.More</t>
   </si>
   <si>
+    <t>Gail H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r192364772-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1490,6 +1643,9 @@
     <t>This is the first time I have stayed in a 'residence' inn and I was pleasantly surprised.  Our two bedroom suite was very clean and spacious, although I would have preferred more room in the dining/sitting area and less in the bedrooms.  There were enough dishes and pots for four, with a note to call the front desk should anything more be required.  The staff was wonderful; check-in was quick and easy.  We were able to get into our room early - which was nice after a long day's drive.  I contacted the desk three times with questions and requests and each time, the response was polite, cheerful and quick.  The outdoor sitting area with bbq was an unexpected treat.  A gentle fountain, lots of comfortable chairs and umbrellas for shade gave a nice area for relaxing.  While we did not use the pool, hot tub or basketball area, we saw others doing so.More</t>
   </si>
   <si>
+    <t>Philip C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r190450239-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1517,6 +1673,9 @@
     <t>Have stayed at the Fountain Valley Residence Inn for many years.  It is still well maintained and updated after all of the years (20+) that I have stayed at this hotel.  Staff is very helpful and always friendly.  Great place to stay and located within easy drive to all of the Orange County attractions.  I will definitely return.More</t>
   </si>
   <si>
+    <t>Donna A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r186392867-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1544,6 +1703,9 @@
     <t>I love this hotel - freeway close (right off Brookhurst) and right down the street from Mile Park where you can walk, job, bike or people watch. It's a little home away from home. Very convenient shopping nearby. If you need to be in this area for work or pleasure I would highly recommend it!More</t>
   </si>
   <si>
+    <t>honeyloveoc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r181691675-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1571,6 +1733,9 @@
     <t>Residence Inn in FV is the perfect place...just like the other reviewers it is a home away from home. Rooms are spacious and updated.  Pools, outdoor lounging and breakfast area all beautiful and welcoming.  Free parking.  Free breakfast - basic continental stuff, but acceptable.  Location is situated close to everything - grocery stores, restaurants, freeway &amp; parks.  It is the perfect stay if you are visiting Huntington Beach/OC area.More</t>
   </si>
   <si>
+    <t>kmartinncemc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r180682122-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1598,6 +1763,9 @@
     <t>My wife was attending a workshop in Huntington beach and as Elite Members, we had 3 Marriott certificates to burn so our stay was free, not even taxes were charged. Location is good for access to long beach and Huntington beach if you have a car, parking is free. Good places to eat and beaches within a few miles. Public parking at the beaches in town was $1.50/hour further out was free.Our studio Room was very spacious and clean, had a full kitchen, desk for working, large comfortable bed and good sized bathroom. Nothing fancy, but would be good for work or a budget friendly place to stay and do Disney, Newport beach, long beach and the Queen Mary and just hanging out at Huntington beach which is a really cool area (beach and downtown). Free breakfast was good and filling, again not gourmet but something for everyone Would be nice if room had a small balcony. There were grills at the pool and a basketball court. Also for a fee onsite self serve laundry. They have some evening events with free food and snacks but not on the nights we were there. It is next to the highway but the noise was not noticeable at all.More</t>
   </si>
   <si>
+    <t>CheerfulTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r174529511-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1619,6 +1787,9 @@
     <t>Everything we read about this hotel was right on. Though it was our wedding anniversary weekend and we had to bring along the kids at the last minute and the hotel could not accommodate our request to upgrade to two bedroom suite, everything went smooth. Location is convenient to beaches, which we enjoyed, and grounds were clean and not crowded. The only glitch we encountered was at check-in where we were given a room whose door did not lock properly. We soonafter mentioned it to a person at the front desk, who seemed to know which room we were talking about, which made us wonder why the door hadn't been fixed and we were still given a room with an unsafe door. That said, we requested and were politely granted another room by the friendly, albeit young, front desk staff though the new room was located right above the lobby. We checked out a day early. Bottom line: For the price, room size, location, free hot breakfast and accommodations, it's a great place to stayMore</t>
   </si>
   <si>
+    <t>restls</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r169380737-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1643,6 +1814,9 @@
     <t>We spent one night at this Residence Inn, traveling with two toddlers.  The staff was wonderful; friendly and prompt.  We stayed in a one bedroom unit, which has a sleeper sofa in the living room.  This was perfect for us.  Everything was great except for one thing.......the beds, both the king size and the sofa sleeper, are in need of replacement.  We found the mattresses to be uncomfortable and the pillows small and flat.    If new bedding finds its way to this hotel, we will certainly stay again.More</t>
   </si>
   <si>
+    <t>Stephanie011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r168630303-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1661,6 +1835,9 @@
     <t>I have stayed at many Residence Inns, and they all have either a separate building that does not allow pets OR rooms set aside that are "pet free" - which we have always requested since I have pet allergies/asthma.  This is the first Residence Inn that has told me that they don't do this.  They said that the best they could do was put me in a room that hasn't had a pet in it for a while.  I decided to keep the reservation anyway and risk it.  Luckily when the time came, I did NOT have any real allergy problems with the room.The 2 bedroom was great, nice hotel.  Good location.  Free breakfast.  We had a nice stay.But I do wish that they would consider doing what the other Residence Inns have done for their customers with allergies.More</t>
   </si>
   <si>
+    <t>harding3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r168124551-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1685,6 +1862,9 @@
     <t>It is one of the few in the area that offers two bedrooms.  The bedrooms are big enough, each with a TV.  Beds are relatively comfortable.  The kitchen offers bare essentials, but enough so you can cook a meal.  They do offer hot breakfast and a lite dinner most days.  The meal quality is average, but it's handy.  The "living room" is quite small, but has a TV and a work station for your computer.  WiFi is complimentary and works well.Staff is friendly and helpful.More</t>
   </si>
   <si>
+    <t>margarita1965</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r167311597-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1709,6 +1889,9 @@
     <t>My two teenage sons, husband and I stayed here for two weeks while we were waiting to move into our new home.  We stayed in a one room studio with pull out sofa bed and were very comfortable.  I was able to cook meals, work out in their gym, have a full breakfast and a nice complimentary meal with wine or beer three nights out of the week.  The staff was what really made our stay though.  Each day we were met by people going beyond their typical duties trying to make us feel comfortable.  Thanks again for making us feel at home!More</t>
   </si>
   <si>
+    <t>lovehawaiigirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r166970445-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1736,6 +1919,9 @@
     <t>Had 2night stay for Disney trip -room was really roomy and comfy but I would not say this is Huntington beach area Easy access to 405 but didnt hear much loud noise from freeway Breakfast was pretty solid - waffle, bagel, egg... -breakfast was better than spring hill Pretty clean -but I can see gabege here and there, especially pool area -they really need clean pool area but room was clean enough They did little upgrade on room (new color, new kitchen...) but somehow you can still tell this is old property We would like to stay here again because having a kitchen is big plus with kidsMore</t>
   </si>
   <si>
+    <t>Georgia2003</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r166576915-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1760,6 +1946,9 @@
     <t>Stayed at the hotel for 2 weeks- perfect location for Disney &amp; Huntington beach.  Staff very helpful &amp; friendly.   The pool &amp; basket ball court was great for kids.  A family oriented place/ would come back again.More</t>
   </si>
   <si>
+    <t>MichiganAnnieM925</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r162651401-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1787,6 +1976,9 @@
     <t>Very nice rooms with wonderful full, hot breakfast daily, with some variety from day to day. Every day there was a  good assortment of cereals including hot oatmeal, bagels, toast, waffles, scrambled eggs, yogurt, etc.  A special treat was the evening social hour a few evenings while we were there.  One evening there was soup &amp; salad available.  Another evening cheeseburgers, potato chips &amp; salad.  Both evening there was red or white wine, beer &amp; lemonade. Pool was nice &amp; warm and there is a nice outside gathering area with a barbecue, couches, easy chairs &amp; tables &amp; chairs.  We were traveling with 4 generations of family and required 2 rooms. The clerk suggested we have the rooms keyed the same, which was a wonderful idea, so we had a total of 4 keys to open both rooms.  One of the family has trouble walking, and we were provided rooms on the first floor close to everything. Staff was very friendly &amp; helpful with ideas of where to dine &amp; a list of delivery restaurants.  The location was very good, right off the xway &amp; only about 15-20 mins from Knotts Berry Farm which is why we picked this location.More</t>
   </si>
   <si>
+    <t>Robert T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r158944286-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1814,6 +2006,9 @@
     <t>Hotels are getting very pricey in this area so we were pleased to find this property.  It is an older design that has been updated to keep pace with business needs.  We found the condition to be great, staff to be extremely good at their jobs!.  Location is about 5 miles north of the SNA airport very close to the 405.  Traffic could be an issue if you have to travel to Irvine in rush hour.  Either way, we would be happy to return as guests.More</t>
   </si>
   <si>
+    <t>Karen K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r158765714-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1835,6 +2030,9 @@
     <t>I recently stayed at the Residence Inn and have stayed there on many previous trips to Southern California. First hand experience tells me that the staff is very concerned with guest safety and security. Thank you to the manager, Mr. Aquino, for his thoughtful response to questions I had; I felt like a valued guest. We always enjoy Residence Inn breakfasts and this breakfast room seemed particularly clean and well stocked. Despite the easy access to the 405, I have never had any freeway noise disturb my sleep. I was able to use the computer in the lobby to quickly keep up with email. I think the studio rooms are a good value for a short stay, but when I need 2 beds for my family or wish to ensure that no one sleeps on a sofa bed (of course regular beds are more comfortable!), the price for the larger accommodations is generally out of my league and, regrettably, I stay somewhere else.More</t>
   </si>
   <si>
+    <t>Patipatt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r154098107-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1850,6 +2048,9 @@
     <t>Great  stay close to family in Fountain Valley.   Close to Disney, beach and malls.  Rooms like apartments - very comfortable and clean..  We were upgraded to a 2 bedroom which was great for a couple - not having to share the bathrooms, as they are small.    Free breakfast not quite up to other Residence inns where I've stayed. They ran out of food early and room too small for the size of the complex, since many families with children stay here.   Overall nice stay and good location.</t>
   </si>
   <si>
+    <t>Kathy N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r152998325-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1868,6 +2069,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>californiano</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r150440008-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1886,6 +2090,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>Roselynne L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r146490143-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1904,6 +2111,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>YogeshL12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r146392773-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1919,6 +2129,9 @@
     <t>Very good location close to the I-405 and central to Orange County. Also, close to the Orange County airport. What I really liked about this hotel is that it in a subarban area  with low traffic and a the mile long park nearby. Breakfast and the heated pool was a a hit with the kids. They also have free dinner on Mondays, Tuesday and Wednesdays. Hotel room was very good with fully equipped kitchen. Overall, a great way to feel somewhat at home when travelling.</t>
   </si>
   <si>
+    <t>ohiotraveler10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r144629750-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1940,6 +2153,9 @@
     <t>We just spent a week at this hotel in a 2 bedroom suite. Yes, the hotel is older and it shows in a few places even though it has been rehabbed and the kitchen seems fairly new.  However, it was very quiet during our stay, good to have breakfast every morning, and the staff was excellent. Very kind and friendly and our room was very clean.  The beds are a bit hard from what I am used to, but still slept OK.Just a comment about the previous review about sand in the bathtub- there was a rough texture on the bathtub surface to keep from slipping, and it does feel a bit like sand at first.  I think this is what the reviewer noticed.I would definitely recommend this hotel and would stay again if we are in the area.More</t>
   </si>
   <si>
+    <t>mom1cats3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r141696907-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1961,6 +2177,9 @@
     <t>My older daughter and I recently stayed here to attend a conference in Huntington Beach.  We were here for 7 nights.  We extended one additional night here instead of getting a room closer to the Orange County airport.  It turns out it's only 7 miles from the airport anyway.   I am one of those people who agonize about hotel rooms and locations and particularly cleanliness and safety.  This place was just fine and I would stay there again.  The room was clean and the kitchenette was an added bonus for those days when we didn't want to eat out. The breakfast was a good start to the day.  There was always yogurt, fruit, bagels, waffles if you cared to make them, cereal, hot scrambled eggs and sausage and potatoes.  I used the exercise room and my daughter used the pool; both were fine.  The staff was always very friendly.  There was a manager's reception Mon through Wed with some kind of substantial snack like nachos or turkey sandwiches or burgers.  There were several restaurants right around the corner.  We walked to the Duo restaurant one night.  Parking and wireless Internet connection was free.  My daughter was able to attend her graduate classes remotely for two nights, 3 hours each, without the connection dropping out.  We would definitely stay there again.  Based on our good experience with a Residence Inn, I will be looking for them in other cities when I...My older daughter and I recently stayed here to attend a conference in Huntington Beach.  We were here for 7 nights.  We extended one additional night here instead of getting a room closer to the Orange County airport.  It turns out it's only 7 miles from the airport anyway.   I am one of those people who agonize about hotel rooms and locations and particularly cleanliness and safety.  This place was just fine and I would stay there again.  The room was clean and the kitchenette was an added bonus for those days when we didn't want to eat out. The breakfast was a good start to the day.  There was always yogurt, fruit, bagels, waffles if you cared to make them, cereal, hot scrambled eggs and sausage and potatoes.  I used the exercise room and my daughter used the pool; both were fine.  The staff was always very friendly.  There was a manager's reception Mon through Wed with some kind of substantial snack like nachos or turkey sandwiches or burgers.  There were several restaurants right around the corner.  We walked to the Duo restaurant one night.  Parking and wireless Internet connection was free.  My daughter was able to attend her graduate classes remotely for two nights, 3 hours each, without the connection dropping out.  We would definitely stay there again.  Based on our good experience with a Residence Inn, I will be looking for them in other cities when I travel.More</t>
   </si>
   <si>
+    <t>ATLAS313</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r141622660-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1979,6 +2198,9 @@
     <t>Well when i first pulled off the Interstate and realized this property was between the 405 and Slater which is a busy street....I thought damn this is going to be a noisy place.  On the weekends the place is not packed and I requested a quiet room and got one in the middle of the property between the two thoroughfares.  It was relatively quiet and the the 2 bedroom suite I got was nice.  Only downsides is they have HiDef TV's with no HiDef signals so the reception is not good which is not the best for football viewing.  Breakfast was so-so.  Pro's:  Front desk kid was super nice and helped me with the internet as they have a computer that doesn't automatically go to Internet explorer.  Rooms are thermostat controlled and fans are pretty quiet.Con's: You could get a room facing the 405 so if you are a light sleeper could be an issue.More</t>
   </si>
   <si>
+    <t>MaNPaM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r141293403-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -1994,6 +2216,9 @@
     <t>My parents, daughter and I stayed in a two room suite in building 9.  Couldn't hear the freeway from the room.  Room was clean.  My daughter was sick and visited the front desk in the middle of the night for some soda and the front desk clerk was friendly and super helpful.  Would stay here again.</t>
   </si>
   <si>
+    <t>jumba42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r139532864-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -2013,6 +2238,9 @@
   </si>
   <si>
     <t>Have not stayed in the RI of Fountain Valley for 5 years due to previous bad experiences, it is good to see that it is back to Marriot Residence Inn standards with only a few things left to improve.We stayed for more than a week in building 10 which faces the 405 freeway. Close the windows and you only hear big trucks using their brakes but no other traffic.All rooms have been remodeled 2 years ago and follow the new RI color scheme. Unfortunately they have not upgraded the WiFi (slow download rates with less than 200 kB and long response times) and the TV is still analog with a limited number of channels (no Disney to the great disappointment of my daughter).Room service was consistently good and the front desk service perfect, very polite and obliging.More</t>
+  </si>
+  <si>
+    <t>GEO_001</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r135789942-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
@@ -2040,6 +2268,9 @@
 The drawbacks. Firstly, it's pricey. We would have paid less for 2 rooms at a different hotel but we needed the rooms to be connected. Hotels rarely if ever assure this, and even then you may find out at check-in that the adjoining rooms are all gone. Secondly, they have a sport court and so we wanted to play a little b-ball. We went to the front desk to check out a ball and were told that the people who checked it (apparently thier one and only ball) out yesterday never returned it. There was no effort by the staff to try to accomodate us and to get the ball back. I...Overall we enjoyed our stay here.Our main requirement was a 2 room suite - that's what we got. The living room and kitchen were great additions. The location is great - close to the 405 and easy to get to Newport and Huntington Beach, Disneyland, local restaurants and stores, and John Wayne Airport. We had family staying at nearby hotels (they only needed a single room so other places worked out better for them) and we were close to them too. The continental breakfast was fine (be warned - when they say that breakfast ends at 9:30, they mean it - all of the food is put away promptly) and they have free dinner Monday through Wednesday but we have other stuff planned so we didn't go.The drawbacks. Firstly, it's pricey. We would have paid less for 2 rooms at a different hotel but we needed the rooms to be connected. Hotels rarely if ever assure this, and even then you may find out at check-in that the adjoining rooms are all gone. Secondly, they have a sport court and so we wanted to play a little b-ball. We went to the front desk to check out a ball and were told that the people who checked it (apparently thier one and only ball) out yesterday never returned it. There was no effort by the staff to try to accomodate us and to get the ball back. I asked if they had any other kind of ball and was told no. A basketball costs about $20 - perhaps they could buy 4 or 5 to make sure that at least a couple are available at all times. They should get a few volleyballs too.Again, nice place overall but expensive and they need to make sure that all of the amenities are useable.More</t>
   </si>
   <si>
+    <t>YAZPhoenix</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r132750738-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -2061,6 +2292,9 @@
   <si>
     <t>Upon arrival we got our keys and room number, our room was way in the back of the property.  After unloading all luggage and kids, we can't get into our room and find someone is already there.  We had to go back to the front desk with all our stuff to find out we were given the wrong room number, twice, once on the key envelope and again on the map.  Frustrating since we lost about 20 minutes dealing with this.
 First of all, these are practically apartments, the entrance to your room is on the outside, there are no hallways or elevators.  Our room smells weird but we try to ignore this.  It was a studio so there was only one TV.  We race to the pool to get in some swimming before closing time but it is filthy.  When we get ready for bed we find there are no linens or pillows for the sofa bed.  The vanity in the bathroom has a broken handle.  Now this isn't important but it does show lack of care to details.  Room is king with sofa sleeper and should accommodate three but the shampoo provided isn't even an a full ounce.  No paper towels provided in the kitchen.  No waste basket provided in the bathroom or the bathroom vanity area.  Breakfast looked OK, variety of hot foods, but the dining area was so small and crowded that we couldn't get to...Upon arrival we got our keys and room number, our room was way in the back of the property.  After unloading all luggage and kids, we can't get into our room and find someone is already there.  We had to go back to the front desk with all our stuff to find out we were given the wrong room number, twice, once on the key envelope and again on the map.  Frustrating since we lost about 20 minutes dealing with this.First of all, these are practically apartments, the entrance to your room is on the outside, there are no hallways or elevators.  Our room smells weird but we try to ignore this.  It was a studio so there was only one TV.  We race to the pool to get in some swimming before closing time but it is filthy.  When we get ready for bed we find there are no linens or pillows for the sofa bed.  The vanity in the bathroom has a broken handle.  Now this isn't important but it does show lack of care to details.  Room is king with sofa sleeper and should accommodate three but the shampoo provided isn't even an a full ounce.  No paper towels provided in the kitchen.  No waste basket provided in the bathroom or the bathroom vanity area.  Breakfast looked OK, variety of hot foods, but the dining area was so small and crowded that we couldn't get to anything or find a place to sit, so we had to go buy breakfast somewhere else.We have been very loyal to another hotel chain and this was our first stay at a Marriott property.  I have never paid as much as I did to stay here and was very disappointed.  So much that we did everything we could to not have to be back to our room until bedtime.  The fact that we couldn't swim with our kids or have breakfast on the property was the most disappointing.The only compliment I have is that the staff was very friendly and courteous the several times I had to call to get things we needed.  Specifically the gentleman in charge of housekeeping was very nice and helpful even giving us directions to the closest beach. The room itself was quiet and roomy.Unfortunately we were not impressed and probably will not be returning here or to any Marriott properties.More</t>
+  </si>
+  <si>
+    <t>AussieEdmonton</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r126952538-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
@@ -2090,6 +2324,9 @@
 This hotel upholds the Marriott name.  Everyone was just eager to please the guests.  If we were short anything in our room, one call would take care of it.  Even the small fruit flies - as another reviewer mentioned - were taken care of when I mentioned that to the front desk....From the moment I booked the accomodation to the moment we arrived at to the moment we left - we were made to feel like valued customers.The suite was ready when we arrived. The two bedroom suite has two separate bathrooms and TVs in each room.  The beds were comfortable and clean.  The living room was equiped with TV, a pullout sofa, a chair, a coffee table, a writing desk and chair.  The kitchen was fully stocked with silverware and crockery.  A stove, fridge and dishwasher completed the kitchen area.  There was a nice eating bar counter set up with tall chairs.  We liked the darkening drapes in all the rooms.  The Air conditioning worked well. Corey at reception was excellent. We had a medical emergency the second day of our arrival, and he found the number of the local clinic and hospital for us.  Ashley was helpful as well.  Manager Art Aquino came and thanked me for staying there, and upon me complementing the hotel, he complemented his staff for running it so well.  A great quality in a manager!  Happy staff make for happy guests.This hotel upholds the Marriott name.  Everyone was just eager to please the guests.  If we were short anything in our room, one call would take care of it.  Even the small fruit flies - as another reviewer mentioned - were taken care of when I mentioned that to the front desk.  They sent someone to spray the room whilst we were out, and upon our arrival, the flies were gone, and there was no spray odour.Parking was plentiful and free which was a bonus.  The WiFi was great, and connecting to it was not much of a problem.  Our room did not face the highway, but was to the side a bit.  Being on the second floor helped keep the noise level down - not that there was that much noise from the traffic or other guests in our suite.  We ate at the buffet for a few days.  Usual fare - toast, bagels, muffins, coffee, juice, waffles, scrambled eggs, sausages, apples, bananas, yogurt, pancakes......  Monday through Wednesday, there are also some refreshments offered between 5 and 7, but unfortunately, we did not partake in those as we were never at the hotel until later in the night.  We were going to stay for 8 days, but ended up extending our trip to 13 days.  I am glad we picked this hotel to stay at.More</t>
   </si>
   <si>
+    <t>T S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r125958366-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -2108,6 +2345,9 @@
     <t>Decent place to stay....bed average but the room and bathroom were very clean other than the small flies we were never able to get rid of.  Room had a king bed and pullout (but very uncomfortable) sofa.   Room looked to be recently re-decorated.  Great water pressure in shower.  Ask for extra towels when you check in if you have more than 2 people.Smart to get a room facing the freeway (and oddly it wasn't loud)....but if you face the pool, you get that noise PLUS the kids who are playing basketball endlessly on the court near the pool at all hours of the night and very early morning.  That was the loudest part of our stay.Fair hot or cold breakfast with the usual offerings.  We found the staff to be very friendly and accommodating when we checked in.  We had a mini-kitchen with small dining table plus a desk which was nice.Teenage daughter liked the free wi-fi and we liked free and ample parking.  We stayed 2 nights.More</t>
   </si>
   <si>
+    <t>travel447</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r124323214-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -2129,6 +2369,9 @@
     <t>Stayed here for 2 days and it was very nice. Many amenities as home such as full refrigerator, stove and microwave.  Had a king studio suite which was spacious enough for us with a sofa, work table, chair and dinning table.  The room was clean and quiet even though we were on the freeway side.  The staff was very cordial and helpful.  I got to the hotel 3 hours before normal check-in time and they were able to accommodate my check-in early with less than an hour wait.  The room had a nice closet and also good digital heating controls.  The wash area is separate from the shower.  Bed comfort was good.  There is a free breakfast which was quite good.  Eggs, potatoes, susage, bagels, toast, MYO waffles, cereal and juice and coffee was part of the offering.  There is no restaurant on site but some can be found about a two mile drive away.  I would not hesitate to stay here again.More</t>
   </si>
   <si>
+    <t>josh t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r120637534-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -2147,6 +2390,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>Yellowtrike</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r119072903-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -2165,6 +2411,9 @@
     <t>Our stay at this facility was a gift from a friend.Staff was attentive.  The accommodations were well maintained.  The happy hour was well stocked.  Breakfast had a variety of items that would make most people happy.The room included a kitchenette with a dishwasher.  The room itself had very nice decor.  The bathroom and kitchen was clean.The only reason I didn't give this facility five stars was because the bed was hard AND lumpy and the drinking glasses in the kitchen had not been cleaned, only wiped out--yuck.There was dish soap available had I needed to use them - or I could have used the dishwasher.There are some fast food restaurants within walking distance.More</t>
   </si>
   <si>
+    <t>NancyCap</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r118218363-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -2186,6 +2435,9 @@
     <t>This is a really nice property.  2 bedroom suite is just beautiful..  Kitchen with granite counter tops , dishes glasses forks ( not that I used any) , Kitchen is fullly prepared.  Fireplace, living room , 3 flat screen TV.  Nice pool, laundry room which came is handy when our trip got delayed coz of the hurricane in NJ.  ( no flight out for 5 days)  it's close to everything, disney is 10 mins away.  beach is close, it's an easy drive to visit Laguna and newport beach...complementary breakfast everyday....hey they even had a complementary barbeque one night.....beds very comfortable two bathrooms with tub and shower...    Stay you wont regret it,.....More</t>
   </si>
   <si>
+    <t>Familyfamilyfirst</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r117019131-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -2204,6 +2456,9 @@
     <t>We stayed for 5 nights, my discount paperwork was lost and the late night guy (dark skin) )was rude about it. Refused to book another night even though hotel was empty. Stated they called room but no messages were left. Female Security Guard was rude and even would close the pool before 11pm, Stood and watch you gather your belongings and interrupted your conversations to say leave now. Not polite or friendly at all.The breakfast was the same everyday very little change compared to other Residence Inn.Will never stay again. Yes room was upgraded but cheaply done. Very disappointed would not stay again. Other hotels in the area are higher quality. Beginning to loose faith in the Marriott ChainJacuzzi filthy every evening and jets didn't work most of the time. Felt slimy after using it.Only positive was the Housekeeping crew and young man that worked various shifts Caucasian with dark brown hair. Breakfast no fresh fruit, no variance. Light snacks basic and cheap compared to other Residence Inns.More</t>
   </si>
   <si>
+    <t>mndylee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r116581310-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -2222,6 +2477,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>mommyof3angels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r115821427-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californ.html</t>
   </si>
   <si>
@@ -2241,6 +2499,9 @@
   </si>
   <si>
     <t>My husband and I stayed here for 1 week in July while my husband attended to business in the area and the kids and I played! I must say it has been a long, long time since I have found a hotel that was clean, comfortable, met all of our needs and provided the highest standard of customer service and then some. Our room was immaculate upon arrival and then again each evening when we returned. I was impressed that they even put our dirty dishes in the dishwasher for us. That alone really made it a vacation for me! The breakfast was good every morning with a variety of choices and we had the option to bring it back to our room. But I was even more impressed with the ladies attending to the breakfast. They kept everything filled up and neat throughout the morning and were very pleasant and helpful. One morning we were struggling to take all of our plates (husband and I and 3 kids) back to our room and without our even asking one of the employees quickly fashioned us a foil covered small box for a tray. Wow! What superb customer service. It wasn't a fancy tray but it was so out of her way kind to bother to do that. You don't get that kind of service any more. They really are very genuine anytime you need their help or have questions. We...My husband and I stayed here for 1 week in July while my husband attended to business in the area and the kids and I played! I must say it has been a long, long time since I have found a hotel that was clean, comfortable, met all of our needs and provided the highest standard of customer service and then some. Our room was immaculate upon arrival and then again each evening when we returned. I was impressed that they even put our dirty dishes in the dishwasher for us. That alone really made it a vacation for me! The breakfast was good every morning with a variety of choices and we had the option to bring it back to our room. But I was even more impressed with the ladies attending to the breakfast. They kept everything filled up and neat throughout the morning and were very pleasant and helpful. One morning we were struggling to take all of our plates (husband and I and 3 kids) back to our room and without our even asking one of the employees quickly fashioned us a foil covered small box for a tray. Wow! What superb customer service. It wasn't a fancy tray but it was so out of her way kind to bother to do that. You don't get that kind of service any more. They really are very genuine anytime you need their help or have questions. We headed to the front desk a number of times for questions about beaches in the area, directions, change for parking meters, needed extra blankets and towels and they were ALWAYS genuinely courteous and acommadating. The room like I said was very clean and updated. The bathroom had a large mirror over the sink/counter and plenty of counter space and drawers. The closet had large mirrored doors and plenty of space. The bed was super comfortable and the AC and or blankets always made for a good nights sleep too. The kitchen had a full size refrigerator, 2 burner stove and lots of counter space. No oven though, that was their only downfall. They had all of the basic essentials needed to make a basic meal. They even have a gas bbq and nice outdoor dining and relaxing area for use on a first come first serve basis. They are a short drive to huntington beaches and other nice beaches. Lots of shopping and dining available in the area - Costco, target, etc. you name it! You probably do need a car to get to most stores though. There are a couple of gas stations/mini marts close by. And we discovered that Disneyland is just a 10 min drive away. The pool was small but nice enough for the kids to play and great comfortable lounge chairs for me to read and relax! Can't say enough great things about Residence Inn Huntington Beach/Fountain Valley. Bravo! Bravo! Thank you! We will be back!More</t>
+  </si>
+  <si>
+    <t>TwosATraveling</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r98034174-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californi.html</t>
@@ -2272,6 +2533,9 @@
 The price was right for what we got....would we stay here again? Probably...just wish they had got what they updated...This location is the older style Residence Inn (which we prefer) and has recently been going through an upgrade; I think most rooms have been upgraded - but NOT totally upgraded.  The kitchen area has cheap GE stainless steel appliances, granite counters, and tile floor.  What is missing is a full size stove with an OVEN.  There is a two burner electric stove top set into the granite but no oven (which I expected).  The pots, dishes, glassware, etc. are minimal (no large dinner plates)....why even a dishwasher - if you put all on the shelves it would only fill 1/4th of the dishwasher.  Coffee, dishwasher soap never replished;  bathroom soap was replenished once.  The bathroom had new sink, cabinet and granite counter.  The separate tub area had a new tile floor and that was it...the bath tub enclosure was original - clean, but looked dated.  The living/bed area (we were in a studio) had a new flat screen TV, a fireplace with poker but not able to be used and nothing in any literature about it's use; the window treatment was dated and obviously the same from years past (as shown in photos).Breakfast was OK....small room, crowded - the old exercise room....the staff was very pleasant.Used the laundry area...clean, good equipment....$2.00 for each wash and each dry.The price was right for what we got....would we stay here again? Probably...just wish they had got what they updated right!More</t>
   </si>
   <si>
+    <t>Sillymeow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r91911198-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californi.html</t>
   </si>
   <si>
@@ -2290,6 +2554,9 @@
     <t>June 2010</t>
   </si>
   <si>
+    <t>USAroamer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r90831124-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californi.html</t>
   </si>
   <si>
@@ -2305,6 +2572,9 @@
     <t>We stayed at this hotel for 2 nights.  We found the room to be tastefully furnished.  The free wi-fi and wired connectivity met our needs.  The breakfast they provided was very good (although due to construction we had to walk to the Courtyard next door for our breakfast).  The beds provided the best sleep we had during our 8 day trip to California.  The staff was friendly and helpful.  We enjoyed our stay and would stay here again.</t>
   </si>
   <si>
+    <t>chimmoi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r53326420-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californi.html</t>
   </si>
   <si>
@@ -2324,6 +2594,9 @@
   </si>
   <si>
     <t>We stayed in a 2 BR unit.  They layout is 2 BR across each other with living room in the middle.  This property is showing signs of age.  The bathroom, sink, vanity have been caulked and re-caulked over many times.  The kitchen cabinets are old, painted over and some cabinet doors are crooked.  They are not dirty, just old.  One can only go so far in making old furnitures look good.  The pullout sofa cod is so old and barely had any cushion left.  The property is adequate but definite at the low end for Marriott standards. It's ok if you can get a bargain rate; Otherwise, find other Residence Inns if you have to pay regular rate.  Complimentary breakfast is good just like other R.I.More</t>
+  </si>
+  <si>
+    <t>jantzk</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r45590199-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californi.html</t>
@@ -2351,6 +2624,9 @@
 On the positive side, I had a great work space once everything got running.  There was a kitchen which was very convenient, a nice workout facility and a great breakfast.  This hotel is convenient if you don't have the...My introduction to this hotel was so bad, I considered asking for a refund and leaving the first night.  Upon check-in at 9pm on a Monday night after a long work day, I was given a room next to the freeway and the walls are so thin you could hear the traffic pass.  I called the front desk and they apologized and offered a room on the other side of the hotel - the hotel was very empty so why give me a crappy room in the first place?  So I lugged my bags and equipment back to my car and went to the new room.  This room smelled terrible, had a bathtub full of water - a leaky tub and the maid left the drain plugged, the remote control did not work nor did the internet.I fixed the tub myself - and with the bathroom door shut could not hear the leak.  The front desk sent a new TV remote and connected me with tech support that took 30-45 minutes to get the internet connected.  I requested that I receive a discount on my room for all the problems and time this cost me.  Nothing was offered or done. On the positive side, I had a great work space once everything got running.  There was a kitchen which was very convenient, a nice workout facility and a great breakfast.  This hotel is convenient if you don't have the problems I had, but for $150/night with a discount,  I don't know that I would stay at this hotel again or recommend it - perhaps it's more economical for families since the room was so large.More</t>
   </si>
   <si>
+    <t>luxk69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r37436860-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californi.html</t>
   </si>
   <si>
@@ -2369,6 +2645,9 @@
     <t>August 2009</t>
   </si>
   <si>
+    <t>Boeing767</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r15207835-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californi.html</t>
   </si>
   <si>
@@ -2390,6 +2669,9 @@
     <t>We stopped in Southern California on our way home from Acapulco. We wanted a trip to Disneyland, but a hotel away from all the hubbub (since it was just us adults). This hotel was a perfect choice, the old, apartment style Residence Inn (as opposed to the newer highrise format), asbolutely PERFECT service. Every request we had was honored, with a smile. Case-in-point: We needed quarters to do a week's worth of laundry we had brought back from Mexico ... they didn't have enough at the front desk, so they clerk walked to the Courtyard next door, and brought them back to us - and didn't even act put out. What's more, they give your free soap and dryer sheets (most hotels charge a buck or more for a tiny box of Tide)The studio was a bit small, will probably request a one-bedroom next time ... but that was our doing, not theirs. The hotel is accessible to the freeway, close to shopping (Costco, supermarkets, sports stores), and restaurants (Olive Garden, Boston Market, Souplantation - just about anything else you could think of. Only about 15 minutes from the Disney parks. Will definitely return.More</t>
   </si>
   <si>
+    <t>Sara U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r14324022-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californi.html</t>
   </si>
   <si>
@@ -2411,6 +2693,9 @@
     <t>Four of us decided to stay at this property after a day trip to Disneyland, instead of driving home late that night.  The location is in a very quiet area off the 405, and it's about a 15 minute drive to Disney parks.  The hotel is older, and it hasn't been renovated to the degree of the Courtyard next door, but it is still a fine hotel.  We stayed in a king suite with a fold out sofa bed without any problems.   There was a full kitchen, including a dishwasher, refrigerator, and sink. The staff was incredibly friendly and helpful from everything; towels to finding a place to deliver dinner after 11pm.  We used the hot tub, and it was very relaxing.  They offer complimentary breakfast, though we didn't partake.  The Courtyard next door charges $10pp for the same thing.  Overall, I'd probably stay here again with a group, if not just for the excellent service we received.More</t>
   </si>
   <si>
+    <t>ArizonaMomof3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r13359588-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_Californi.html</t>
   </si>
   <si>
@@ -2426,6 +2711,9 @@
     <t>I had to travel for business for 2 weeks and was delighted to stay at this hotel. The staff was extremely nice and the breakfast and social hour through the week was EXCELLENT. Definitely a good value for the money. I even got to bring my dog! The bed was super comfortable too. I would definitely recommend this hotel to anyone... especially for people who need somewhere to stay long term.</t>
   </si>
   <si>
+    <t>jlmjdar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r7438098-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2447,6 +2735,9 @@
     <t>Stayed here back in January 2007 for 2 nights, didn't get house keeping and when we checked out early (all came down with the flu) they didn't check us out!  Two days later we called the hotel after we got home with a question, and even though we called the office and checked out over the phone before we left, they never checked us out!  This time, arrived at hotel at 2:00pm, told us no rooms ready yet, come back in an hour.  We went back at 4:00pm, two hours later and room still not ready, come back in an hour.  (Check in is at 4:00pm)  Talked with Manager, she apologized, I explained I was told to come back in an hour and gave them two hours, still no room.  We left, called Marriott Rewards Reservations for help, they called hotel and within 20 minnutes, our room was ready.  Manager apologized again, ordered Pizza and had it delivered to the room later that evening.  Kids, needless to say, were estatic. Aside from that, stay was pleasant.  Breakfast Buffet always  had plenty of food.  Only one day could not get a table and took the food back to the room.  Hotel is a great location right off Interstate.  Close to Huntington Beach Pier.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r5482385-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
   </si>
   <si>
@@ -2460,6 +2751,9 @@
   </si>
   <si>
     <t>Stayed in this for 1 night it, i loved it the staff was soo nice. The rooms were big and really nice to stay in. I will be coming back to stay there for business.</t>
+  </si>
+  <si>
+    <t>aseret314</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32406-d84020-r3544941-Residence_Inn_by_Marriott_Huntington_Beach_Fountain_Valley-Fountain_Valley_California.html</t>
@@ -2982,43 +3276,47 @@
       <c r="A2" t="n">
         <v>28491</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3032,50 +3330,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>28491</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3089,50 +3391,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>28491</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3144,56 +3450,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>28491</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -3211,56 +3521,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>28491</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3272,56 +3586,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>28491</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3333,56 +3651,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="X7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>28491</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>99</v>
       </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>93</v>
-      </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3394,56 +3716,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>28491</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
         <v>104</v>
       </c>
-      <c r="J9" t="s">
-        <v>97</v>
-      </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3455,56 +3781,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="X9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>28491</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3520,56 +3850,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="X10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>28491</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3587,56 +3921,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="X11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>28491</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3654,56 +3992,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="X12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>28491</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -3721,56 +4063,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>28491</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="O14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3782,56 +4128,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="X14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>28491</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="O15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3849,56 +4199,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="X15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>28491</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="J16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3910,56 +4264,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="X16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>28491</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -3977,56 +4335,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="X17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>28491</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>194</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="O18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="P18" t="n">
         <v>2</v>
@@ -4044,47 +4406,51 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="X18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Y18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>28491</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="K19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -4101,56 +4467,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="X19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="Y19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>28491</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>213</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4162,56 +4532,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>28491</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>223</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="O21" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4229,56 +4603,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="X21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>28491</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="L22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -4298,50 +4676,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>28491</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>240</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="J23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="K23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="L23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="O23" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4357,56 +4739,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="X23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="Y23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>28491</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>249</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="J24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="K24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="L24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -4424,56 +4810,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="X24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="Y24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>28491</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>259</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="J25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="K25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="L25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="O25" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4487,50 +4877,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>28491</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>266</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="J26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="K26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="O26" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4546,56 +4940,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="X26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="Y26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>28491</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>276</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="J27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="K27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="L27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -4615,50 +5013,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>28491</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>284</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="J28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="K28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="L28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="O28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4670,56 +5072,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="X28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="Y28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>28491</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>294</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="J29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="K29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="L29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="O29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4737,56 +5143,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="X29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="Y29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>28491</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>304</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="J30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="K30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="L30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4802,56 +5212,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="X30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="Y30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>28491</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>314</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="J31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="K31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="L31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4869,56 +5283,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="X31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="Y31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>28491</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>323</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="J32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="K32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="L32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4936,47 +5354,51 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="X32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="Y32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>28491</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="J33" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="K33" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="L33" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
@@ -4993,47 +5415,51 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="X33" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="Y33" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>28491</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>338</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="J34" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="K34" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="L34" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
@@ -5050,56 +5476,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="X34" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="Y34" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>28491</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>345</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="J35" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="K35" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="L35" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="O35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -5117,56 +5547,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="X35" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="Y35" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>28491</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>355</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="J36" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="K36" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="L36" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -5184,56 +5618,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="X36" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="Y36" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>28491</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>364</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="J37" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="K37" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="L37" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5245,47 +5683,51 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="X37" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="Y37" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>28491</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>372</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="J38" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="K38" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="L38" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
@@ -5312,56 +5754,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="X38" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="Y38" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>28491</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>381</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="J39" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="K39" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="L39" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5379,56 +5825,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="X39" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="Y39" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>28491</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>390</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="J40" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="K40" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="L40" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5444,56 +5894,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="X40" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="Y40" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>28491</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>400</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="J41" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="K41" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="L41" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="O41" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5509,56 +5963,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="X41" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="Y41" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>28491</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>410</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="J42" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="K42" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="L42" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5580,56 +6038,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="X42" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="Y42" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>28491</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>420</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="J43" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="K43" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="L43" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5645,56 +6107,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="X43" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="Y43" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>28491</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>430</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="J44" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="K44" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="L44" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="O44" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5706,56 +6172,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="X44" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="Y44" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>28491</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>439</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="J45" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="K45" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="L45" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5771,56 +6241,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="X45" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="Y45" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>28491</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>448</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="J46" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="K46" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="L46" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="O46" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5838,47 +6312,51 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="X46" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="Y46" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>28491</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>458</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="J47" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="K47" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="L47" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
@@ -5905,56 +6383,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="X47" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="Y47" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>28491</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>467</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="J48" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="K48" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="L48" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5976,56 +6458,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="X48" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="Y48" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>28491</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>477</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="J49" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="K49" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="L49" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -6049,50 +6535,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>28491</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>485</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="J50" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="K50" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="L50" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="O50" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -6108,56 +6598,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="X50" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="Y50" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>28491</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>495</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="J51" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="K51" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="L51" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -6179,56 +6673,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="X51" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="Y51" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>28491</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>505</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="J52" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="K52" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="L52" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -6250,56 +6748,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="X52" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="Y52" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>28491</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>515</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="J53" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="K53" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="L53" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -6321,56 +6823,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="X53" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
       <c r="Y53" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>28491</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>525</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="J54" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="K54" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="L54" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6392,56 +6898,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
       <c r="X54" t="s">
-        <v>481</v>
+        <v>533</v>
       </c>
       <c r="Y54" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>28491</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>535</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="J55" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="K55" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
       <c r="L55" t="s">
-        <v>487</v>
+        <v>540</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="O55" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -6463,56 +6973,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>489</v>
+        <v>542</v>
       </c>
       <c r="X55" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
       <c r="Y55" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>28491</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>545</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
       <c r="J56" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
       <c r="K56" t="s">
-        <v>495</v>
+        <v>549</v>
       </c>
       <c r="L56" t="s">
-        <v>496</v>
+        <v>550</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>497</v>
+        <v>551</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6534,56 +7048,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>498</v>
+        <v>552</v>
       </c>
       <c r="X56" t="s">
-        <v>499</v>
+        <v>553</v>
       </c>
       <c r="Y56" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>28491</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>555</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>501</v>
+        <v>556</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="J57" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
       <c r="K57" t="s">
-        <v>504</v>
+        <v>559</v>
       </c>
       <c r="L57" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>506</v>
+        <v>561</v>
       </c>
       <c r="O57" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6605,56 +7123,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>507</v>
+        <v>562</v>
       </c>
       <c r="X57" t="s">
-        <v>508</v>
+        <v>563</v>
       </c>
       <c r="Y57" t="s">
-        <v>509</v>
+        <v>564</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>28491</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>565</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>510</v>
+        <v>566</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="J58" t="s">
-        <v>512</v>
+        <v>568</v>
       </c>
       <c r="K58" t="s">
-        <v>513</v>
+        <v>569</v>
       </c>
       <c r="L58" t="s">
-        <v>514</v>
+        <v>570</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>515</v>
+        <v>571</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6678,50 +7200,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>516</v>
+        <v>572</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>28491</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>573</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="J59" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="K59" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="L59" t="s">
-        <v>521</v>
+        <v>578</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -6743,56 +7269,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>522</v>
+        <v>579</v>
       </c>
       <c r="X59" t="s">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="Y59" t="s">
-        <v>524</v>
+        <v>581</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>28491</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>582</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="J60" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="K60" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="L60" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="O60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6814,56 +7344,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>522</v>
+        <v>579</v>
       </c>
       <c r="X60" t="s">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="Y60" t="s">
-        <v>530</v>
+        <v>588</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>28491</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>589</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>531</v>
+        <v>590</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
       <c r="J61" t="s">
-        <v>533</v>
+        <v>592</v>
       </c>
       <c r="K61" t="s">
-        <v>534</v>
+        <v>593</v>
       </c>
       <c r="L61" t="s">
-        <v>535</v>
+        <v>594</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6885,56 +7419,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>536</v>
+        <v>595</v>
       </c>
       <c r="X61" t="s">
-        <v>537</v>
+        <v>596</v>
       </c>
       <c r="Y61" t="s">
-        <v>538</v>
+        <v>597</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>28491</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>598</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="J62" t="s">
+        <v>601</v>
+      </c>
+      <c r="K62" t="s">
+        <v>602</v>
+      </c>
+      <c r="L62" t="s">
+        <v>603</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
         <v>541</v>
       </c>
-      <c r="K62" t="s">
-        <v>542</v>
-      </c>
-      <c r="L62" t="s">
-        <v>543</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5</v>
-      </c>
-      <c r="N62" t="s">
-        <v>488</v>
-      </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6956,56 +7494,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>544</v>
+        <v>604</v>
       </c>
       <c r="X62" t="s">
-        <v>545</v>
+        <v>605</v>
       </c>
       <c r="Y62" t="s">
-        <v>546</v>
+        <v>606</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>28491</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>607</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>547</v>
+        <v>608</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>548</v>
+        <v>609</v>
       </c>
       <c r="J63" t="s">
-        <v>549</v>
+        <v>610</v>
       </c>
       <c r="K63" t="s">
-        <v>550</v>
+        <v>611</v>
       </c>
       <c r="L63" t="s">
-        <v>551</v>
+        <v>612</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>552</v>
+        <v>613</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>3</v>
@@ -7027,47 +7569,51 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>553</v>
+        <v>614</v>
       </c>
       <c r="X63" t="s">
-        <v>554</v>
+        <v>615</v>
       </c>
       <c r="Y63" t="s">
-        <v>555</v>
+        <v>616</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>28491</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>617</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>556</v>
+        <v>618</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
       <c r="J64" t="s">
-        <v>558</v>
+        <v>620</v>
       </c>
       <c r="K64" t="s">
-        <v>559</v>
+        <v>621</v>
       </c>
       <c r="L64" t="s">
-        <v>560</v>
+        <v>622</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
@@ -7094,56 +7640,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>561</v>
+        <v>623</v>
       </c>
       <c r="X64" t="s">
-        <v>562</v>
+        <v>624</v>
       </c>
       <c r="Y64" t="s">
-        <v>563</v>
+        <v>625</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>28491</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>626</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>564</v>
+        <v>627</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>565</v>
+        <v>628</v>
       </c>
       <c r="J65" t="s">
-        <v>566</v>
+        <v>629</v>
       </c>
       <c r="K65" t="s">
-        <v>567</v>
+        <v>630</v>
       </c>
       <c r="L65" t="s">
-        <v>568</v>
+        <v>631</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>569</v>
+        <v>632</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -7165,56 +7715,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>570</v>
+        <v>633</v>
       </c>
       <c r="X65" t="s">
-        <v>571</v>
+        <v>634</v>
       </c>
       <c r="Y65" t="s">
-        <v>572</v>
+        <v>635</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>28491</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>636</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>573</v>
+        <v>637</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>574</v>
+        <v>638</v>
       </c>
       <c r="J66" t="s">
-        <v>575</v>
+        <v>639</v>
       </c>
       <c r="K66" t="s">
-        <v>576</v>
+        <v>640</v>
       </c>
       <c r="L66" t="s">
-        <v>577</v>
+        <v>641</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>578</v>
+        <v>642</v>
       </c>
       <c r="O66" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -7236,56 +7790,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>579</v>
+        <v>643</v>
       </c>
       <c r="X66" t="s">
-        <v>580</v>
+        <v>644</v>
       </c>
       <c r="Y66" t="s">
-        <v>581</v>
+        <v>645</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>28491</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>646</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>582</v>
+        <v>647</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>583</v>
+        <v>648</v>
       </c>
       <c r="J67" t="s">
-        <v>584</v>
+        <v>649</v>
       </c>
       <c r="K67" t="s">
-        <v>585</v>
+        <v>650</v>
       </c>
       <c r="L67" t="s">
-        <v>586</v>
+        <v>651</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>587</v>
+        <v>652</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -7307,56 +7865,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>579</v>
+        <v>643</v>
       </c>
       <c r="X67" t="s">
-        <v>580</v>
+        <v>644</v>
       </c>
       <c r="Y67" t="s">
-        <v>588</v>
+        <v>653</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>28491</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>654</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>589</v>
+        <v>655</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>590</v>
+        <v>656</v>
       </c>
       <c r="J68" t="s">
-        <v>591</v>
+        <v>657</v>
       </c>
       <c r="K68" t="s">
-        <v>592</v>
+        <v>658</v>
       </c>
       <c r="L68" t="s">
-        <v>593</v>
+        <v>659</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>587</v>
+        <v>652</v>
       </c>
       <c r="O68" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -7380,50 +7942,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>593</v>
+        <v>659</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>28491</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>660</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>594</v>
+        <v>661</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>595</v>
+        <v>662</v>
       </c>
       <c r="J69" t="s">
-        <v>596</v>
+        <v>663</v>
       </c>
       <c r="K69" t="s">
-        <v>597</v>
+        <v>664</v>
       </c>
       <c r="L69" t="s">
-        <v>598</v>
+        <v>665</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>599</v>
+        <v>666</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -7447,50 +8013,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>598</v>
+        <v>665</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>28491</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>667</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>600</v>
+        <v>668</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>601</v>
+        <v>669</v>
       </c>
       <c r="J70" t="s">
-        <v>602</v>
+        <v>670</v>
       </c>
       <c r="K70" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
       <c r="L70" t="s">
-        <v>604</v>
+        <v>672</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>605</v>
+        <v>673</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7514,50 +8084,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>604</v>
+        <v>672</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>28491</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>674</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>606</v>
+        <v>675</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>607</v>
+        <v>676</v>
       </c>
       <c r="J71" t="s">
-        <v>608</v>
+        <v>677</v>
       </c>
       <c r="K71" t="s">
-        <v>609</v>
+        <v>678</v>
       </c>
       <c r="L71" t="s">
-        <v>610</v>
+        <v>679</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>611</v>
+        <v>680</v>
       </c>
       <c r="O71" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7581,50 +8155,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>610</v>
+        <v>679</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>28491</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>681</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>612</v>
+        <v>682</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>613</v>
+        <v>683</v>
       </c>
       <c r="J72" t="s">
-        <v>614</v>
+        <v>684</v>
       </c>
       <c r="K72" t="s">
-        <v>615</v>
+        <v>685</v>
       </c>
       <c r="L72" t="s">
-        <v>616</v>
+        <v>686</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>611</v>
+        <v>680</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7648,50 +8226,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>616</v>
+        <v>686</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>28491</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>687</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>617</v>
+        <v>688</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>618</v>
+        <v>689</v>
       </c>
       <c r="J73" t="s">
-        <v>619</v>
+        <v>690</v>
       </c>
       <c r="K73" t="s">
-        <v>620</v>
+        <v>691</v>
       </c>
       <c r="L73" t="s">
-        <v>621</v>
+        <v>692</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>622</v>
+        <v>693</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7715,50 +8297,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>623</v>
+        <v>694</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>28491</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>695</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>624</v>
+        <v>696</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>625</v>
+        <v>697</v>
       </c>
       <c r="J74" t="s">
-        <v>626</v>
+        <v>698</v>
       </c>
       <c r="K74" t="s">
-        <v>627</v>
+        <v>699</v>
       </c>
       <c r="L74" t="s">
-        <v>628</v>
+        <v>700</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="O74" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7782,50 +8368,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>630</v>
+        <v>702</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>28491</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>703</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>631</v>
+        <v>704</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>632</v>
+        <v>705</v>
       </c>
       <c r="J75" t="s">
-        <v>633</v>
+        <v>706</v>
       </c>
       <c r="K75" t="s">
-        <v>634</v>
+        <v>707</v>
       </c>
       <c r="L75" t="s">
-        <v>635</v>
+        <v>708</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="O75" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7849,50 +8439,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>636</v>
+        <v>709</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>28491</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>710</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>637</v>
+        <v>711</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>638</v>
+        <v>712</v>
       </c>
       <c r="J76" t="s">
-        <v>639</v>
+        <v>713</v>
       </c>
       <c r="K76" t="s">
-        <v>640</v>
+        <v>714</v>
       </c>
       <c r="L76" t="s">
-        <v>641</v>
+        <v>715</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7916,50 +8510,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>641</v>
+        <v>715</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>28491</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>716</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>642</v>
+        <v>717</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>643</v>
+        <v>718</v>
       </c>
       <c r="J77" t="s">
-        <v>644</v>
+        <v>719</v>
       </c>
       <c r="K77" t="s">
-        <v>645</v>
+        <v>720</v>
       </c>
       <c r="L77" t="s">
-        <v>646</v>
+        <v>721</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>647</v>
+        <v>722</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7983,50 +8581,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>648</v>
+        <v>723</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>28491</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>724</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>649</v>
+        <v>725</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>650</v>
+        <v>726</v>
       </c>
       <c r="J78" t="s">
-        <v>651</v>
+        <v>727</v>
       </c>
       <c r="K78" t="s">
-        <v>652</v>
+        <v>728</v>
       </c>
       <c r="L78" t="s">
-        <v>653</v>
+        <v>729</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>654</v>
+        <v>730</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -8050,50 +8652,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>655</v>
+        <v>731</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>28491</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>732</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>656</v>
+        <v>733</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>657</v>
+        <v>734</v>
       </c>
       <c r="J79" t="s">
-        <v>658</v>
+        <v>735</v>
       </c>
       <c r="K79" t="s">
-        <v>659</v>
+        <v>736</v>
       </c>
       <c r="L79" t="s">
-        <v>660</v>
+        <v>737</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>661</v>
+        <v>738</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>2</v>
@@ -8117,50 +8723,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>662</v>
+        <v>739</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>28491</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>740</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>663</v>
+        <v>741</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>664</v>
+        <v>742</v>
       </c>
       <c r="J80" t="s">
-        <v>665</v>
+        <v>743</v>
       </c>
       <c r="K80" t="s">
-        <v>666</v>
+        <v>744</v>
       </c>
       <c r="L80" t="s">
-        <v>667</v>
+        <v>745</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>668</v>
+        <v>746</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -8184,50 +8794,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>669</v>
+        <v>747</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>28491</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>748</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>670</v>
+        <v>749</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>671</v>
+        <v>750</v>
       </c>
       <c r="J81" t="s">
-        <v>672</v>
+        <v>751</v>
       </c>
       <c r="K81" t="s">
-        <v>673</v>
+        <v>752</v>
       </c>
       <c r="L81" t="s">
-        <v>674</v>
+        <v>753</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>668</v>
+        <v>746</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>3</v>
@@ -8251,50 +8865,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>675</v>
+        <v>754</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>28491</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>755</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>676</v>
+        <v>756</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>677</v>
+        <v>757</v>
       </c>
       <c r="J82" t="s">
-        <v>678</v>
+        <v>758</v>
       </c>
       <c r="K82" t="s">
-        <v>679</v>
+        <v>759</v>
       </c>
       <c r="L82" t="s">
-        <v>680</v>
+        <v>760</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>681</v>
+        <v>761</v>
       </c>
       <c r="O82" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -8318,50 +8936,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>682</v>
+        <v>762</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>28491</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>763</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>683</v>
+        <v>764</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>684</v>
+        <v>765</v>
       </c>
       <c r="J83" t="s">
-        <v>685</v>
+        <v>766</v>
       </c>
       <c r="K83" t="s">
-        <v>686</v>
+        <v>767</v>
       </c>
       <c r="L83" t="s">
-        <v>687</v>
+        <v>768</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>688</v>
+        <v>769</v>
       </c>
       <c r="O83" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8385,50 +9007,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>687</v>
+        <v>768</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>28491</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>770</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>689</v>
+        <v>771</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>690</v>
+        <v>772</v>
       </c>
       <c r="J84" t="s">
-        <v>691</v>
+        <v>773</v>
       </c>
       <c r="K84" t="s">
-        <v>692</v>
+        <v>774</v>
       </c>
       <c r="L84" t="s">
-        <v>693</v>
+        <v>775</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>688</v>
+        <v>769</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -8452,50 +9078,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>694</v>
+        <v>776</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>28491</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>777</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>695</v>
+        <v>778</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>696</v>
+        <v>779</v>
       </c>
       <c r="J85" t="s">
-        <v>697</v>
+        <v>780</v>
       </c>
       <c r="K85" t="s">
-        <v>698</v>
+        <v>781</v>
       </c>
       <c r="L85" t="s">
-        <v>699</v>
+        <v>782</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>700</v>
+        <v>783</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8517,50 +9147,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>701</v>
+        <v>784</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>28491</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>785</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>702</v>
+        <v>786</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>703</v>
+        <v>787</v>
       </c>
       <c r="J86" t="s">
-        <v>704</v>
+        <v>788</v>
       </c>
       <c r="K86" t="s">
-        <v>705</v>
+        <v>789</v>
       </c>
       <c r="L86" t="s">
-        <v>706</v>
+        <v>790</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>700</v>
+        <v>783</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>2</v>
@@ -8580,50 +9214,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>707</v>
+        <v>791</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>28491</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>792</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>708</v>
+        <v>793</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>709</v>
+        <v>794</v>
       </c>
       <c r="J87" t="s">
-        <v>710</v>
+        <v>795</v>
       </c>
       <c r="K87" t="s">
-        <v>711</v>
+        <v>796</v>
       </c>
       <c r="L87" t="s">
-        <v>712</v>
+        <v>797</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
       </c>
       <c r="N87" t="s">
-        <v>713</v>
+        <v>798</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8643,50 +9281,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>712</v>
+        <v>797</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>28491</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>799</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>714</v>
+        <v>800</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>715</v>
+        <v>801</v>
       </c>
       <c r="J88" t="s">
-        <v>716</v>
+        <v>802</v>
       </c>
       <c r="K88" t="s">
-        <v>717</v>
+        <v>803</v>
       </c>
       <c r="L88" t="s">
-        <v>718</v>
+        <v>804</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>719</v>
+        <v>805</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8706,50 +9348,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>720</v>
+        <v>806</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>28491</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>807</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>721</v>
+        <v>808</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>722</v>
+        <v>809</v>
       </c>
       <c r="J89" t="s">
-        <v>723</v>
+        <v>810</v>
       </c>
       <c r="K89" t="s">
-        <v>724</v>
+        <v>811</v>
       </c>
       <c r="L89" t="s">
-        <v>725</v>
+        <v>812</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>726</v>
+        <v>813</v>
       </c>
       <c r="O89" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -8773,50 +9419,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>727</v>
+        <v>814</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>28491</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>815</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>728</v>
+        <v>816</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>729</v>
+        <v>817</v>
       </c>
       <c r="J90" t="s">
-        <v>730</v>
+        <v>818</v>
       </c>
       <c r="K90" t="s">
-        <v>731</v>
+        <v>819</v>
       </c>
       <c r="L90" t="s">
-        <v>732</v>
+        <v>820</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>733</v>
+        <v>821</v>
       </c>
       <c r="O90" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8840,41 +9490,45 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>732</v>
+        <v>820</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>28491</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>822</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>734</v>
+        <v>823</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>735</v>
+        <v>824</v>
       </c>
       <c r="J91" t="s">
-        <v>736</v>
+        <v>825</v>
       </c>
       <c r="K91" t="s">
-        <v>737</v>
+        <v>826</v>
       </c>
       <c r="L91" t="s">
-        <v>738</v>
+        <v>827</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
@@ -8903,50 +9557,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>738</v>
+        <v>827</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>28491</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>828</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>739</v>
+        <v>829</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>740</v>
+        <v>830</v>
       </c>
       <c r="J92" t="s">
-        <v>741</v>
+        <v>831</v>
       </c>
       <c r="K92" t="s">
-        <v>742</v>
+        <v>832</v>
       </c>
       <c r="L92" t="s">
-        <v>743</v>
+        <v>833</v>
       </c>
       <c r="M92" t="n">
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>744</v>
+        <v>834</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -8970,50 +9628,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>745</v>
+        <v>835</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>28491</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>836</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>746</v>
+        <v>837</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>747</v>
+        <v>838</v>
       </c>
       <c r="J93" t="s">
-        <v>748</v>
+        <v>839</v>
       </c>
       <c r="K93" t="s">
-        <v>749</v>
+        <v>840</v>
       </c>
       <c r="L93" t="s">
-        <v>750</v>
+        <v>841</v>
       </c>
       <c r="M93" t="n">
         <v>3</v>
       </c>
       <c r="N93" t="s">
-        <v>751</v>
+        <v>842</v>
       </c>
       <c r="O93" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P93" t="n">
         <v>3</v>
@@ -9037,50 +9699,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>752</v>
+        <v>843</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>28491</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>844</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>753</v>
+        <v>845</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>754</v>
+        <v>846</v>
       </c>
       <c r="J94" t="s">
-        <v>755</v>
+        <v>847</v>
       </c>
       <c r="K94" t="s">
-        <v>756</v>
+        <v>848</v>
       </c>
       <c r="L94" t="s">
-        <v>757</v>
+        <v>849</v>
       </c>
       <c r="M94" t="n">
         <v>3</v>
       </c>
       <c r="N94" t="s">
-        <v>758</v>
+        <v>850</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="n">
         <v>2</v>
@@ -9104,50 +9770,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>757</v>
+        <v>849</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>28491</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>851</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>759</v>
+        <v>852</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>760</v>
+        <v>853</v>
       </c>
       <c r="J95" t="s">
-        <v>761</v>
+        <v>854</v>
       </c>
       <c r="K95" t="s">
-        <v>762</v>
+        <v>855</v>
       </c>
       <c r="L95" t="s">
-        <v>763</v>
+        <v>856</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>764</v>
+        <v>857</v>
       </c>
       <c r="O95" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9171,50 +9841,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>765</v>
+        <v>858</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>28491</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>859</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>766</v>
+        <v>860</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>767</v>
+        <v>861</v>
       </c>
       <c r="J96" t="s">
-        <v>768</v>
+        <v>862</v>
       </c>
       <c r="K96" t="s">
-        <v>769</v>
+        <v>863</v>
       </c>
       <c r="L96" t="s">
-        <v>770</v>
+        <v>864</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>771</v>
+        <v>865</v>
       </c>
       <c r="O96" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P96" t="n">
         <v>4</v>
@@ -9238,41 +9912,45 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>772</v>
+        <v>866</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>28491</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>867</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>773</v>
+        <v>868</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>774</v>
+        <v>869</v>
       </c>
       <c r="J97" t="s">
-        <v>775</v>
+        <v>870</v>
       </c>
       <c r="K97" t="s">
-        <v>776</v>
+        <v>871</v>
       </c>
       <c r="L97" t="s">
-        <v>777</v>
+        <v>872</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
@@ -9291,50 +9969,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>777</v>
+        <v>872</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>28491</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>873</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>778</v>
+        <v>874</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>779</v>
+        <v>875</v>
       </c>
       <c r="J98" t="s">
-        <v>780</v>
+        <v>876</v>
       </c>
       <c r="K98" t="s">
-        <v>781</v>
+        <v>877</v>
       </c>
       <c r="L98" t="s">
-        <v>782</v>
+        <v>878</v>
       </c>
       <c r="M98" t="n">
         <v>3</v>
       </c>
       <c r="N98" t="s">
-        <v>783</v>
+        <v>879</v>
       </c>
       <c r="O98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P98" t="n">
         <v>3</v>
@@ -9358,41 +10040,45 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>784</v>
+        <v>880</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>28491</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>881</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>785</v>
+        <v>882</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>786</v>
+        <v>883</v>
       </c>
       <c r="J99" t="s">
-        <v>787</v>
+        <v>884</v>
       </c>
       <c r="K99" t="s">
-        <v>788</v>
+        <v>885</v>
       </c>
       <c r="L99" t="s">
-        <v>789</v>
+        <v>886</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
@@ -9419,41 +10105,45 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>789</v>
+        <v>886</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>28491</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>887</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>790</v>
+        <v>888</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>791</v>
+        <v>889</v>
       </c>
       <c r="J100" t="s">
-        <v>792</v>
+        <v>890</v>
       </c>
       <c r="K100" t="s">
-        <v>793</v>
+        <v>891</v>
       </c>
       <c r="L100" t="s">
-        <v>794</v>
+        <v>892</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
@@ -9480,7 +10170,7 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>795</v>
+        <v>893</v>
       </c>
     </row>
   </sheetData>
